--- a/dashboard/server/resources/counterparty_targets_2026.xlsx
+++ b/dashboard/server/resources/counterparty_targets_2026.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\B2B\data_analysis_ai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\B2B\data_analysis_ai\dashboard\server\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5133423C-0714-4E0D-BD06-57601432F33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97CA0C97-E7F4-46D9-80E5-F5C4976DE7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BF30D8BD-E8FB-4CB0-B3F0-05A8332F606C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BF30D8BD-E8FB-4CB0-B3F0-05A8332F606C}"/>
   </bookViews>
   <sheets>
     <sheet name="26 출강 타겟" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="271">
   <si>
     <t>티어</t>
   </si>
@@ -819,10 +819,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CHO 조직</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>People Development 그룹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -833,6 +829,39 @@
   <si>
     <t>미입력</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경력개발지원실</t>
+  </si>
+  <si>
+    <t>하나은행</t>
+  </si>
+  <si>
+    <t>IT시스템부</t>
+  </si>
+  <si>
+    <t>현대카드</t>
+  </si>
+  <si>
+    <t>카드사업 지원본부</t>
+  </si>
+  <si>
+    <t>한성은</t>
+  </si>
+  <si>
+    <t>미확인(한성은)</t>
+  </si>
+  <si>
+    <t>이해민</t>
+  </si>
+  <si>
+    <t>미확인(이해민)</t>
+  </si>
+  <si>
+    <t>IT기획그룹</t>
+  </si>
+  <si>
+    <t>현대자동차그룹</t>
   </si>
 </sst>
 </file>
@@ -856,12 +885,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -878,8 +913,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1216,25 +1254,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF9C648-897F-4933-AE23-AECAF1223738}">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63:F120"/>
+    <sheetView topLeftCell="A32" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C181" sqref="C45:C181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.8984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1254,7 +1292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1274,7 +1312,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1294,7 +1332,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1314,7 +1352,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1334,7 +1372,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1354,7 +1392,7 @@
         <v>5.03</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1362,7 +1400,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -1374,7 +1412,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1394,7 +1432,7 @@
         <v>4.8099999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1414,7 +1452,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1434,7 +1472,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1454,7 +1492,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1474,7 +1512,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1494,7 +1532,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1514,7 +1552,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1534,7 +1572,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1554,7 +1592,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1574,7 +1612,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1594,7 +1632,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1614,7 +1652,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1634,7 +1672,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1654,7 +1692,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1674,7 +1712,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1694,7 +1732,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1714,7 +1752,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -1734,7 +1772,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -1754,7 +1792,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -1774,7 +1812,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -1794,7 +1832,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1814,7 +1852,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1834,7 +1872,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1854,7 +1892,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -1874,7 +1912,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -1894,7 +1932,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -1914,7 +1952,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -1934,7 +1972,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -1954,7 +1992,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -1974,875 +2012,875 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
         <v>8</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B45" t="s">
         <v>101</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C45" t="s">
         <v>102</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D45" t="s">
         <v>103</v>
       </c>
-      <c r="E38" t="s">
-        <v>104</v>
-      </c>
-      <c r="F38">
+      <c r="E45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45">
         <v>15.79</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" t="s">
-        <v>112</v>
-      </c>
-      <c r="E40" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" t="s">
-        <v>110</v>
-      </c>
-      <c r="C41" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" t="s">
-        <v>112</v>
-      </c>
-      <c r="E41" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F42">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" t="s">
-        <v>117</v>
-      </c>
-      <c r="C43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" t="s">
-        <v>118</v>
-      </c>
-      <c r="E43" t="s">
-        <v>119</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>20</v>
-      </c>
-      <c r="B44" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" t="s">
-        <v>130</v>
-      </c>
-      <c r="E44" t="s">
-        <v>108</v>
-      </c>
-      <c r="F44">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C45" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" t="s">
-        <v>132</v>
-      </c>
-      <c r="E45" t="s">
-        <v>108</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="C46" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F46">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C47" t="s">
         <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="E47" t="s">
         <v>108</v>
       </c>
       <c r="F47">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>20</v>
       </c>
       <c r="B48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B49" t="s">
+        <v>110</v>
+      </c>
+      <c r="C49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" t="s">
+        <v>112</v>
+      </c>
+      <c r="E49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" t="s">
+        <v>112</v>
+      </c>
+      <c r="E51" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" t="s">
+        <v>112</v>
+      </c>
+      <c r="E52" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" t="s">
+        <v>116</v>
+      </c>
+      <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" t="s">
+        <v>118</v>
+      </c>
+      <c r="E54" t="s">
+        <v>119</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" t="s">
+        <v>122</v>
+      </c>
+      <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" t="s">
+        <v>122</v>
+      </c>
+      <c r="E58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" t="s">
+        <v>127</v>
+      </c>
+      <c r="E59" t="s">
+        <v>104</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" t="s">
+        <v>104</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" t="s">
+        <v>130</v>
+      </c>
+      <c r="E62" t="s">
+        <v>108</v>
+      </c>
+      <c r="F62">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" t="s">
+        <v>108</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" t="s">
+        <v>65</v>
+      </c>
+      <c r="D64" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" t="s">
+        <v>108</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" t="s">
+        <v>108</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" t="s">
+        <v>132</v>
+      </c>
+      <c r="E66" t="s">
+        <v>108</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" t="s">
         <v>134</v>
       </c>
-      <c r="C48" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C67" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" t="s">
         <v>130</v>
       </c>
-      <c r="E48" t="s">
-        <v>108</v>
-      </c>
-      <c r="F48">
+      <c r="E67" t="s">
+        <v>108</v>
+      </c>
+      <c r="F67">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" t="s">
+        <v>130</v>
+      </c>
+      <c r="E68" t="s">
+        <v>108</v>
+      </c>
+      <c r="F68">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" t="s">
+        <v>130</v>
+      </c>
+      <c r="E69" t="s">
+        <v>108</v>
+      </c>
+      <c r="F69">
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s">
+        <v>92</v>
+      </c>
+      <c r="C70" t="s">
+        <v>93</v>
+      </c>
+      <c r="D70" t="s">
+        <v>122</v>
+      </c>
+      <c r="E70" t="s">
+        <v>104</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>20</v>
+      </c>
+      <c r="B71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C71" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" t="s">
+        <v>137</v>
+      </c>
+      <c r="E71" t="s">
+        <v>108</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
         <v>40</v>
       </c>
-      <c r="B49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" t="s">
-        <v>149</v>
-      </c>
-      <c r="E49" t="s">
-        <v>104</v>
-      </c>
-      <c r="F49">
-        <v>0.96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="B72" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72" t="s">
+        <v>139</v>
+      </c>
+      <c r="D72" t="s">
+        <v>140</v>
+      </c>
+      <c r="E72" t="s">
+        <v>141</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
         <v>40</v>
-      </c>
-      <c r="B50" t="s">
-        <v>150</v>
-      </c>
-      <c r="C50" t="s">
-        <v>147</v>
-      </c>
-      <c r="D50" t="s">
-        <v>151</v>
-      </c>
-      <c r="E50" t="s">
-        <v>141</v>
-      </c>
-      <c r="F50">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>40</v>
-      </c>
-      <c r="B51" t="s">
-        <v>154</v>
-      </c>
-      <c r="C51" t="s">
-        <v>155</v>
-      </c>
-      <c r="D51" t="s">
-        <v>151</v>
-      </c>
-      <c r="E51" t="s">
-        <v>141</v>
-      </c>
-      <c r="F51">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>40</v>
-      </c>
-      <c r="B52" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" t="s">
-        <v>137</v>
-      </c>
-      <c r="E52" t="s">
-        <v>108</v>
-      </c>
-      <c r="F52">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" t="s">
-        <v>157</v>
-      </c>
-      <c r="C53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" t="s">
-        <v>130</v>
-      </c>
-      <c r="E53" t="s">
-        <v>108</v>
-      </c>
-      <c r="F53">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" t="s">
-        <v>158</v>
-      </c>
-      <c r="C54" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" t="s">
-        <v>159</v>
-      </c>
-      <c r="E54" t="s">
-        <v>108</v>
-      </c>
-      <c r="F54">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>40</v>
-      </c>
-      <c r="B55" t="s">
-        <v>160</v>
-      </c>
-      <c r="C55" t="s">
-        <v>65</v>
-      </c>
-      <c r="D55" t="s">
-        <v>159</v>
-      </c>
-      <c r="E55" t="s">
-        <v>108</v>
-      </c>
-      <c r="F55">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" t="s">
-        <v>162</v>
-      </c>
-      <c r="C56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" t="s">
-        <v>132</v>
-      </c>
-      <c r="E56" t="s">
-        <v>108</v>
-      </c>
-      <c r="F56">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>40</v>
-      </c>
-      <c r="B57" t="s">
-        <v>163</v>
-      </c>
-      <c r="C57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D57" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" t="s">
-        <v>104</v>
-      </c>
-      <c r="F57">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" t="s">
-        <v>164</v>
-      </c>
-      <c r="C58" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" t="s">
-        <v>124</v>
-      </c>
-      <c r="E58" t="s">
-        <v>104</v>
-      </c>
-      <c r="F58">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>40</v>
-      </c>
-      <c r="B59" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" t="s">
-        <v>140</v>
-      </c>
-      <c r="E59" t="s">
-        <v>141</v>
-      </c>
-      <c r="F59">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>40</v>
-      </c>
-      <c r="B60" t="s">
-        <v>169</v>
-      </c>
-      <c r="C60" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" t="s">
-        <v>159</v>
-      </c>
-      <c r="E60" t="s">
-        <v>108</v>
-      </c>
-      <c r="F60">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" t="s">
-        <v>170</v>
-      </c>
-      <c r="C61" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" t="s">
-        <v>107</v>
-      </c>
-      <c r="E61" t="s">
-        <v>108</v>
-      </c>
-      <c r="F61">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>40</v>
-      </c>
-      <c r="B62" t="s">
-        <v>171</v>
-      </c>
-      <c r="C62" t="s">
-        <v>65</v>
-      </c>
-      <c r="D62" t="s">
-        <v>127</v>
-      </c>
-      <c r="E62" t="s">
-        <v>104</v>
-      </c>
-      <c r="F62">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>63</v>
-      </c>
-      <c r="C63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D63" t="s">
-        <v>151</v>
-      </c>
-      <c r="E63" t="s">
-        <v>141</v>
-      </c>
-      <c r="F63">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>63</v>
-      </c>
-      <c r="C64" t="s">
-        <v>64</v>
-      </c>
-      <c r="D64" t="s">
-        <v>151</v>
-      </c>
-      <c r="E64" t="s">
-        <v>141</v>
-      </c>
-      <c r="F64">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>62</v>
-      </c>
-      <c r="B65" t="s">
-        <v>63</v>
-      </c>
-      <c r="C65" t="s">
-        <v>173</v>
-      </c>
-      <c r="D65" t="s">
-        <v>151</v>
-      </c>
-      <c r="E65" t="s">
-        <v>141</v>
-      </c>
-      <c r="F65">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66" t="s">
-        <v>63</v>
-      </c>
-      <c r="C66" t="s">
-        <v>174</v>
-      </c>
-      <c r="D66" t="s">
-        <v>151</v>
-      </c>
-      <c r="E66" t="s">
-        <v>141</v>
-      </c>
-      <c r="F66">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>62</v>
-      </c>
-      <c r="B67" t="s">
-        <v>175</v>
-      </c>
-      <c r="C67" t="s">
-        <v>255</v>
-      </c>
-      <c r="D67" t="s">
-        <v>137</v>
-      </c>
-      <c r="E67" t="s">
-        <v>108</v>
-      </c>
-      <c r="F67">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>62</v>
-      </c>
-      <c r="B68" t="s">
-        <v>175</v>
-      </c>
-      <c r="C68" t="s">
-        <v>176</v>
-      </c>
-      <c r="D68" t="s">
-        <v>137</v>
-      </c>
-      <c r="E68" t="s">
-        <v>108</v>
-      </c>
-      <c r="F68">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" t="s">
-        <v>78</v>
-      </c>
-      <c r="C69" t="s">
-        <v>79</v>
-      </c>
-      <c r="D69" t="s">
-        <v>122</v>
-      </c>
-      <c r="E69" t="s">
-        <v>104</v>
-      </c>
-      <c r="F69">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>62</v>
-      </c>
-      <c r="B70" t="s">
-        <v>78</v>
-      </c>
-      <c r="C70" t="s">
-        <v>65</v>
-      </c>
-      <c r="D70" t="s">
-        <v>137</v>
-      </c>
-      <c r="E70" t="s">
-        <v>108</v>
-      </c>
-      <c r="F70">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>62</v>
-      </c>
-      <c r="B71" t="s">
-        <v>178</v>
-      </c>
-      <c r="C71" t="s">
-        <v>65</v>
-      </c>
-      <c r="D71" t="s">
-        <v>159</v>
-      </c>
-      <c r="E71" t="s">
-        <v>108</v>
-      </c>
-      <c r="F71">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>62</v>
-      </c>
-      <c r="B72" t="s">
-        <v>179</v>
-      </c>
-      <c r="C72" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72" t="s">
-        <v>159</v>
-      </c>
-      <c r="E72" t="s">
-        <v>108</v>
-      </c>
-      <c r="F72">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>62</v>
       </c>
       <c r="B73" t="s">
         <v>138</v>
       </c>
       <c r="C73" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="D73" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="E73" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F73">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="C74" t="s">
-        <v>65</v>
+        <v>257</v>
       </c>
       <c r="D74" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="E74" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F74">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="C75" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="D75" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E75" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F75">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="C76" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="D76" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E76" t="s">
         <v>141</v>
       </c>
       <c r="F76">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="C77" t="s">
-        <v>65</v>
+        <v>269</v>
       </c>
       <c r="D77" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E77" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F77">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B78" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="D78" t="s">
+        <v>149</v>
+      </c>
+      <c r="E78" t="s">
+        <v>104</v>
+      </c>
+      <c r="F78">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" t="s">
+        <v>147</v>
+      </c>
+      <c r="D79" t="s">
         <v>151</v>
-      </c>
-      <c r="E78" t="s">
-        <v>141</v>
-      </c>
-      <c r="F78">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>62</v>
-      </c>
-      <c r="B79" t="s">
-        <v>187</v>
-      </c>
-      <c r="C79" t="s">
-        <v>65</v>
-      </c>
-      <c r="D79" t="s">
-        <v>140</v>
       </c>
       <c r="E79" t="s">
         <v>141</v>
       </c>
       <c r="F79">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="C80" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="D80" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E80" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F80">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="C81" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
       <c r="D81" t="s">
         <v>151</v>
@@ -2851,75 +2889,75 @@
         <v>141</v>
       </c>
       <c r="F81">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="C82" t="s">
-        <v>256</v>
+        <v>65</v>
       </c>
       <c r="D82" t="s">
+        <v>137</v>
+      </c>
+      <c r="E82" t="s">
+        <v>108</v>
+      </c>
+      <c r="F82">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>40</v>
+      </c>
+      <c r="B83" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" t="s">
+        <v>65</v>
+      </c>
+      <c r="D83" t="s">
         <v>130</v>
       </c>
-      <c r="E82" t="s">
-        <v>108</v>
-      </c>
-      <c r="F82">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" t="s">
-        <v>190</v>
-      </c>
-      <c r="C83" t="s">
-        <v>65</v>
-      </c>
-      <c r="D83" t="s">
-        <v>137</v>
-      </c>
       <c r="E83" t="s">
         <v>108</v>
       </c>
       <c r="F83">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B84" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="C84" t="s">
         <v>65</v>
       </c>
       <c r="D84" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E84" t="s">
         <v>108</v>
       </c>
       <c r="F84">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B85" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="C85" t="s">
         <v>65</v>
@@ -2931,115 +2969,115 @@
         <v>108</v>
       </c>
       <c r="F85">
-        <v>0.43</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B86" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="C86" t="s">
         <v>65</v>
       </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="E86" t="s">
         <v>108</v>
       </c>
       <c r="F86">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="C87" t="s">
         <v>65</v>
       </c>
       <c r="D87" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E87" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F87">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B88" t="s">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c r="C88" t="s">
         <v>65</v>
       </c>
       <c r="D88" t="s">
+        <v>116</v>
+      </c>
+      <c r="E88" t="s">
+        <v>104</v>
+      </c>
+      <c r="F88">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" t="s">
+        <v>164</v>
+      </c>
+      <c r="C89" t="s">
+        <v>65</v>
+      </c>
+      <c r="D89" t="s">
         <v>124</v>
       </c>
-      <c r="E88" t="s">
-        <v>104</v>
-      </c>
-      <c r="F88">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>83</v>
-      </c>
-      <c r="B89" t="s">
-        <v>196</v>
-      </c>
-      <c r="C89" t="s">
-        <v>65</v>
-      </c>
-      <c r="D89" t="s">
-        <v>122</v>
-      </c>
       <c r="E89" t="s">
         <v>104</v>
       </c>
       <c r="F89">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B90" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="C90" t="s">
         <v>65</v>
       </c>
       <c r="D90" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E90" t="s">
         <v>104</v>
       </c>
       <c r="F90">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B91" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="C91" t="s">
         <v>65</v>
@@ -3051,135 +3089,135 @@
         <v>104</v>
       </c>
       <c r="F91">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B92" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="C92" t="s">
         <v>65</v>
       </c>
       <c r="D92" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E92" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F92">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B93" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="C93" t="s">
-        <v>203</v>
+        <v>65</v>
       </c>
       <c r="D93" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="E93" t="s">
+        <v>104</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>40</v>
+      </c>
+      <c r="B94" t="s">
+        <v>82</v>
+      </c>
+      <c r="C94" t="s">
+        <v>31</v>
+      </c>
+      <c r="D94" t="s">
+        <v>140</v>
+      </c>
+      <c r="E94" t="s">
         <v>141</v>
       </c>
-      <c r="F93">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>83</v>
-      </c>
-      <c r="B94" t="s">
-        <v>205</v>
-      </c>
-      <c r="C94" t="s">
-        <v>65</v>
-      </c>
-      <c r="D94" t="s">
-        <v>137</v>
-      </c>
-      <c r="E94" t="s">
-        <v>108</v>
-      </c>
       <c r="F94">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="B95" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="C95" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D95" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="E95" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F95">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="B96" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D96" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="E96" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F96">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="B97" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="C97" t="s">
-        <v>209</v>
+        <v>65</v>
       </c>
       <c r="D97" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="E97" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F97">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="B98" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="C98" t="s">
         <v>65</v>
@@ -3191,395 +3229,395 @@
         <v>104</v>
       </c>
       <c r="F98">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>206</v>
+        <v>62</v>
       </c>
       <c r="B99" t="s">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c r="C99" t="s">
-        <v>212</v>
+        <v>28</v>
       </c>
       <c r="D99" t="s">
+        <v>151</v>
+      </c>
+      <c r="E99" t="s">
+        <v>141</v>
+      </c>
+      <c r="F99">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>62</v>
+      </c>
+      <c r="B100" t="s">
+        <v>63</v>
+      </c>
+      <c r="C100" t="s">
+        <v>172</v>
+      </c>
+      <c r="D100" t="s">
+        <v>124</v>
+      </c>
+      <c r="E100" t="s">
+        <v>104</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>62</v>
+      </c>
+      <c r="B101" t="s">
+        <v>63</v>
+      </c>
+      <c r="C101" t="s">
+        <v>64</v>
+      </c>
+      <c r="D101" t="s">
+        <v>151</v>
+      </c>
+      <c r="E101" t="s">
+        <v>141</v>
+      </c>
+      <c r="F101">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>62</v>
+      </c>
+      <c r="B102" t="s">
+        <v>63</v>
+      </c>
+      <c r="C102" t="s">
+        <v>173</v>
+      </c>
+      <c r="D102" t="s">
+        <v>151</v>
+      </c>
+      <c r="E102" t="s">
+        <v>141</v>
+      </c>
+      <c r="F102">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>62</v>
+      </c>
+      <c r="B103" t="s">
+        <v>63</v>
+      </c>
+      <c r="C103" t="s">
+        <v>174</v>
+      </c>
+      <c r="D103" t="s">
+        <v>151</v>
+      </c>
+      <c r="E103" t="s">
+        <v>141</v>
+      </c>
+      <c r="F103">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>62</v>
+      </c>
+      <c r="B104" t="s">
+        <v>175</v>
+      </c>
+      <c r="C104" t="s">
+        <v>255</v>
+      </c>
+      <c r="D104" t="s">
+        <v>137</v>
+      </c>
+      <c r="E104" t="s">
+        <v>108</v>
+      </c>
+      <c r="F104">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>62</v>
+      </c>
+      <c r="B105" t="s">
+        <v>175</v>
+      </c>
+      <c r="C105" t="s">
+        <v>176</v>
+      </c>
+      <c r="D105" t="s">
+        <v>137</v>
+      </c>
+      <c r="E105" t="s">
+        <v>108</v>
+      </c>
+      <c r="F105">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>62</v>
+      </c>
+      <c r="B106" t="s">
+        <v>78</v>
+      </c>
+      <c r="C106" t="s">
+        <v>177</v>
+      </c>
+      <c r="D106" t="s">
+        <v>122</v>
+      </c>
+      <c r="E106" t="s">
+        <v>104</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>62</v>
+      </c>
+      <c r="B107" t="s">
+        <v>78</v>
+      </c>
+      <c r="C107" t="s">
+        <v>79</v>
+      </c>
+      <c r="D107" t="s">
+        <v>122</v>
+      </c>
+      <c r="E107" t="s">
+        <v>104</v>
+      </c>
+      <c r="F107">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>62</v>
+      </c>
+      <c r="B108" t="s">
+        <v>78</v>
+      </c>
+      <c r="C108" t="s">
+        <v>65</v>
+      </c>
+      <c r="D108" t="s">
+        <v>137</v>
+      </c>
+      <c r="E108" t="s">
+        <v>108</v>
+      </c>
+      <c r="F108">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>62</v>
+      </c>
+      <c r="B109" t="s">
+        <v>178</v>
+      </c>
+      <c r="C109" t="s">
+        <v>65</v>
+      </c>
+      <c r="D109" t="s">
+        <v>159</v>
+      </c>
+      <c r="E109" t="s">
+        <v>108</v>
+      </c>
+      <c r="F109">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>62</v>
+      </c>
+      <c r="B110" t="s">
+        <v>179</v>
+      </c>
+      <c r="C110" t="s">
+        <v>65</v>
+      </c>
+      <c r="D110" t="s">
+        <v>159</v>
+      </c>
+      <c r="E110" t="s">
+        <v>108</v>
+      </c>
+      <c r="F110">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>62</v>
+      </c>
+      <c r="B111" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" t="s">
+        <v>65</v>
+      </c>
+      <c r="D111" t="s">
         <v>107</v>
       </c>
-      <c r="E99" t="s">
-        <v>108</v>
-      </c>
-      <c r="F99">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>206</v>
-      </c>
-      <c r="B100" t="s">
-        <v>213</v>
-      </c>
-      <c r="C100" t="s">
-        <v>65</v>
-      </c>
-      <c r="D100" t="s">
-        <v>127</v>
-      </c>
-      <c r="E100" t="s">
-        <v>104</v>
-      </c>
-      <c r="F100">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>206</v>
-      </c>
-      <c r="B101" t="s">
-        <v>208</v>
-      </c>
-      <c r="C101" t="s">
-        <v>65</v>
-      </c>
-      <c r="D101" t="s">
-        <v>137</v>
-      </c>
-      <c r="E101" t="s">
-        <v>108</v>
-      </c>
-      <c r="F101">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>206</v>
-      </c>
-      <c r="B102" t="s">
-        <v>216</v>
-      </c>
-      <c r="C102" t="s">
-        <v>65</v>
-      </c>
-      <c r="D102" t="s">
-        <v>159</v>
-      </c>
-      <c r="E102" t="s">
-        <v>108</v>
-      </c>
-      <c r="F102">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>206</v>
-      </c>
-      <c r="B103" t="s">
-        <v>217</v>
-      </c>
-      <c r="C103" t="s">
-        <v>65</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="E111" t="s">
+        <v>108</v>
+      </c>
+      <c r="F111">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>62</v>
+      </c>
+      <c r="B112" t="s">
+        <v>180</v>
+      </c>
+      <c r="C112" t="s">
+        <v>65</v>
+      </c>
+      <c r="D112" t="s">
+        <v>132</v>
+      </c>
+      <c r="E112" t="s">
+        <v>108</v>
+      </c>
+      <c r="F112">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>62</v>
+      </c>
+      <c r="B113" t="s">
+        <v>181</v>
+      </c>
+      <c r="C113" t="s">
+        <v>65</v>
+      </c>
+      <c r="D113" t="s">
+        <v>149</v>
+      </c>
+      <c r="E113" t="s">
+        <v>104</v>
+      </c>
+      <c r="F113">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>62</v>
+      </c>
+      <c r="B114" t="s">
+        <v>182</v>
+      </c>
+      <c r="C114" t="s">
+        <v>65</v>
+      </c>
+      <c r="D114" t="s">
+        <v>124</v>
+      </c>
+      <c r="E114" t="s">
+        <v>104</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>62</v>
+      </c>
+      <c r="B115" t="s">
+        <v>183</v>
+      </c>
+      <c r="C115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D115" t="s">
         <v>116</v>
       </c>
-      <c r="E103" t="s">
-        <v>104</v>
-      </c>
-      <c r="F103">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>206</v>
-      </c>
-      <c r="B104" t="s">
-        <v>218</v>
-      </c>
-      <c r="C104" t="s">
-        <v>65</v>
-      </c>
-      <c r="D104" t="s">
-        <v>127</v>
-      </c>
-      <c r="E104" t="s">
-        <v>104</v>
-      </c>
-      <c r="F104">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>206</v>
-      </c>
-      <c r="B105" t="s">
-        <v>219</v>
-      </c>
-      <c r="C105" t="s">
-        <v>65</v>
-      </c>
-      <c r="D105" t="s">
-        <v>127</v>
-      </c>
-      <c r="E105" t="s">
-        <v>104</v>
-      </c>
-      <c r="F105">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>206</v>
-      </c>
-      <c r="B106" t="s">
-        <v>210</v>
-      </c>
-      <c r="C106" t="s">
-        <v>65</v>
-      </c>
-      <c r="D106" t="s">
-        <v>127</v>
-      </c>
-      <c r="E106" t="s">
-        <v>104</v>
-      </c>
-      <c r="F106">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>206</v>
-      </c>
-      <c r="B107" t="s">
-        <v>220</v>
-      </c>
-      <c r="C107" t="s">
-        <v>65</v>
-      </c>
-      <c r="D107" t="s">
-        <v>127</v>
-      </c>
-      <c r="E107" t="s">
-        <v>104</v>
-      </c>
-      <c r="F107">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>206</v>
-      </c>
-      <c r="B108" t="s">
-        <v>221</v>
-      </c>
-      <c r="C108" t="s">
-        <v>65</v>
-      </c>
-      <c r="D108" t="s">
-        <v>127</v>
-      </c>
-      <c r="E108" t="s">
-        <v>104</v>
-      </c>
-      <c r="F108">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>206</v>
-      </c>
-      <c r="B109" t="s">
-        <v>222</v>
-      </c>
-      <c r="C109" t="s">
-        <v>65</v>
-      </c>
-      <c r="D109" t="s">
-        <v>116</v>
-      </c>
-      <c r="E109" t="s">
-        <v>104</v>
-      </c>
-      <c r="F109">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>206</v>
-      </c>
-      <c r="B110" t="s">
-        <v>223</v>
-      </c>
-      <c r="C110" t="s">
-        <v>65</v>
-      </c>
-      <c r="D110" t="s">
-        <v>149</v>
-      </c>
-      <c r="E110" t="s">
-        <v>104</v>
-      </c>
-      <c r="F110">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>206</v>
-      </c>
-      <c r="B111" t="s">
-        <v>224</v>
-      </c>
-      <c r="C111" t="s">
-        <v>65</v>
-      </c>
-      <c r="D111" t="s">
-        <v>116</v>
-      </c>
-      <c r="E111" t="s">
-        <v>104</v>
-      </c>
-      <c r="F111">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>206</v>
-      </c>
-      <c r="B112" t="s">
-        <v>232</v>
-      </c>
-      <c r="C112" t="s">
-        <v>233</v>
-      </c>
-      <c r="D112" t="s">
-        <v>130</v>
-      </c>
-      <c r="E112" t="s">
-        <v>108</v>
-      </c>
-      <c r="F112">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>236</v>
-      </c>
-      <c r="B113" t="s">
-        <v>237</v>
-      </c>
-      <c r="C113" t="s">
-        <v>65</v>
-      </c>
-      <c r="D113" t="s">
-        <v>107</v>
-      </c>
-      <c r="E113" t="s">
-        <v>108</v>
-      </c>
-      <c r="F113">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>236</v>
-      </c>
-      <c r="B114" t="s">
-        <v>238</v>
-      </c>
-      <c r="C114" t="s">
-        <v>53</v>
-      </c>
-      <c r="D114" t="s">
-        <v>80</v>
-      </c>
-      <c r="E114" t="s">
-        <v>81</v>
-      </c>
-      <c r="F114">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>236</v>
-      </c>
-      <c r="B115" t="s">
-        <v>239</v>
-      </c>
-      <c r="C115" t="s">
-        <v>240</v>
-      </c>
-      <c r="D115" t="s">
-        <v>159</v>
-      </c>
       <c r="E115" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F115">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="B116" t="s">
-        <v>241</v>
+        <v>84</v>
       </c>
       <c r="C116" t="s">
-        <v>242</v>
+        <v>58</v>
       </c>
       <c r="D116" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="E116" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F116">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="B117" t="s">
-        <v>243</v>
+        <v>94</v>
       </c>
       <c r="C117" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D117" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E117" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F117">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>236</v>
+        <v>62</v>
       </c>
       <c r="B118" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="C118" t="s">
         <v>65</v>
@@ -3591,67 +3629,1267 @@
         <v>108</v>
       </c>
       <c r="F118">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>62</v>
+      </c>
+      <c r="B119" t="s">
+        <v>185</v>
+      </c>
+      <c r="C119" t="s">
+        <v>186</v>
+      </c>
+      <c r="D119" t="s">
+        <v>151</v>
+      </c>
+      <c r="E119" t="s">
+        <v>141</v>
+      </c>
+      <c r="F119">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>62</v>
+      </c>
+      <c r="B120" t="s">
+        <v>187</v>
+      </c>
+      <c r="C120" t="s">
+        <v>65</v>
+      </c>
+      <c r="D120" t="s">
+        <v>140</v>
+      </c>
+      <c r="E120" t="s">
+        <v>141</v>
+      </c>
+      <c r="F120">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>83</v>
+      </c>
+      <c r="B121" t="s">
+        <v>188</v>
+      </c>
+      <c r="C121" t="s">
+        <v>65</v>
+      </c>
+      <c r="D121" t="s">
+        <v>159</v>
+      </c>
+      <c r="E121" t="s">
+        <v>108</v>
+      </c>
+      <c r="F121">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>83</v>
+      </c>
+      <c r="B122" t="s">
+        <v>86</v>
+      </c>
+      <c r="C122" t="s">
+        <v>87</v>
+      </c>
+      <c r="D122" t="s">
+        <v>149</v>
+      </c>
+      <c r="E122" t="s">
+        <v>104</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>83</v>
+      </c>
+      <c r="B123" t="s">
+        <v>88</v>
+      </c>
+      <c r="C123" t="s">
+        <v>89</v>
+      </c>
+      <c r="D123" t="s">
+        <v>151</v>
+      </c>
+      <c r="E123" t="s">
+        <v>141</v>
+      </c>
+      <c r="F123">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>83</v>
+      </c>
+      <c r="B124" t="s">
+        <v>136</v>
+      </c>
+      <c r="C124" t="s">
+        <v>65</v>
+      </c>
+      <c r="D124" t="s">
+        <v>137</v>
+      </c>
+      <c r="E124" t="s">
+        <v>108</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>83</v>
+      </c>
+      <c r="B125" t="s">
+        <v>270</v>
+      </c>
+      <c r="C125" t="s">
+        <v>113</v>
+      </c>
+      <c r="D125" t="s">
+        <v>112</v>
+      </c>
+      <c r="E125" t="s">
+        <v>108</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>83</v>
+      </c>
+      <c r="B126" t="s">
+        <v>189</v>
+      </c>
+      <c r="C126" t="s">
+        <v>256</v>
+      </c>
+      <c r="D126" t="s">
+        <v>130</v>
+      </c>
+      <c r="E126" t="s">
+        <v>108</v>
+      </c>
+      <c r="F126">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>83</v>
+      </c>
+      <c r="B127" t="s">
+        <v>190</v>
+      </c>
+      <c r="C127" t="s">
+        <v>65</v>
+      </c>
+      <c r="D127" t="s">
+        <v>137</v>
+      </c>
+      <c r="E127" t="s">
+        <v>108</v>
+      </c>
+      <c r="F127">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>83</v>
+      </c>
+      <c r="B128" t="s">
+        <v>191</v>
+      </c>
+      <c r="C128" t="s">
+        <v>65</v>
+      </c>
+      <c r="D128" t="s">
+        <v>137</v>
+      </c>
+      <c r="E128" t="s">
+        <v>108</v>
+      </c>
+      <c r="F128">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>83</v>
+      </c>
+      <c r="B129" t="s">
+        <v>192</v>
+      </c>
+      <c r="C129" t="s">
+        <v>65</v>
+      </c>
+      <c r="D129" t="s">
+        <v>159</v>
+      </c>
+      <c r="E129" t="s">
+        <v>108</v>
+      </c>
+      <c r="F129">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>83</v>
+      </c>
+      <c r="B130" t="s">
+        <v>193</v>
+      </c>
+      <c r="C130" t="s">
+        <v>65</v>
+      </c>
+      <c r="D130" t="s">
+        <v>107</v>
+      </c>
+      <c r="E130" t="s">
+        <v>108</v>
+      </c>
+      <c r="F130">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>83</v>
+      </c>
+      <c r="B131" t="s">
+        <v>194</v>
+      </c>
+      <c r="C131" t="s">
+        <v>65</v>
+      </c>
+      <c r="D131" t="s">
+        <v>122</v>
+      </c>
+      <c r="E131" t="s">
+        <v>104</v>
+      </c>
+      <c r="F131">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>83</v>
+      </c>
+      <c r="B132" t="s">
+        <v>195</v>
+      </c>
+      <c r="C132" t="s">
+        <v>65</v>
+      </c>
+      <c r="D132" t="s">
+        <v>124</v>
+      </c>
+      <c r="E132" t="s">
+        <v>104</v>
+      </c>
+      <c r="F132">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>83</v>
+      </c>
+      <c r="B133" t="s">
+        <v>196</v>
+      </c>
+      <c r="C133" t="s">
+        <v>65</v>
+      </c>
+      <c r="D133" t="s">
+        <v>122</v>
+      </c>
+      <c r="E133" t="s">
+        <v>104</v>
+      </c>
+      <c r="F133">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>83</v>
+      </c>
+      <c r="B134" t="s">
+        <v>197</v>
+      </c>
+      <c r="C134" t="s">
+        <v>65</v>
+      </c>
+      <c r="D134" t="s">
+        <v>127</v>
+      </c>
+      <c r="E134" t="s">
+        <v>104</v>
+      </c>
+      <c r="F134">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>83</v>
+      </c>
+      <c r="B135" t="s">
+        <v>198</v>
+      </c>
+      <c r="C135" t="s">
+        <v>65</v>
+      </c>
+      <c r="D135" t="s">
+        <v>122</v>
+      </c>
+      <c r="E135" t="s">
+        <v>104</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>83</v>
+      </c>
+      <c r="B136" t="s">
+        <v>199</v>
+      </c>
+      <c r="C136" t="s">
+        <v>65</v>
+      </c>
+      <c r="D136" t="s">
+        <v>122</v>
+      </c>
+      <c r="E136" t="s">
+        <v>104</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>83</v>
+      </c>
+      <c r="B137" t="s">
+        <v>200</v>
+      </c>
+      <c r="C137" t="s">
+        <v>65</v>
+      </c>
+      <c r="D137" t="s">
+        <v>127</v>
+      </c>
+      <c r="E137" t="s">
+        <v>104</v>
+      </c>
+      <c r="F137">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>83</v>
+      </c>
+      <c r="B138" t="s">
+        <v>201</v>
+      </c>
+      <c r="C138" t="s">
+        <v>65</v>
+      </c>
+      <c r="D138" t="s">
+        <v>137</v>
+      </c>
+      <c r="E138" t="s">
+        <v>108</v>
+      </c>
+      <c r="F138">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>83</v>
+      </c>
+      <c r="B139" t="s">
+        <v>202</v>
+      </c>
+      <c r="C139" t="s">
+        <v>203</v>
+      </c>
+      <c r="D139" t="s">
+        <v>151</v>
+      </c>
+      <c r="E139" t="s">
+        <v>141</v>
+      </c>
+      <c r="F139">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>83</v>
+      </c>
+      <c r="B140" t="s">
+        <v>204</v>
+      </c>
+      <c r="C140" t="s">
+        <v>65</v>
+      </c>
+      <c r="D140" t="s">
+        <v>151</v>
+      </c>
+      <c r="E140" t="s">
+        <v>141</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>83</v>
+      </c>
+      <c r="B141" t="s">
+        <v>205</v>
+      </c>
+      <c r="C141" t="s">
+        <v>65</v>
+      </c>
+      <c r="D141" t="s">
+        <v>137</v>
+      </c>
+      <c r="E141" t="s">
+        <v>108</v>
+      </c>
+      <c r="F141">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>206</v>
+      </c>
+      <c r="B142" t="s">
+        <v>207</v>
+      </c>
+      <c r="C142" t="s">
+        <v>89</v>
+      </c>
+      <c r="D142" t="s">
+        <v>103</v>
+      </c>
+      <c r="E142" t="s">
+        <v>104</v>
+      </c>
+      <c r="F142">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>206</v>
+      </c>
+      <c r="B143" t="s">
+        <v>208</v>
+      </c>
+      <c r="C143" t="s">
+        <v>35</v>
+      </c>
+      <c r="D143" t="s">
+        <v>80</v>
+      </c>
+      <c r="E143" t="s">
+        <v>81</v>
+      </c>
+      <c r="F143">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>206</v>
+      </c>
+      <c r="B144" t="s">
+        <v>208</v>
+      </c>
+      <c r="C144" t="s">
+        <v>209</v>
+      </c>
+      <c r="D144" t="s">
+        <v>80</v>
+      </c>
+      <c r="E144" t="s">
+        <v>81</v>
+      </c>
+      <c r="F144">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>206</v>
+      </c>
+      <c r="B145" t="s">
+        <v>210</v>
+      </c>
+      <c r="C145" t="s">
+        <v>65</v>
+      </c>
+      <c r="D145" t="s">
+        <v>127</v>
+      </c>
+      <c r="E145" t="s">
+        <v>104</v>
+      </c>
+      <c r="F145">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>206</v>
+      </c>
+      <c r="B146" t="s">
+        <v>211</v>
+      </c>
+      <c r="C146" t="s">
+        <v>258</v>
+      </c>
+      <c r="D146" t="s">
+        <v>124</v>
+      </c>
+      <c r="E146" t="s">
+        <v>104</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>206</v>
+      </c>
+      <c r="B147" t="s">
+        <v>212</v>
+      </c>
+      <c r="C147" t="s">
+        <v>212</v>
+      </c>
+      <c r="D147" t="s">
+        <v>107</v>
+      </c>
+      <c r="E147" t="s">
+        <v>108</v>
+      </c>
+      <c r="F147">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>206</v>
+      </c>
+      <c r="B148" t="s">
+        <v>213</v>
+      </c>
+      <c r="C148" t="s">
+        <v>65</v>
+      </c>
+      <c r="D148" t="s">
+        <v>127</v>
+      </c>
+      <c r="E148" t="s">
+        <v>104</v>
+      </c>
+      <c r="F148">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>206</v>
+      </c>
+      <c r="B149" t="s">
+        <v>214</v>
+      </c>
+      <c r="C149" t="s">
+        <v>215</v>
+      </c>
+      <c r="D149" t="s">
+        <v>151</v>
+      </c>
+      <c r="E149" t="s">
+        <v>141</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>206</v>
+      </c>
+      <c r="B150" t="s">
+        <v>208</v>
+      </c>
+      <c r="C150" t="s">
+        <v>65</v>
+      </c>
+      <c r="D150" t="s">
+        <v>137</v>
+      </c>
+      <c r="E150" t="s">
+        <v>108</v>
+      </c>
+      <c r="F150">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>206</v>
+      </c>
+      <c r="B151" t="s">
+        <v>216</v>
+      </c>
+      <c r="C151" t="s">
+        <v>65</v>
+      </c>
+      <c r="D151" t="s">
+        <v>159</v>
+      </c>
+      <c r="E151" t="s">
+        <v>108</v>
+      </c>
+      <c r="F151">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>206</v>
+      </c>
+      <c r="B152" t="s">
+        <v>217</v>
+      </c>
+      <c r="C152" t="s">
+        <v>65</v>
+      </c>
+      <c r="D152" t="s">
+        <v>116</v>
+      </c>
+      <c r="E152" t="s">
+        <v>104</v>
+      </c>
+      <c r="F152">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
+        <v>206</v>
+      </c>
+      <c r="B153" t="s">
+        <v>218</v>
+      </c>
+      <c r="C153" t="s">
+        <v>65</v>
+      </c>
+      <c r="D153" t="s">
+        <v>127</v>
+      </c>
+      <c r="E153" t="s">
+        <v>104</v>
+      </c>
+      <c r="F153">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
+        <v>206</v>
+      </c>
+      <c r="B154" t="s">
+        <v>219</v>
+      </c>
+      <c r="C154" t="s">
+        <v>65</v>
+      </c>
+      <c r="D154" t="s">
+        <v>127</v>
+      </c>
+      <c r="E154" t="s">
+        <v>104</v>
+      </c>
+      <c r="F154">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
+        <v>206</v>
+      </c>
+      <c r="B155" t="s">
+        <v>210</v>
+      </c>
+      <c r="C155" t="s">
+        <v>65</v>
+      </c>
+      <c r="D155" t="s">
+        <v>127</v>
+      </c>
+      <c r="E155" t="s">
+        <v>104</v>
+      </c>
+      <c r="F155">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A156" t="s">
+        <v>206</v>
+      </c>
+      <c r="B156" t="s">
+        <v>220</v>
+      </c>
+      <c r="C156" t="s">
+        <v>65</v>
+      </c>
+      <c r="D156" t="s">
+        <v>127</v>
+      </c>
+      <c r="E156" t="s">
+        <v>104</v>
+      </c>
+      <c r="F156">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A157" t="s">
+        <v>206</v>
+      </c>
+      <c r="B157" t="s">
+        <v>221</v>
+      </c>
+      <c r="C157" t="s">
+        <v>65</v>
+      </c>
+      <c r="D157" t="s">
+        <v>127</v>
+      </c>
+      <c r="E157" t="s">
+        <v>104</v>
+      </c>
+      <c r="F157">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A158" t="s">
+        <v>206</v>
+      </c>
+      <c r="B158" t="s">
+        <v>222</v>
+      </c>
+      <c r="C158" t="s">
+        <v>65</v>
+      </c>
+      <c r="D158" t="s">
+        <v>116</v>
+      </c>
+      <c r="E158" t="s">
+        <v>104</v>
+      </c>
+      <c r="F158">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A159" t="s">
+        <v>206</v>
+      </c>
+      <c r="B159" t="s">
+        <v>223</v>
+      </c>
+      <c r="C159" t="s">
+        <v>65</v>
+      </c>
+      <c r="D159" t="s">
+        <v>149</v>
+      </c>
+      <c r="E159" t="s">
+        <v>104</v>
+      </c>
+      <c r="F159">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A160" t="s">
+        <v>206</v>
+      </c>
+      <c r="B160" t="s">
+        <v>224</v>
+      </c>
+      <c r="C160" t="s">
+        <v>65</v>
+      </c>
+      <c r="D160" t="s">
+        <v>116</v>
+      </c>
+      <c r="E160" t="s">
+        <v>104</v>
+      </c>
+      <c r="F160">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A161" t="s">
+        <v>206</v>
+      </c>
+      <c r="B161" t="s">
+        <v>225</v>
+      </c>
+      <c r="C161" t="s">
+        <v>65</v>
+      </c>
+      <c r="D161" t="s">
+        <v>116</v>
+      </c>
+      <c r="E161" t="s">
+        <v>104</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A162" t="s">
+        <v>206</v>
+      </c>
+      <c r="B162" t="s">
+        <v>226</v>
+      </c>
+      <c r="C162" t="s">
+        <v>65</v>
+      </c>
+      <c r="D162" t="s">
+        <v>127</v>
+      </c>
+      <c r="E162" t="s">
+        <v>104</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A163" t="s">
+        <v>206</v>
+      </c>
+      <c r="B163" t="s">
+        <v>227</v>
+      </c>
+      <c r="C163" t="s">
+        <v>65</v>
+      </c>
+      <c r="D163" t="s">
+        <v>149</v>
+      </c>
+      <c r="E163" t="s">
+        <v>104</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
+        <v>206</v>
+      </c>
+      <c r="B164" t="s">
+        <v>228</v>
+      </c>
+      <c r="C164" t="s">
+        <v>65</v>
+      </c>
+      <c r="D164" t="s">
+        <v>127</v>
+      </c>
+      <c r="E164" t="s">
+        <v>104</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
+        <v>206</v>
+      </c>
+      <c r="B165" t="s">
+        <v>229</v>
+      </c>
+      <c r="C165" t="s">
+        <v>65</v>
+      </c>
+      <c r="D165" t="s">
+        <v>149</v>
+      </c>
+      <c r="E165" t="s">
+        <v>104</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A166" t="s">
+        <v>206</v>
+      </c>
+      <c r="B166" t="s">
+        <v>230</v>
+      </c>
+      <c r="C166" t="s">
+        <v>65</v>
+      </c>
+      <c r="D166" t="s">
+        <v>122</v>
+      </c>
+      <c r="E166" t="s">
+        <v>104</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
+        <v>206</v>
+      </c>
+      <c r="B167" t="s">
+        <v>231</v>
+      </c>
+      <c r="C167" t="s">
+        <v>65</v>
+      </c>
+      <c r="D167" t="s">
+        <v>122</v>
+      </c>
+      <c r="E167" t="s">
+        <v>104</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
+        <v>206</v>
+      </c>
+      <c r="B168" t="s">
+        <v>232</v>
+      </c>
+      <c r="C168" t="s">
+        <v>233</v>
+      </c>
+      <c r="D168" t="s">
+        <v>130</v>
+      </c>
+      <c r="E168" t="s">
+        <v>108</v>
+      </c>
+      <c r="F168">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
+        <v>206</v>
+      </c>
+      <c r="B169" t="s">
+        <v>234</v>
+      </c>
+      <c r="C169" t="s">
+        <v>65</v>
+      </c>
+      <c r="D169" t="s">
+        <v>151</v>
+      </c>
+      <c r="E169" t="s">
+        <v>141</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A170" t="s">
+        <v>206</v>
+      </c>
+      <c r="B170" t="s">
+        <v>235</v>
+      </c>
+      <c r="C170" t="s">
+        <v>65</v>
+      </c>
+      <c r="D170" t="s">
+        <v>151</v>
+      </c>
+      <c r="E170" t="s">
+        <v>141</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A171" t="s">
+        <v>236</v>
+      </c>
+      <c r="B171" t="s">
+        <v>237</v>
+      </c>
+      <c r="C171" t="s">
+        <v>65</v>
+      </c>
+      <c r="D171" t="s">
+        <v>107</v>
+      </c>
+      <c r="E171" t="s">
+        <v>108</v>
+      </c>
+      <c r="F171">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
+        <v>236</v>
+      </c>
+      <c r="B172" t="s">
+        <v>238</v>
+      </c>
+      <c r="C172" t="s">
+        <v>53</v>
+      </c>
+      <c r="D172" t="s">
+        <v>80</v>
+      </c>
+      <c r="E172" t="s">
+        <v>81</v>
+      </c>
+      <c r="F172">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A173" t="s">
+        <v>236</v>
+      </c>
+      <c r="B173" t="s">
+        <v>239</v>
+      </c>
+      <c r="C173" t="s">
+        <v>240</v>
+      </c>
+      <c r="D173" t="s">
+        <v>159</v>
+      </c>
+      <c r="E173" t="s">
+        <v>108</v>
+      </c>
+      <c r="F173">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A174" t="s">
+        <v>236</v>
+      </c>
+      <c r="B174" t="s">
+        <v>241</v>
+      </c>
+      <c r="C174" t="s">
+        <v>242</v>
+      </c>
+      <c r="D174" t="s">
+        <v>122</v>
+      </c>
+      <c r="E174" t="s">
+        <v>104</v>
+      </c>
+      <c r="F174">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A175" t="s">
+        <v>236</v>
+      </c>
+      <c r="B175" t="s">
+        <v>243</v>
+      </c>
+      <c r="C175" t="s">
+        <v>65</v>
+      </c>
+      <c r="D175" t="s">
+        <v>137</v>
+      </c>
+      <c r="E175" t="s">
+        <v>108</v>
+      </c>
+      <c r="F175">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A176" t="s">
+        <v>236</v>
+      </c>
+      <c r="B176" t="s">
+        <v>244</v>
+      </c>
+      <c r="C176" t="s">
+        <v>65</v>
+      </c>
+      <c r="D176" t="s">
+        <v>130</v>
+      </c>
+      <c r="E176" t="s">
+        <v>108</v>
+      </c>
+      <c r="F176">
         <v>0.04</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A177" t="s">
         <v>236</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B177" t="s">
         <v>239</v>
       </c>
-      <c r="C119" t="s">
-        <v>65</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="C177" t="s">
+        <v>65</v>
+      </c>
+      <c r="D177" t="s">
         <v>159</v>
       </c>
-      <c r="E119" t="s">
-        <v>108</v>
-      </c>
-      <c r="F119">
+      <c r="E177" t="s">
+        <v>108</v>
+      </c>
+      <c r="F177">
         <v>0.08</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A178" t="s">
         <v>236</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B178" t="s">
         <v>245</v>
       </c>
-      <c r="C120" t="s">
-        <v>65</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="C178" t="s">
+        <v>65</v>
+      </c>
+      <c r="D178" t="s">
         <v>132</v>
       </c>
-      <c r="E120" t="s">
-        <v>108</v>
-      </c>
-      <c r="F120">
+      <c r="E178" t="s">
+        <v>108</v>
+      </c>
+      <c r="F178">
         <v>0.03</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A179" t="s">
         <v>236</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B179" t="s">
         <v>246</v>
       </c>
-      <c r="C121" t="s">
-        <v>65</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="C179" t="s">
+        <v>65</v>
+      </c>
+      <c r="D179" t="s">
         <v>122</v>
       </c>
-      <c r="E121" t="s">
-        <v>104</v>
-      </c>
-      <c r="F121">
+      <c r="E179" t="s">
+        <v>104</v>
+      </c>
+      <c r="F179">
         <v>0.04</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A180" t="s">
+        <v>236</v>
+      </c>
+      <c r="B180" t="s">
+        <v>247</v>
+      </c>
+      <c r="C180" t="s">
+        <v>65</v>
+      </c>
+      <c r="D180" t="s">
+        <v>116</v>
+      </c>
+      <c r="E180" t="s">
+        <v>104</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A181" t="s">
+        <v>236</v>
+      </c>
+      <c r="B181" t="s">
+        <v>248</v>
+      </c>
+      <c r="C181" t="s">
+        <v>65</v>
+      </c>
+      <c r="D181" t="s">
+        <v>122</v>
+      </c>
+      <c r="E181" t="s">
+        <v>104</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3662,23 +4900,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F18B4A-CD5C-4B9F-ADEF-B0399A504A71}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.59765625" customWidth="1"/>
+    <col min="4" max="4" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3698,7 +4936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3718,7 +4956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3738,7 +4976,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3758,12 +4996,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
         <v>65</v>
@@ -3775,30 +5013,30 @@
         <v>108</v>
       </c>
       <c r="F5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
         <v>108</v>
       </c>
       <c r="F6">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3806,7 +5044,7 @@
         <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
         <v>112</v>
@@ -3815,241 +5053,241 @@
         <v>108</v>
       </c>
       <c r="F7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
-        <v>257</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F8">
-        <v>1.97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
         <v>108</v>
       </c>
       <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
         <v>104</v>
       </c>
       <c r="F11">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="F12">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
         <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C14" t="s">
         <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="E14" t="s">
         <v>104</v>
       </c>
       <c r="F14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
         <v>65</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
         <v>104</v>
       </c>
       <c r="F15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
         <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
         <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F17">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C18" t="s">
         <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
         <v>104</v>
@@ -4058,255 +5296,255 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
         <v>136</v>
       </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
         <v>137</v>
       </c>
-      <c r="E20" t="s">
-        <v>108</v>
-      </c>
-      <c r="F20">
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21">
-        <v>1.31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" t="s">
-        <v>142</v>
-      </c>
-      <c r="D22" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" t="s">
-        <v>258</v>
-      </c>
-      <c r="D23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23">
-        <v>1.62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C24" t="s">
-        <v>145</v>
-      </c>
-      <c r="D24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" t="s">
-        <v>141</v>
-      </c>
-      <c r="F24">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E25" t="s">
-        <v>141</v>
-      </c>
-      <c r="F25">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" t="s">
-        <v>141</v>
-      </c>
-      <c r="F26">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>158</v>
-      </c>
-      <c r="C27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" t="s">
-        <v>159</v>
-      </c>
-      <c r="E27" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" t="s">
-        <v>132</v>
-      </c>
-      <c r="E28" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" t="s">
-        <v>149</v>
-      </c>
-      <c r="E29" t="s">
-        <v>104</v>
-      </c>
-      <c r="F29">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C30" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F30">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="D31" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F31">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>257</v>
       </c>
       <c r="D32" t="s">
         <v>103</v>
@@ -4315,538 +5553,538 @@
         <v>104</v>
       </c>
       <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="D33" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
         <v>141</v>
       </c>
       <c r="F33">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>40</v>
       </c>
       <c r="B35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" t="s">
+        <v>269</v>
+      </c>
+      <c r="D35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D38" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" t="s">
+        <v>141</v>
+      </c>
+      <c r="F38">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" t="s">
+        <v>65</v>
+      </c>
+      <c r="D41" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>158</v>
+      </c>
+      <c r="C42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D42" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F42">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D43" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
+        <v>163</v>
+      </c>
+      <c r="C46" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" t="s">
+        <v>104</v>
+      </c>
+      <c r="F48">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" t="s">
+        <v>127</v>
+      </c>
+      <c r="E49" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D53" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" t="s">
+        <v>108</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" t="s">
         <v>171</v>
       </c>
-      <c r="C35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" t="s">
         <v>127</v>
       </c>
-      <c r="E35" t="s">
-        <v>104</v>
-      </c>
-      <c r="F35">
+      <c r="E56" t="s">
+        <v>104</v>
+      </c>
+      <c r="F56">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
         <v>62</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B57" t="s">
         <v>63</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" t="s">
+        <v>141</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" t="s">
         <v>172</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D58" t="s">
         <v>124</v>
       </c>
-      <c r="E36" t="s">
-        <v>104</v>
-      </c>
-      <c r="F36">
+      <c r="E58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58">
         <v>0.17</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
         <v>62</v>
       </c>
-      <c r="B37" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" t="s">
-        <v>122</v>
-      </c>
-      <c r="E37" t="s">
-        <v>104</v>
-      </c>
-      <c r="F37">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" t="s">
-        <v>182</v>
-      </c>
-      <c r="C38" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" t="s">
-        <v>104</v>
-      </c>
-      <c r="F38">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" t="s">
-        <v>183</v>
-      </c>
-      <c r="C39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" t="s">
-        <v>104</v>
-      </c>
-      <c r="F39">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" t="s">
-        <v>151</v>
-      </c>
-      <c r="E40" t="s">
-        <v>141</v>
-      </c>
-      <c r="F40">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>62</v>
-      </c>
-      <c r="B41" t="s">
-        <v>187</v>
-      </c>
-      <c r="C41" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" t="s">
-        <v>140</v>
-      </c>
-      <c r="E41" t="s">
-        <v>141</v>
-      </c>
-      <c r="F41">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42" t="s">
-        <v>149</v>
-      </c>
-      <c r="E42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F42">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D43" t="s">
-        <v>137</v>
-      </c>
-      <c r="E43" t="s">
-        <v>108</v>
-      </c>
-      <c r="F43">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" t="s">
-        <v>198</v>
-      </c>
-      <c r="C44" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" t="s">
-        <v>122</v>
-      </c>
-      <c r="E44" t="s">
-        <v>104</v>
-      </c>
-      <c r="F44">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" t="s">
-        <v>199</v>
-      </c>
-      <c r="C45" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" t="s">
-        <v>104</v>
-      </c>
-      <c r="F45">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" t="s">
-        <v>200</v>
-      </c>
-      <c r="C46" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" t="s">
-        <v>104</v>
-      </c>
-      <c r="F46">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" t="s">
-        <v>202</v>
-      </c>
-      <c r="C47" t="s">
-        <v>203</v>
-      </c>
-      <c r="D47" t="s">
-        <v>151</v>
-      </c>
-      <c r="E47" t="s">
-        <v>141</v>
-      </c>
-      <c r="F47">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" t="s">
-        <v>204</v>
-      </c>
-      <c r="C48" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" t="s">
-        <v>151</v>
-      </c>
-      <c r="E48" t="s">
-        <v>141</v>
-      </c>
-      <c r="F48">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>206</v>
-      </c>
-      <c r="B49" t="s">
-        <v>211</v>
-      </c>
-      <c r="C49" t="s">
-        <v>259</v>
-      </c>
-      <c r="D49" t="s">
-        <v>124</v>
-      </c>
-      <c r="E49" t="s">
-        <v>104</v>
-      </c>
-      <c r="F49">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>206</v>
-      </c>
-      <c r="B50" t="s">
-        <v>214</v>
-      </c>
-      <c r="C50" t="s">
-        <v>215</v>
-      </c>
-      <c r="D50" t="s">
-        <v>151</v>
-      </c>
-      <c r="E50" t="s">
-        <v>141</v>
-      </c>
-      <c r="F50">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>206</v>
-      </c>
-      <c r="B51" t="s">
-        <v>224</v>
-      </c>
-      <c r="C51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" t="s">
-        <v>116</v>
-      </c>
-      <c r="E51" t="s">
-        <v>104</v>
-      </c>
-      <c r="F51">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>206</v>
-      </c>
-      <c r="B52" t="s">
-        <v>225</v>
-      </c>
-      <c r="C52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" t="s">
-        <v>116</v>
-      </c>
-      <c r="E52" t="s">
-        <v>104</v>
-      </c>
-      <c r="F52">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>206</v>
-      </c>
-      <c r="B53" t="s">
-        <v>226</v>
-      </c>
-      <c r="C53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" t="s">
-        <v>127</v>
-      </c>
-      <c r="E53" t="s">
-        <v>104</v>
-      </c>
-      <c r="F53">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>206</v>
-      </c>
-      <c r="B54" t="s">
-        <v>227</v>
-      </c>
-      <c r="C54" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" t="s">
-        <v>149</v>
-      </c>
-      <c r="E54" t="s">
-        <v>104</v>
-      </c>
-      <c r="F54">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>206</v>
-      </c>
-      <c r="B55" t="s">
-        <v>228</v>
-      </c>
-      <c r="C55" t="s">
-        <v>65</v>
-      </c>
-      <c r="D55" t="s">
-        <v>127</v>
-      </c>
-      <c r="E55" t="s">
-        <v>104</v>
-      </c>
-      <c r="F55">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>206</v>
-      </c>
-      <c r="B56" t="s">
-        <v>229</v>
-      </c>
-      <c r="C56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" t="s">
-        <v>149</v>
-      </c>
-      <c r="E56" t="s">
-        <v>104</v>
-      </c>
-      <c r="F56">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>206</v>
-      </c>
-      <c r="B57" t="s">
-        <v>230</v>
-      </c>
-      <c r="C57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D57" t="s">
-        <v>122</v>
-      </c>
-      <c r="E57" t="s">
-        <v>104</v>
-      </c>
-      <c r="F57">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>206</v>
-      </c>
-      <c r="B58" t="s">
-        <v>231</v>
-      </c>
-      <c r="C58" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" t="s">
-        <v>122</v>
-      </c>
-      <c r="E58" t="s">
-        <v>104</v>
-      </c>
-      <c r="F58">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>206</v>
-      </c>
       <c r="B59" t="s">
-        <v>234</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D59" t="s">
         <v>151</v>
@@ -4855,18 +6093,18 @@
         <v>141</v>
       </c>
       <c r="F59">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>206</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>235</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="D60" t="s">
         <v>151</v>
@@ -4875,46 +6113,1586 @@
         <v>141</v>
       </c>
       <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" t="s">
+        <v>151</v>
+      </c>
+      <c r="E61" t="s">
+        <v>141</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" t="s">
+        <v>255</v>
+      </c>
+      <c r="D62" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" t="s">
+        <v>108</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>175</v>
+      </c>
+      <c r="C63" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" t="s">
+        <v>108</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" t="s">
+        <v>122</v>
+      </c>
+      <c r="E64" t="s">
+        <v>104</v>
+      </c>
+      <c r="F64">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" t="s">
+        <v>79</v>
+      </c>
+      <c r="D65" t="s">
+        <v>122</v>
+      </c>
+      <c r="E65" t="s">
+        <v>104</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" t="s">
+        <v>108</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" t="s">
+        <v>159</v>
+      </c>
+      <c r="E67" t="s">
+        <v>108</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" t="s">
+        <v>108</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" t="s">
+        <v>65</v>
+      </c>
+      <c r="D69" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" t="s">
+        <v>108</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" t="s">
+        <v>180</v>
+      </c>
+      <c r="C70" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" t="s">
+        <v>132</v>
+      </c>
+      <c r="E70" t="s">
+        <v>108</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" t="s">
+        <v>149</v>
+      </c>
+      <c r="E71" t="s">
+        <v>104</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" t="s">
+        <v>124</v>
+      </c>
+      <c r="E72" t="s">
+        <v>104</v>
+      </c>
+      <c r="F72">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" t="s">
+        <v>183</v>
+      </c>
+      <c r="C73" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" t="s">
+        <v>116</v>
+      </c>
+      <c r="E73" t="s">
+        <v>104</v>
+      </c>
+      <c r="F73">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" t="s">
+        <v>151</v>
+      </c>
+      <c r="E74" t="s">
+        <v>141</v>
+      </c>
+      <c r="F74">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>62</v>
+      </c>
+      <c r="B75" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" t="s">
+        <v>95</v>
+      </c>
+      <c r="D75" t="s">
+        <v>140</v>
+      </c>
+      <c r="E75" t="s">
+        <v>141</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" t="s">
+        <v>130</v>
+      </c>
+      <c r="E76" t="s">
+        <v>108</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" t="s">
+        <v>185</v>
+      </c>
+      <c r="C77" t="s">
+        <v>186</v>
+      </c>
+      <c r="D77" t="s">
+        <v>151</v>
+      </c>
+      <c r="E77" t="s">
+        <v>141</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>62</v>
+      </c>
+      <c r="B78" t="s">
+        <v>187</v>
+      </c>
+      <c r="C78" t="s">
+        <v>65</v>
+      </c>
+      <c r="D78" t="s">
+        <v>140</v>
+      </c>
+      <c r="E78" t="s">
+        <v>141</v>
+      </c>
+      <c r="F78">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" t="s">
+        <v>65</v>
+      </c>
+      <c r="D79" t="s">
+        <v>159</v>
+      </c>
+      <c r="E79" t="s">
+        <v>108</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" t="s">
+        <v>86</v>
+      </c>
+      <c r="C80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" t="s">
+        <v>149</v>
+      </c>
+      <c r="E80" t="s">
+        <v>104</v>
+      </c>
+      <c r="F80">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" t="s">
+        <v>151</v>
+      </c>
+      <c r="E81" t="s">
+        <v>141</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>136</v>
+      </c>
+      <c r="C82" t="s">
+        <v>65</v>
+      </c>
+      <c r="D82" t="s">
+        <v>137</v>
+      </c>
+      <c r="E82" t="s">
+        <v>108</v>
+      </c>
+      <c r="F82">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>270</v>
+      </c>
+      <c r="C83" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" t="s">
+        <v>112</v>
+      </c>
+      <c r="E83" t="s">
+        <v>108</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>189</v>
+      </c>
+      <c r="C84" t="s">
+        <v>256</v>
+      </c>
+      <c r="D84" t="s">
+        <v>130</v>
+      </c>
+      <c r="E84" t="s">
+        <v>108</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" t="s">
+        <v>65</v>
+      </c>
+      <c r="D85" t="s">
+        <v>137</v>
+      </c>
+      <c r="E85" t="s">
+        <v>108</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86" t="s">
+        <v>65</v>
+      </c>
+      <c r="D86" t="s">
+        <v>137</v>
+      </c>
+      <c r="E86" t="s">
+        <v>108</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" t="s">
+        <v>192</v>
+      </c>
+      <c r="C87" t="s">
+        <v>65</v>
+      </c>
+      <c r="D87" t="s">
+        <v>159</v>
+      </c>
+      <c r="E87" t="s">
+        <v>108</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" t="s">
+        <v>65</v>
+      </c>
+      <c r="D88" t="s">
+        <v>107</v>
+      </c>
+      <c r="E88" t="s">
+        <v>108</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" t="s">
+        <v>194</v>
+      </c>
+      <c r="C89" t="s">
+        <v>65</v>
+      </c>
+      <c r="D89" t="s">
+        <v>122</v>
+      </c>
+      <c r="E89" t="s">
+        <v>104</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" t="s">
+        <v>65</v>
+      </c>
+      <c r="D90" t="s">
+        <v>124</v>
+      </c>
+      <c r="E90" t="s">
+        <v>104</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91" t="s">
+        <v>122</v>
+      </c>
+      <c r="E91" t="s">
+        <v>104</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" t="s">
+        <v>65</v>
+      </c>
+      <c r="D92" t="s">
+        <v>127</v>
+      </c>
+      <c r="E92" t="s">
+        <v>104</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" t="s">
+        <v>65</v>
+      </c>
+      <c r="D93" t="s">
+        <v>122</v>
+      </c>
+      <c r="E93" t="s">
+        <v>104</v>
+      </c>
+      <c r="F93">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>83</v>
+      </c>
+      <c r="B94" t="s">
+        <v>199</v>
+      </c>
+      <c r="C94" t="s">
+        <v>65</v>
+      </c>
+      <c r="D94" t="s">
+        <v>122</v>
+      </c>
+      <c r="E94" t="s">
+        <v>104</v>
+      </c>
+      <c r="F94">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>83</v>
+      </c>
+      <c r="B95" t="s">
+        <v>200</v>
+      </c>
+      <c r="C95" t="s">
+        <v>65</v>
+      </c>
+      <c r="D95" t="s">
+        <v>127</v>
+      </c>
+      <c r="E95" t="s">
+        <v>104</v>
+      </c>
+      <c r="F95">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>83</v>
+      </c>
+      <c r="B96" t="s">
+        <v>201</v>
+      </c>
+      <c r="C96" t="s">
+        <v>65</v>
+      </c>
+      <c r="D96" t="s">
+        <v>137</v>
+      </c>
+      <c r="E96" t="s">
+        <v>108</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>83</v>
+      </c>
+      <c r="B97" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" t="s">
+        <v>203</v>
+      </c>
+      <c r="D97" t="s">
+        <v>151</v>
+      </c>
+      <c r="E97" t="s">
+        <v>141</v>
+      </c>
+      <c r="F97">
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B98" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98" t="s">
+        <v>65</v>
+      </c>
+      <c r="D98" t="s">
+        <v>151</v>
+      </c>
+      <c r="E98" t="s">
+        <v>141</v>
+      </c>
+      <c r="F98">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>83</v>
+      </c>
+      <c r="B99" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" t="s">
+        <v>65</v>
+      </c>
+      <c r="D99" t="s">
+        <v>137</v>
+      </c>
+      <c r="E99" t="s">
+        <v>108</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>206</v>
+      </c>
+      <c r="B100" t="s">
+        <v>207</v>
+      </c>
+      <c r="C100" t="s">
+        <v>89</v>
+      </c>
+      <c r="D100" t="s">
+        <v>103</v>
+      </c>
+      <c r="E100" t="s">
+        <v>104</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>206</v>
+      </c>
+      <c r="B101" t="s">
+        <v>208</v>
+      </c>
+      <c r="C101" t="s">
+        <v>35</v>
+      </c>
+      <c r="D101" t="s">
+        <v>80</v>
+      </c>
+      <c r="E101" t="s">
+        <v>81</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>206</v>
+      </c>
+      <c r="B102" t="s">
+        <v>208</v>
+      </c>
+      <c r="C102" t="s">
+        <v>209</v>
+      </c>
+      <c r="D102" t="s">
+        <v>80</v>
+      </c>
+      <c r="E102" t="s">
+        <v>81</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>210</v>
+      </c>
+      <c r="C103" t="s">
+        <v>65</v>
+      </c>
+      <c r="D103" t="s">
+        <v>127</v>
+      </c>
+      <c r="E103" t="s">
+        <v>104</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" t="s">
+        <v>211</v>
+      </c>
+      <c r="C104" t="s">
+        <v>258</v>
+      </c>
+      <c r="D104" t="s">
+        <v>124</v>
+      </c>
+      <c r="E104" t="s">
+        <v>104</v>
+      </c>
+      <c r="F104">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" t="s">
+        <v>212</v>
+      </c>
+      <c r="D105" t="s">
+        <v>107</v>
+      </c>
+      <c r="E105" t="s">
+        <v>108</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" t="s">
+        <v>65</v>
+      </c>
+      <c r="D106" t="s">
+        <v>127</v>
+      </c>
+      <c r="E106" t="s">
+        <v>104</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>206</v>
+      </c>
+      <c r="B107" t="s">
+        <v>214</v>
+      </c>
+      <c r="C107" t="s">
+        <v>215</v>
+      </c>
+      <c r="D107" t="s">
+        <v>151</v>
+      </c>
+      <c r="E107" t="s">
+        <v>141</v>
+      </c>
+      <c r="F107">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>206</v>
+      </c>
+      <c r="B108" t="s">
+        <v>208</v>
+      </c>
+      <c r="C108" t="s">
+        <v>65</v>
+      </c>
+      <c r="D108" t="s">
+        <v>137</v>
+      </c>
+      <c r="E108" t="s">
+        <v>108</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>206</v>
+      </c>
+      <c r="B109" t="s">
+        <v>216</v>
+      </c>
+      <c r="C109" t="s">
+        <v>65</v>
+      </c>
+      <c r="D109" t="s">
+        <v>159</v>
+      </c>
+      <c r="E109" t="s">
+        <v>108</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>206</v>
+      </c>
+      <c r="B110" t="s">
+        <v>217</v>
+      </c>
+      <c r="C110" t="s">
+        <v>65</v>
+      </c>
+      <c r="D110" t="s">
+        <v>116</v>
+      </c>
+      <c r="E110" t="s">
+        <v>104</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>206</v>
+      </c>
+      <c r="B111" t="s">
+        <v>218</v>
+      </c>
+      <c r="C111" t="s">
+        <v>65</v>
+      </c>
+      <c r="D111" t="s">
+        <v>127</v>
+      </c>
+      <c r="E111" t="s">
+        <v>104</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>206</v>
+      </c>
+      <c r="B112" t="s">
+        <v>219</v>
+      </c>
+      <c r="C112" t="s">
+        <v>65</v>
+      </c>
+      <c r="D112" t="s">
+        <v>127</v>
+      </c>
+      <c r="E112" t="s">
+        <v>104</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>206</v>
+      </c>
+      <c r="B113" t="s">
+        <v>210</v>
+      </c>
+      <c r="C113" t="s">
+        <v>65</v>
+      </c>
+      <c r="D113" t="s">
+        <v>127</v>
+      </c>
+      <c r="E113" t="s">
+        <v>104</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>206</v>
+      </c>
+      <c r="B114" t="s">
+        <v>220</v>
+      </c>
+      <c r="C114" t="s">
+        <v>65</v>
+      </c>
+      <c r="D114" t="s">
+        <v>127</v>
+      </c>
+      <c r="E114" t="s">
+        <v>104</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>206</v>
+      </c>
+      <c r="B115" t="s">
+        <v>221</v>
+      </c>
+      <c r="C115" t="s">
+        <v>65</v>
+      </c>
+      <c r="D115" t="s">
+        <v>127</v>
+      </c>
+      <c r="E115" t="s">
+        <v>104</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>206</v>
+      </c>
+      <c r="B116" t="s">
+        <v>222</v>
+      </c>
+      <c r="C116" t="s">
+        <v>65</v>
+      </c>
+      <c r="D116" t="s">
+        <v>116</v>
+      </c>
+      <c r="E116" t="s">
+        <v>104</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>206</v>
+      </c>
+      <c r="B117" t="s">
+        <v>223</v>
+      </c>
+      <c r="C117" t="s">
+        <v>65</v>
+      </c>
+      <c r="D117" t="s">
+        <v>149</v>
+      </c>
+      <c r="E117" t="s">
+        <v>104</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
+        <v>206</v>
+      </c>
+      <c r="B118" t="s">
+        <v>224</v>
+      </c>
+      <c r="C118" t="s">
+        <v>65</v>
+      </c>
+      <c r="D118" t="s">
+        <v>116</v>
+      </c>
+      <c r="E118" t="s">
+        <v>104</v>
+      </c>
+      <c r="F118">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>206</v>
+      </c>
+      <c r="B119" t="s">
+        <v>225</v>
+      </c>
+      <c r="C119" t="s">
+        <v>65</v>
+      </c>
+      <c r="D119" t="s">
+        <v>116</v>
+      </c>
+      <c r="E119" t="s">
+        <v>104</v>
+      </c>
+      <c r="F119">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>206</v>
+      </c>
+      <c r="B120" t="s">
+        <v>226</v>
+      </c>
+      <c r="C120" t="s">
+        <v>65</v>
+      </c>
+      <c r="D120" t="s">
+        <v>127</v>
+      </c>
+      <c r="E120" t="s">
+        <v>104</v>
+      </c>
+      <c r="F120">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>206</v>
+      </c>
+      <c r="B121" t="s">
+        <v>227</v>
+      </c>
+      <c r="C121" t="s">
+        <v>65</v>
+      </c>
+      <c r="D121" t="s">
+        <v>149</v>
+      </c>
+      <c r="E121" t="s">
+        <v>104</v>
+      </c>
+      <c r="F121">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>206</v>
+      </c>
+      <c r="B122" t="s">
+        <v>228</v>
+      </c>
+      <c r="C122" t="s">
+        <v>65</v>
+      </c>
+      <c r="D122" t="s">
+        <v>127</v>
+      </c>
+      <c r="E122" t="s">
+        <v>104</v>
+      </c>
+      <c r="F122">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>206</v>
+      </c>
+      <c r="B123" t="s">
+        <v>229</v>
+      </c>
+      <c r="C123" t="s">
+        <v>65</v>
+      </c>
+      <c r="D123" t="s">
+        <v>149</v>
+      </c>
+      <c r="E123" t="s">
+        <v>104</v>
+      </c>
+      <c r="F123">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>206</v>
+      </c>
+      <c r="B124" t="s">
+        <v>230</v>
+      </c>
+      <c r="C124" t="s">
+        <v>65</v>
+      </c>
+      <c r="D124" t="s">
+        <v>122</v>
+      </c>
+      <c r="E124" t="s">
+        <v>104</v>
+      </c>
+      <c r="F124">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>206</v>
+      </c>
+      <c r="B125" t="s">
+        <v>231</v>
+      </c>
+      <c r="C125" t="s">
+        <v>65</v>
+      </c>
+      <c r="D125" t="s">
+        <v>122</v>
+      </c>
+      <c r="E125" t="s">
+        <v>104</v>
+      </c>
+      <c r="F125">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>206</v>
+      </c>
+      <c r="B126" t="s">
+        <v>232</v>
+      </c>
+      <c r="C126" t="s">
+        <v>233</v>
+      </c>
+      <c r="D126" t="s">
+        <v>130</v>
+      </c>
+      <c r="E126" t="s">
+        <v>108</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>206</v>
+      </c>
+      <c r="B127" t="s">
+        <v>234</v>
+      </c>
+      <c r="C127" t="s">
+        <v>65</v>
+      </c>
+      <c r="D127" t="s">
+        <v>151</v>
+      </c>
+      <c r="E127" t="s">
+        <v>141</v>
+      </c>
+      <c r="F127">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>206</v>
+      </c>
+      <c r="B128" t="s">
+        <v>235</v>
+      </c>
+      <c r="C128" t="s">
+        <v>65</v>
+      </c>
+      <c r="D128" t="s">
+        <v>151</v>
+      </c>
+      <c r="E128" t="s">
+        <v>141</v>
+      </c>
+      <c r="F128">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
         <v>236</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B129" t="s">
+        <v>237</v>
+      </c>
+      <c r="C129" t="s">
+        <v>65</v>
+      </c>
+      <c r="D129" t="s">
+        <v>107</v>
+      </c>
+      <c r="E129" t="s">
+        <v>108</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>236</v>
+      </c>
+      <c r="B130" t="s">
+        <v>238</v>
+      </c>
+      <c r="C130" t="s">
+        <v>53</v>
+      </c>
+      <c r="D130" t="s">
+        <v>80</v>
+      </c>
+      <c r="E130" t="s">
+        <v>81</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>236</v>
+      </c>
+      <c r="B131" t="s">
+        <v>239</v>
+      </c>
+      <c r="C131" t="s">
+        <v>240</v>
+      </c>
+      <c r="D131" t="s">
+        <v>159</v>
+      </c>
+      <c r="E131" t="s">
+        <v>108</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>236</v>
+      </c>
+      <c r="B132" t="s">
+        <v>241</v>
+      </c>
+      <c r="C132" t="s">
+        <v>242</v>
+      </c>
+      <c r="D132" t="s">
+        <v>122</v>
+      </c>
+      <c r="E132" t="s">
+        <v>104</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>236</v>
+      </c>
+      <c r="B133" t="s">
+        <v>243</v>
+      </c>
+      <c r="C133" t="s">
+        <v>65</v>
+      </c>
+      <c r="D133" t="s">
+        <v>137</v>
+      </c>
+      <c r="E133" t="s">
+        <v>108</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>236</v>
+      </c>
+      <c r="B134" t="s">
+        <v>244</v>
+      </c>
+      <c r="C134" t="s">
+        <v>65</v>
+      </c>
+      <c r="D134" t="s">
+        <v>130</v>
+      </c>
+      <c r="E134" t="s">
+        <v>108</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>236</v>
+      </c>
+      <c r="B135" t="s">
+        <v>239</v>
+      </c>
+      <c r="C135" t="s">
+        <v>65</v>
+      </c>
+      <c r="D135" t="s">
+        <v>159</v>
+      </c>
+      <c r="E135" t="s">
+        <v>108</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>236</v>
+      </c>
+      <c r="B136" t="s">
+        <v>245</v>
+      </c>
+      <c r="C136" t="s">
+        <v>65</v>
+      </c>
+      <c r="D136" t="s">
+        <v>132</v>
+      </c>
+      <c r="E136" t="s">
+        <v>108</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>236</v>
+      </c>
+      <c r="B137" t="s">
+        <v>246</v>
+      </c>
+      <c r="C137" t="s">
+        <v>65</v>
+      </c>
+      <c r="D137" t="s">
+        <v>122</v>
+      </c>
+      <c r="E137" t="s">
+        <v>104</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>236</v>
+      </c>
+      <c r="B138" t="s">
         <v>247</v>
       </c>
-      <c r="C61" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="C138" t="s">
+        <v>65</v>
+      </c>
+      <c r="D138" t="s">
         <v>116</v>
       </c>
-      <c r="E61" t="s">
-        <v>104</v>
-      </c>
-      <c r="F61">
+      <c r="E138" t="s">
+        <v>104</v>
+      </c>
+      <c r="F138">
         <v>0.05</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
         <v>236</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B139" t="s">
         <v>248</v>
       </c>
-      <c r="C62" t="s">
-        <v>65</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C139" t="s">
+        <v>65</v>
+      </c>
+      <c r="D139" t="s">
         <v>122</v>
       </c>
-      <c r="E62" t="s">
-        <v>104</v>
-      </c>
-      <c r="F62">
+      <c r="E139" t="s">
+        <v>104</v>
+      </c>
+      <c r="F139">
         <v>0.02</v>
       </c>
     </row>
@@ -4932,18 +7710,18 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4966,7 +7744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>20</v>
       </c>

--- a/dashboard/server/resources/counterparty_targets_2026.xlsx
+++ b/dashboard/server/resources/counterparty_targets_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\B2B\data_analysis_ai\dashboard\server\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97CA0C97-E7F4-46D9-80E5-F5C4976DE7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FD98C1-B1AC-4B73-9C88-2BEC61F76A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BF30D8BD-E8FB-4CB0-B3F0-05A8332F606C}"/>
+    <workbookView xWindow="22932" yWindow="-72" windowWidth="23256" windowHeight="12456" xr2:uid="{BF30D8BD-E8FB-4CB0-B3F0-05A8332F606C}"/>
   </bookViews>
   <sheets>
     <sheet name="26 출강 타겟" sheetId="2" r:id="rId1"/>
@@ -1256,23 +1256,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF9C648-897F-4933-AE23-AECAF1223738}">
   <dimension ref="A1:F181"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C181" sqref="C45:C181"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.8984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>5.03</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>4.8099999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>62</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>83</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>40</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>62</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>62</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>83</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>83</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>15.79</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -2492,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>40</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>40</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>40</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>40</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>40</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>40</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>40</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>40</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>40</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>40</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>40</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>40</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>40</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>40</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>40</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>40</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>40</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>40</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>40</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>40</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>40</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>40</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>40</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>40</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>40</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>40</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>62</v>
       </c>
@@ -3252,7 +3252,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>62</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>62</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>62</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>62</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>62</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>62</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>62</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>62</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>62</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>62</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>62</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>62</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>62</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>62</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>62</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>62</v>
       </c>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>62</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>62</v>
       </c>
@@ -3612,7 +3612,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>62</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>62</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>62</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>83</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>83</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>83</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>83</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>83</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>83</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>83</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>83</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>83</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>83</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>83</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>83</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>83</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>83</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>83</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>83</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>83</v>
       </c>
@@ -4012,7 +4012,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>83</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>83</v>
       </c>
@@ -4052,7 +4052,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>83</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>83</v>
       </c>
@@ -4092,7 +4092,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>206</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>206</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>206</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>206</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>206</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>206</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>206</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>206</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>206</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>206</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>206</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>206</v>
       </c>
@@ -4332,7 +4332,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>206</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>206</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>206</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>206</v>
       </c>
@@ -4412,7 +4412,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>206</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>206</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>206</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>206</v>
       </c>
@@ -4492,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>206</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>206</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>206</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>206</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>206</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>206</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>206</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>206</v>
       </c>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>206</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>236</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>236</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>236</v>
       </c>
@@ -4732,7 +4732,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>236</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>236</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>236</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>236</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>236</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>236</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>236</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>236</v>
       </c>
@@ -4902,21 +4902,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F18B4A-CD5C-4B9F-ADEF-B0399A504A71}">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.59765625" customWidth="1"/>
-    <col min="4" max="4" width="14.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -5076,7 +5076,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -5276,7 +5276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>40</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>40</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>40</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>40</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>40</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>40</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>40</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>62</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -6156,7 +6156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>62</v>
       </c>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>62</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>62</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>62</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>62</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>62</v>
       </c>
@@ -6396,7 +6396,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>62</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>62</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>62</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -6636,7 +6636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>83</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>83</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>83</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>83</v>
       </c>
@@ -6716,7 +6716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>83</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>83</v>
       </c>
@@ -6756,7 +6756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>83</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>83</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>83</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>83</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>83</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>83</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>83</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>206</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>206</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>206</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>206</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>206</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>206</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>206</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>206</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>206</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>206</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>206</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>206</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>206</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>206</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>206</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>206</v>
       </c>
@@ -7216,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>206</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>206</v>
       </c>
@@ -7256,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>206</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>206</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>206</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>206</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>206</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>206</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>206</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>206</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>206</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>206</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>206</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>236</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>236</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>236</v>
       </c>
@@ -7536,7 +7536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>236</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>236</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>236</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>236</v>
       </c>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>236</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>236</v>
       </c>
@@ -7656,7 +7656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>236</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>236</v>
       </c>
@@ -7710,18 +7710,18 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>

--- a/dashboard/server/resources/counterparty_targets_2026.xlsx
+++ b/dashboard/server/resources/counterparty_targets_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\B2B\data_analysis_ai\dashboard\server\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FD98C1-B1AC-4B73-9C88-2BEC61F76A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B52078-B769-431B-8D41-1FF6BB07D1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-72" windowWidth="23256" windowHeight="12456" xr2:uid="{BF30D8BD-E8FB-4CB0-B3F0-05A8332F606C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="269">
   <si>
     <t>티어</t>
   </si>
@@ -846,22 +846,18 @@
     <t>카드사업 지원본부</t>
   </si>
   <si>
-    <t>한성은</t>
-  </si>
-  <si>
-    <t>미확인(한성은)</t>
-  </si>
-  <si>
-    <t>이해민</t>
-  </si>
-  <si>
-    <t>미확인(이해민)</t>
-  </si>
-  <si>
     <t>IT기획그룹</t>
   </si>
   <si>
     <t>현대자동차그룹</t>
+  </si>
+  <si>
+    <t>리서치허브팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG경영연구원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1254,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF9C648-897F-4933-AE23-AECAF1223738}">
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2112,81 +2108,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="F43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="F44" s="1">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43">
+        <v>15.79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C45" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F45">
-        <v>15.79</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E46" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2197,19 +2193,19 @@
         <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E47" t="s">
         <v>108</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2217,13 +2213,13 @@
         <v>20</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E48" t="s">
         <v>108</v>
@@ -2240,7 +2236,7 @@
         <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
         <v>112</v>
@@ -2249,7 +2245,7 @@
         <v>108</v>
       </c>
       <c r="F49">
-        <v>7.1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2260,7 +2256,7 @@
         <v>110</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="D50" t="s">
         <v>112</v>
@@ -2277,19 +2273,19 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D51" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E51" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F51">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2297,19 +2293,19 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2317,19 +2313,19 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F53">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2337,19 +2333,19 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E54" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2357,16 +2353,16 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C55" t="s">
         <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="E55" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2377,7 +2373,7 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C56" t="s">
         <v>65</v>
@@ -2397,13 +2393,13 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C57" t="s">
         <v>65</v>
       </c>
       <c r="D57" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E57" t="s">
         <v>104</v>
@@ -2417,13 +2413,13 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
       </c>
       <c r="D58" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E58" t="s">
         <v>104</v>
@@ -2437,13 +2433,13 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="C59" t="s">
         <v>65</v>
       </c>
       <c r="D59" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="E59" t="s">
         <v>104</v>
@@ -2457,19 +2453,19 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C60" t="s">
         <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="E60" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2477,16 +2473,16 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="C61" t="s">
         <v>65</v>
       </c>
       <c r="D61" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E61" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -2497,19 +2493,19 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C62" t="s">
         <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E62" t="s">
         <v>108</v>
       </c>
       <c r="F62">
-        <v>1.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2517,10 +2513,10 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="D63" t="s">
         <v>130</v>
@@ -2529,7 +2525,7 @@
         <v>108</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2537,19 +2533,19 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s">
         <v>65</v>
       </c>
       <c r="D64" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E64" t="s">
         <v>108</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2557,19 +2553,19 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C65" t="s">
         <v>65</v>
       </c>
       <c r="D65" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E65" t="s">
         <v>108</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2577,16 +2573,16 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D66" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E66" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2597,73 +2593,73 @@
         <v>20</v>
       </c>
       <c r="B67" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C67" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E67" t="s">
         <v>108</v>
       </c>
       <c r="F67">
-        <v>1.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B68" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="D68" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E68" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F68">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="D69" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E69" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B70" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="C70" t="s">
-        <v>93</v>
+        <v>257</v>
       </c>
       <c r="D70" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E70" t="s">
         <v>104</v>
@@ -2674,19 +2670,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B71" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="D71" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E71" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2697,13 +2693,13 @@
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C72" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D72" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E72" t="s">
         <v>141</v>
@@ -2717,16 +2713,16 @@
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>142</v>
+        <v>265</v>
       </c>
       <c r="D73" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -2737,19 +2733,19 @@
         <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C74" t="s">
-        <v>257</v>
+        <v>31</v>
       </c>
       <c r="D74" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="E74" t="s">
         <v>104</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2757,19 +2753,19 @@
         <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C75" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D75" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E75" t="s">
         <v>141</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -2777,13 +2773,13 @@
         <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C76" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D76" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E76" t="s">
         <v>141</v>
@@ -2797,19 +2793,19 @@
         <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C77" t="s">
-        <v>269</v>
+        <v>155</v>
       </c>
       <c r="D77" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E77" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2817,19 +2813,19 @@
         <v>40</v>
       </c>
       <c r="B78" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D78" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E78" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F78">
-        <v>0.96</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2837,19 +2833,19 @@
         <v>40</v>
       </c>
       <c r="B79" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C79" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="D79" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E79" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F79">
-        <v>0.11</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2857,19 +2853,19 @@
         <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C80" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="D80" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E80" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2877,19 +2873,19 @@
         <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C81" t="s">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="D81" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E81" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F81">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2897,19 +2893,19 @@
         <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C82" t="s">
         <v>65</v>
       </c>
       <c r="D82" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E82" t="s">
         <v>108</v>
       </c>
       <c r="F82">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2917,19 +2913,19 @@
         <v>40</v>
       </c>
       <c r="B83" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C83" t="s">
         <v>65</v>
       </c>
       <c r="D83" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E83" t="s">
         <v>108</v>
       </c>
       <c r="F83">
-        <v>1.5</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2937,19 +2933,19 @@
         <v>40</v>
       </c>
       <c r="B84" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C84" t="s">
         <v>65</v>
       </c>
       <c r="D84" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="E84" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F84">
-        <v>0.17</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2957,19 +2953,19 @@
         <v>40</v>
       </c>
       <c r="B85" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C85" t="s">
         <v>65</v>
       </c>
       <c r="D85" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="E85" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F85">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2977,16 +2973,16 @@
         <v>40</v>
       </c>
       <c r="B86" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C86" t="s">
         <v>65</v>
       </c>
       <c r="D86" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E86" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -2997,19 +2993,19 @@
         <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C87" t="s">
         <v>65</v>
       </c>
       <c r="D87" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E87" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F87">
-        <v>1.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -3017,19 +3013,19 @@
         <v>40</v>
       </c>
       <c r="B88" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C88" t="s">
         <v>65</v>
       </c>
       <c r="D88" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E88" t="s">
         <v>104</v>
       </c>
       <c r="F88">
-        <v>1.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -3037,19 +3033,19 @@
         <v>40</v>
       </c>
       <c r="B89" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C89" t="s">
         <v>65</v>
       </c>
       <c r="D89" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E89" t="s">
         <v>104</v>
       </c>
       <c r="F89">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -3057,19 +3053,19 @@
         <v>40</v>
       </c>
       <c r="B90" t="s">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="C90" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D90" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E90" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -3077,19 +3073,19 @@
         <v>40</v>
       </c>
       <c r="B91" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C91" t="s">
         <v>65</v>
       </c>
       <c r="D91" t="s">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c r="E91" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3097,19 +3093,19 @@
         <v>40</v>
       </c>
       <c r="B92" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C92" t="s">
         <v>65</v>
       </c>
       <c r="D92" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E92" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3117,116 +3113,116 @@
         <v>40</v>
       </c>
       <c r="B93" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C93" t="s">
         <v>65</v>
       </c>
       <c r="D93" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="E93" t="s">
         <v>104</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B94" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D94" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E94" t="s">
         <v>141</v>
       </c>
       <c r="F94">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B95" t="s">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="C95" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="D95" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="E95" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F95">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B96" t="s">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="C96" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D96" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E96" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B97" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="C97" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="D97" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="E97" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F97">
-        <v>1.44</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B98" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="C98" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="D98" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="E98" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F98">
         <v>0.5</v>
@@ -3237,19 +3233,19 @@
         <v>62</v>
       </c>
       <c r="B99" t="s">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D99" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E99" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F99">
-        <v>0.88</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -3257,19 +3253,19 @@
         <v>62</v>
       </c>
       <c r="B100" t="s">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="C100" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D100" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E100" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -3277,19 +3273,19 @@
         <v>62</v>
       </c>
       <c r="B101" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C101" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="D101" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="E101" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="F101">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -3297,19 +3293,19 @@
         <v>62</v>
       </c>
       <c r="B102" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C102" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="D102" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E102" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F102">
-        <v>0.02</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -3317,19 +3313,19 @@
         <v>62</v>
       </c>
       <c r="B103" t="s">
-        <v>63</v>
+        <v>178</v>
       </c>
       <c r="C103" t="s">
-        <v>174</v>
+        <v>65</v>
       </c>
       <c r="D103" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E103" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F103">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -3337,19 +3333,19 @@
         <v>62</v>
       </c>
       <c r="B104" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C104" t="s">
-        <v>255</v>
+        <v>65</v>
       </c>
       <c r="D104" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E104" t="s">
         <v>108</v>
       </c>
       <c r="F104">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -3357,19 +3353,19 @@
         <v>62</v>
       </c>
       <c r="B105" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="C105" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="D105" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="E105" t="s">
         <v>108</v>
       </c>
       <c r="F105">
-        <v>0.28000000000000003</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -3377,19 +3373,19 @@
         <v>62</v>
       </c>
       <c r="B106" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="C106" t="s">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="D106" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E106" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -3397,19 +3393,19 @@
         <v>62</v>
       </c>
       <c r="B107" t="s">
-        <v>78</v>
+        <v>181</v>
       </c>
       <c r="C107" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D107" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="E107" t="s">
         <v>104</v>
       </c>
       <c r="F107">
-        <v>0.08</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -3417,19 +3413,19 @@
         <v>62</v>
       </c>
       <c r="B108" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="C108" t="s">
         <v>65</v>
       </c>
       <c r="D108" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E108" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F108">
-        <v>0.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -3437,19 +3433,19 @@
         <v>62</v>
       </c>
       <c r="B109" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C109" t="s">
         <v>65</v>
       </c>
       <c r="D109" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="E109" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F109">
-        <v>0.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -3457,19 +3453,19 @@
         <v>62</v>
       </c>
       <c r="B110" t="s">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="C110" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D110" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E110" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F110">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -3477,19 +3473,19 @@
         <v>62</v>
       </c>
       <c r="B111" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="C111" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D111" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="E111" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F111">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -3497,13 +3493,13 @@
         <v>62</v>
       </c>
       <c r="B112" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C112" t="s">
         <v>65</v>
       </c>
       <c r="D112" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E112" t="s">
         <v>108</v>
@@ -3517,19 +3513,19 @@
         <v>62</v>
       </c>
       <c r="B113" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C113" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="D113" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E113" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F113">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -3537,56 +3533,56 @@
         <v>62</v>
       </c>
       <c r="B114" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C114" t="s">
         <v>65</v>
       </c>
       <c r="D114" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="E114" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B115" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C115" t="s">
         <v>65</v>
       </c>
       <c r="D115" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="E115" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B116" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C116" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="D116" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E116" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3594,16 +3590,16 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B117" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C117" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D117" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="E117" t="s">
         <v>141</v>
@@ -3614,62 +3610,62 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B118" t="s">
-        <v>184</v>
+        <v>266</v>
       </c>
       <c r="C118" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="D118" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="E118" t="s">
         <v>108</v>
       </c>
       <c r="F118">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B119" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C119" t="s">
-        <v>186</v>
+        <v>256</v>
       </c>
       <c r="D119" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E119" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F119">
-        <v>0.6</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B120" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C120" t="s">
         <v>65</v>
       </c>
       <c r="D120" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E120" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F120">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -3677,19 +3673,19 @@
         <v>83</v>
       </c>
       <c r="B121" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C121" t="s">
         <v>65</v>
       </c>
       <c r="D121" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="E121" t="s">
         <v>108</v>
       </c>
       <c r="F121">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -3697,19 +3693,19 @@
         <v>83</v>
       </c>
       <c r="B122" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="C122" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D122" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E122" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -3717,19 +3713,19 @@
         <v>83</v>
       </c>
       <c r="B123" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C123" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D123" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="E123" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F123">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -3737,19 +3733,19 @@
         <v>83</v>
       </c>
       <c r="B124" t="s">
-        <v>136</v>
+        <v>194</v>
       </c>
       <c r="C124" t="s">
         <v>65</v>
       </c>
       <c r="D124" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E124" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -3757,19 +3753,19 @@
         <v>83</v>
       </c>
       <c r="B125" t="s">
-        <v>270</v>
+        <v>195</v>
       </c>
       <c r="C125" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="D125" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -3777,19 +3773,19 @@
         <v>83</v>
       </c>
       <c r="B126" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C126" t="s">
-        <v>256</v>
+        <v>65</v>
       </c>
       <c r="D126" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E126" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F126">
-        <v>0.32</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -3797,19 +3793,19 @@
         <v>83</v>
       </c>
       <c r="B127" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C127" t="s">
         <v>65</v>
       </c>
       <c r="D127" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E127" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F127">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -3817,19 +3813,19 @@
         <v>83</v>
       </c>
       <c r="B128" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C128" t="s">
         <v>65</v>
       </c>
       <c r="D128" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E128" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F128">
-        <v>0.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -3837,19 +3833,19 @@
         <v>83</v>
       </c>
       <c r="B129" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C129" t="s">
         <v>65</v>
       </c>
       <c r="D129" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="E129" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F129">
-        <v>0.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -3857,19 +3853,19 @@
         <v>83</v>
       </c>
       <c r="B130" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C130" t="s">
         <v>65</v>
       </c>
       <c r="D130" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E130" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F130">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -3877,19 +3873,19 @@
         <v>83</v>
       </c>
       <c r="B131" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C131" t="s">
         <v>65</v>
       </c>
       <c r="D131" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E131" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F131">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -3897,19 +3893,19 @@
         <v>83</v>
       </c>
       <c r="B132" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C132" t="s">
-        <v>65</v>
+        <v>203</v>
       </c>
       <c r="D132" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="E132" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F132">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -3917,19 +3913,19 @@
         <v>83</v>
       </c>
       <c r="B133" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C133" t="s">
         <v>65</v>
       </c>
       <c r="D133" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="E133" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F133">
-        <v>0.28999999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -3937,159 +3933,159 @@
         <v>83</v>
       </c>
       <c r="B134" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C134" t="s">
         <v>65</v>
       </c>
       <c r="D134" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E134" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F134">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="B135" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C135" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D135" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="E135" t="s">
         <v>104</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="B136" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C136" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D136" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="E136" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="B137" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C137" t="s">
-        <v>65</v>
+        <v>209</v>
       </c>
       <c r="D137" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E137" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="F137">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="B138" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C138" t="s">
-        <v>65</v>
+        <v>258</v>
       </c>
       <c r="D138" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E138" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F138">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="B139" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C139" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="D139" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="E139" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F139">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="B140" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C140" t="s">
         <v>65</v>
       </c>
       <c r="D140" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="E140" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="B141" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C141" t="s">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c r="D141" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E141" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F141">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -4097,19 +4093,19 @@
         <v>206</v>
       </c>
       <c r="B142" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C142" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D142" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="E142" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F142">
-        <v>0.24</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -4117,19 +4113,19 @@
         <v>206</v>
       </c>
       <c r="B143" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C143" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D143" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="E143" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F143">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -4137,19 +4133,19 @@
         <v>206</v>
       </c>
       <c r="B144" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="C144" t="s">
-        <v>209</v>
+        <v>65</v>
       </c>
       <c r="D144" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E144" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F144">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -4157,7 +4153,7 @@
         <v>206</v>
       </c>
       <c r="B145" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C145" t="s">
         <v>65</v>
@@ -4169,7 +4165,7 @@
         <v>104</v>
       </c>
       <c r="F145">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -4177,19 +4173,19 @@
         <v>206</v>
       </c>
       <c r="B146" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C146" t="s">
-        <v>258</v>
+        <v>65</v>
       </c>
       <c r="D146" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E146" t="s">
         <v>104</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -4197,19 +4193,19 @@
         <v>206</v>
       </c>
       <c r="B147" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C147" t="s">
-        <v>212</v>
+        <v>65</v>
       </c>
       <c r="D147" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E147" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F147">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -4217,7 +4213,7 @@
         <v>206</v>
       </c>
       <c r="B148" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C148" t="s">
         <v>65</v>
@@ -4229,7 +4225,7 @@
         <v>104</v>
       </c>
       <c r="F148">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -4237,19 +4233,19 @@
         <v>206</v>
       </c>
       <c r="B149" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C149" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="D149" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="E149" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -4257,19 +4253,19 @@
         <v>206</v>
       </c>
       <c r="B150" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="C150" t="s">
         <v>65</v>
       </c>
       <c r="D150" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="E150" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F150">
-        <v>0.37</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -4277,19 +4273,19 @@
         <v>206</v>
       </c>
       <c r="B151" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C151" t="s">
         <v>65</v>
       </c>
       <c r="D151" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E151" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F151">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -4297,7 +4293,7 @@
         <v>206</v>
       </c>
       <c r="B152" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C152" t="s">
         <v>65</v>
@@ -4309,7 +4305,7 @@
         <v>104</v>
       </c>
       <c r="F152">
-        <v>0.2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -4317,19 +4313,19 @@
         <v>206</v>
       </c>
       <c r="B153" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C153" t="s">
         <v>65</v>
       </c>
       <c r="D153" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E153" t="s">
         <v>104</v>
       </c>
       <c r="F153">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -4337,7 +4333,7 @@
         <v>206</v>
       </c>
       <c r="B154" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C154" t="s">
         <v>65</v>
@@ -4349,7 +4345,7 @@
         <v>104</v>
       </c>
       <c r="F154">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -4357,19 +4353,19 @@
         <v>206</v>
       </c>
       <c r="B155" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="C155" t="s">
         <v>65</v>
       </c>
       <c r="D155" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E155" t="s">
         <v>104</v>
       </c>
       <c r="F155">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -4377,7 +4373,7 @@
         <v>206</v>
       </c>
       <c r="B156" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C156" t="s">
         <v>65</v>
@@ -4389,7 +4385,7 @@
         <v>104</v>
       </c>
       <c r="F156">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -4397,19 +4393,19 @@
         <v>206</v>
       </c>
       <c r="B157" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C157" t="s">
         <v>65</v>
       </c>
       <c r="D157" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E157" t="s">
         <v>104</v>
       </c>
       <c r="F157">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -4417,19 +4413,19 @@
         <v>206</v>
       </c>
       <c r="B158" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="C158" t="s">
         <v>65</v>
       </c>
       <c r="D158" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E158" t="s">
         <v>104</v>
       </c>
       <c r="F158">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -4437,19 +4433,19 @@
         <v>206</v>
       </c>
       <c r="B159" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="C159" t="s">
         <v>65</v>
       </c>
       <c r="D159" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="E159" t="s">
         <v>104</v>
       </c>
       <c r="F159">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -4457,19 +4453,19 @@
         <v>206</v>
       </c>
       <c r="B160" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="C160" t="s">
-        <v>65</v>
+        <v>233</v>
       </c>
       <c r="D160" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E160" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F160">
-        <v>7.0000000000000007E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -4477,16 +4473,16 @@
         <v>206</v>
       </c>
       <c r="B161" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="C161" t="s">
         <v>65</v>
       </c>
       <c r="D161" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="E161" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4497,16 +4493,16 @@
         <v>206</v>
       </c>
       <c r="B162" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="C162" t="s">
         <v>65</v>
       </c>
       <c r="D162" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="E162" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -4514,73 +4510,73 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="B163" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C163" t="s">
         <v>65</v>
       </c>
       <c r="D163" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="E163" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="B164" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C164" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D164" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="E164" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="B165" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C165" t="s">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="D165" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E165" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="B166" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C166" t="s">
-        <v>65</v>
+        <v>242</v>
       </c>
       <c r="D166" t="s">
         <v>122</v>
@@ -4589,38 +4585,38 @@
         <v>104</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="B167" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="C167" t="s">
-        <v>65</v>
+        <v>267</v>
       </c>
       <c r="D167" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E167" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="B168" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C168" t="s">
-        <v>233</v>
+        <v>65</v>
       </c>
       <c r="D168" t="s">
         <v>130</v>
@@ -4629,47 +4625,47 @@
         <v>108</v>
       </c>
       <c r="F168">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="B169" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C169" t="s">
         <v>65</v>
       </c>
       <c r="D169" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E169" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F169">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="B170" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C170" t="s">
         <v>65</v>
       </c>
       <c r="D170" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="E170" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -4677,19 +4673,19 @@
         <v>236</v>
       </c>
       <c r="B171" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="C171" t="s">
         <v>65</v>
       </c>
       <c r="D171" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E171" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F171">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -4697,19 +4693,19 @@
         <v>236</v>
       </c>
       <c r="B172" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C172" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D172" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="E172" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F172">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -4717,178 +4713,18 @@
         <v>236</v>
       </c>
       <c r="B173" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C173" t="s">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="D173" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="E173" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F173">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
-        <v>236</v>
-      </c>
-      <c r="B174" t="s">
-        <v>241</v>
-      </c>
-      <c r="C174" t="s">
-        <v>242</v>
-      </c>
-      <c r="D174" t="s">
-        <v>122</v>
-      </c>
-      <c r="E174" t="s">
-        <v>104</v>
-      </c>
-      <c r="F174">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
-        <v>236</v>
-      </c>
-      <c r="B175" t="s">
-        <v>243</v>
-      </c>
-      <c r="C175" t="s">
-        <v>65</v>
-      </c>
-      <c r="D175" t="s">
-        <v>137</v>
-      </c>
-      <c r="E175" t="s">
-        <v>108</v>
-      </c>
-      <c r="F175">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
-        <v>236</v>
-      </c>
-      <c r="B176" t="s">
-        <v>244</v>
-      </c>
-      <c r="C176" t="s">
-        <v>65</v>
-      </c>
-      <c r="D176" t="s">
-        <v>130</v>
-      </c>
-      <c r="E176" t="s">
-        <v>108</v>
-      </c>
-      <c r="F176">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
-        <v>236</v>
-      </c>
-      <c r="B177" t="s">
-        <v>239</v>
-      </c>
-      <c r="C177" t="s">
-        <v>65</v>
-      </c>
-      <c r="D177" t="s">
-        <v>159</v>
-      </c>
-      <c r="E177" t="s">
-        <v>108</v>
-      </c>
-      <c r="F177">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
-        <v>236</v>
-      </c>
-      <c r="B178" t="s">
-        <v>245</v>
-      </c>
-      <c r="C178" t="s">
-        <v>65</v>
-      </c>
-      <c r="D178" t="s">
-        <v>132</v>
-      </c>
-      <c r="E178" t="s">
-        <v>108</v>
-      </c>
-      <c r="F178">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
-        <v>236</v>
-      </c>
-      <c r="B179" t="s">
-        <v>246</v>
-      </c>
-      <c r="C179" t="s">
-        <v>65</v>
-      </c>
-      <c r="D179" t="s">
-        <v>122</v>
-      </c>
-      <c r="E179" t="s">
-        <v>104</v>
-      </c>
-      <c r="F179">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
-        <v>236</v>
-      </c>
-      <c r="B180" t="s">
-        <v>247</v>
-      </c>
-      <c r="C180" t="s">
-        <v>65</v>
-      </c>
-      <c r="D180" t="s">
-        <v>116</v>
-      </c>
-      <c r="E180" t="s">
-        <v>104</v>
-      </c>
-      <c r="F180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
-        <v>236</v>
-      </c>
-      <c r="B181" t="s">
-        <v>248</v>
-      </c>
-      <c r="C181" t="s">
-        <v>65</v>
-      </c>
-      <c r="D181" t="s">
-        <v>122</v>
-      </c>
-      <c r="E181" t="s">
-        <v>104</v>
-      </c>
-      <c r="F181">
         <v>0</v>
       </c>
     </row>
@@ -4900,10 +4736,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F18B4A-CD5C-4B9F-ADEF-B0399A504A71}">
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5313,7 +5149,7 @@
         <v>108</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -5321,19 +5157,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
         <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E21" t="s">
         <v>108</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -5341,7 +5177,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
         <v>65</v>
@@ -5353,7 +5189,7 @@
         <v>108</v>
       </c>
       <c r="F22">
-        <v>2.2999999999999998</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -5361,13 +5197,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
         <v>108</v>
@@ -5381,19 +5217,19 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C24" t="s">
         <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
         <v>108</v>
       </c>
       <c r="F24">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -5401,19 +5237,19 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -5421,79 +5257,79 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C26" t="s">
         <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E26" t="s">
         <v>108</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C27" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="D27" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>138</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>257</v>
       </c>
       <c r="D29" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="E29" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -5501,19 +5337,19 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E30" t="s">
         <v>141</v>
       </c>
       <c r="F30">
-        <v>1.31</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -5521,19 +5357,19 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D31" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="E31" t="s">
         <v>141</v>
       </c>
       <c r="F31">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -5541,19 +5377,19 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C32" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="D32" t="s">
-        <v>103</v>
+        <v>149</v>
       </c>
       <c r="E32" t="s">
         <v>104</v>
       </c>
       <c r="F32">
-        <v>1.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -5561,19 +5397,19 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C33" t="s">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E33" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="F33">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -5581,19 +5417,19 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C34" t="s">
         <v>147</v>
       </c>
       <c r="D34" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E34" t="s">
         <v>141</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -5601,19 +5437,19 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s">
-        <v>269</v>
+        <v>153</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -5621,16 +5457,16 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E36" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -5641,19 +5477,19 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F37">
-        <v>1.1599999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -5661,19 +5497,19 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C38" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E38" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F38">
-        <v>1.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -5681,19 +5517,19 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="E39" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -5701,13 +5537,13 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C40" t="s">
         <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E40" t="s">
         <v>108</v>
@@ -5721,19 +5557,19 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
         <v>65</v>
       </c>
       <c r="D41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E41" t="s">
         <v>108</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -5741,19 +5577,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C42" t="s">
         <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="E42" t="s">
         <v>108</v>
       </c>
       <c r="F42">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -5761,16 +5597,16 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C43" t="s">
         <v>65</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="E43" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -5781,19 +5617,19 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s">
         <v>65</v>
       </c>
       <c r="D44" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -5801,19 +5637,19 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C45" t="s">
         <v>65</v>
       </c>
       <c r="D45" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -5821,19 +5657,19 @@
         <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C46" t="s">
         <v>65</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E46" t="s">
         <v>104</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -5841,7 +5677,7 @@
         <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C47" t="s">
         <v>65</v>
@@ -5853,7 +5689,7 @@
         <v>104</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -5861,19 +5697,19 @@
         <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C48" t="s">
         <v>65</v>
       </c>
       <c r="D48" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="E48" t="s">
         <v>104</v>
       </c>
       <c r="F48">
-        <v>1.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -5881,19 +5717,19 @@
         <v>40</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D49" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E49" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F49">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -5901,19 +5737,19 @@
         <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C50" t="s">
         <v>65</v>
       </c>
       <c r="D50" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="E50" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F50">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -5921,19 +5757,19 @@
         <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C51" t="s">
         <v>65</v>
       </c>
       <c r="D51" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -5941,36 +5777,36 @@
         <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>171</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E52" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="F52">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B53" t="s">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -5978,39 +5814,39 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="D54" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="E54" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B55" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="E55" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -6018,22 +5854,22 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="D56" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="E56" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -6044,7 +5880,7 @@
         <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
       <c r="D57" t="s">
         <v>151</v>
@@ -6061,19 +5897,19 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="D58" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="E58" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F58">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -6081,16 +5917,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
       <c r="D59" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E59" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -6101,19 +5937,19 @@
         <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D60" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="E60" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -6121,16 +5957,16 @@
         <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="D61" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="E61" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -6141,10 +5977,10 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="C62" t="s">
-        <v>255</v>
+        <v>65</v>
       </c>
       <c r="D62" t="s">
         <v>137</v>
@@ -6161,13 +5997,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C63" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="D63" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E63" t="s">
         <v>108</v>
@@ -6181,19 +6017,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="C64" t="s">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="D64" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="E64" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F64">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -6201,16 +6037,16 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="C65" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D65" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E65" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -6221,13 +6057,13 @@
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="C66" t="s">
         <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E66" t="s">
         <v>108</v>
@@ -6241,16 +6077,16 @@
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C67" t="s">
         <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E67" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -6261,19 +6097,19 @@
         <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C68" t="s">
         <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="E68" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -6281,19 +6117,19 @@
         <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="C69" t="s">
         <v>65</v>
       </c>
       <c r="D69" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E69" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -6301,19 +6137,19 @@
         <v>62</v>
       </c>
       <c r="B70" t="s">
-        <v>180</v>
+        <v>84</v>
       </c>
       <c r="C70" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D70" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="E70" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -6321,16 +6157,16 @@
         <v>62</v>
       </c>
       <c r="B71" t="s">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="C71" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D71" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E71" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -6341,19 +6177,19 @@
         <v>62</v>
       </c>
       <c r="B72" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C72" t="s">
         <v>65</v>
       </c>
       <c r="D72" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E72" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F72">
-        <v>0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -6361,19 +6197,19 @@
         <v>62</v>
       </c>
       <c r="B73" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C73" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="D73" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="E73" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F73">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -6381,36 +6217,36 @@
         <v>62</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>187</v>
       </c>
       <c r="C74" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D74" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E74" t="s">
         <v>141</v>
       </c>
       <c r="F74">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="C75" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="D75" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -6418,33 +6254,33 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B76" t="s">
-        <v>184</v>
+        <v>86</v>
       </c>
       <c r="C76" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D76" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E76" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>185</v>
+        <v>88</v>
       </c>
       <c r="C77" t="s">
-        <v>186</v>
+        <v>89</v>
       </c>
       <c r="D77" t="s">
         <v>151</v>
@@ -6458,22 +6294,22 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>187</v>
+        <v>266</v>
       </c>
       <c r="C78" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="D78" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="E78" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F78">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -6481,13 +6317,13 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C79" t="s">
-        <v>65</v>
+        <v>256</v>
       </c>
       <c r="D79" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="E79" t="s">
         <v>108</v>
@@ -6501,19 +6337,19 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="C80" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D80" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="E80" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F80">
-        <v>0.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -6521,16 +6357,16 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>191</v>
       </c>
       <c r="C81" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D81" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E81" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -6541,19 +6377,19 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="C82" t="s">
         <v>65</v>
       </c>
       <c r="D82" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E82" t="s">
         <v>108</v>
       </c>
       <c r="F82">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -6561,13 +6397,13 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>270</v>
+        <v>193</v>
       </c>
       <c r="C83" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="D83" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E83" t="s">
         <v>108</v>
@@ -6581,16 +6417,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C84" t="s">
-        <v>256</v>
+        <v>65</v>
       </c>
       <c r="D84" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E84" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -6601,16 +6437,16 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C85" t="s">
         <v>65</v>
       </c>
       <c r="D85" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E85" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -6621,16 +6457,16 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C86" t="s">
         <v>65</v>
       </c>
       <c r="D86" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E86" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -6641,16 +6477,16 @@
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="C87" t="s">
         <v>65</v>
       </c>
       <c r="D87" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="E87" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -6661,19 +6497,19 @@
         <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C88" t="s">
         <v>65</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E88" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -6681,7 +6517,7 @@
         <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C89" t="s">
         <v>65</v>
@@ -6693,7 +6529,7 @@
         <v>104</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -6701,19 +6537,19 @@
         <v>83</v>
       </c>
       <c r="B90" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="C90" t="s">
         <v>65</v>
       </c>
       <c r="D90" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E90" t="s">
         <v>104</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -6721,16 +6557,16 @@
         <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C91" t="s">
         <v>65</v>
       </c>
       <c r="D91" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E91" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6741,19 +6577,19 @@
         <v>83</v>
       </c>
       <c r="B92" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C92" t="s">
-        <v>65</v>
+        <v>203</v>
       </c>
       <c r="D92" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="E92" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -6761,19 +6597,19 @@
         <v>83</v>
       </c>
       <c r="B93" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C93" t="s">
         <v>65</v>
       </c>
       <c r="D93" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="E93" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F93">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -6781,56 +6617,56 @@
         <v>83</v>
       </c>
       <c r="B94" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C94" t="s">
         <v>65</v>
       </c>
       <c r="D94" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E94" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F94">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="B95" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C95" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D95" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="E95" t="s">
         <v>104</v>
       </c>
       <c r="F95">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="B96" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C96" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D96" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E96" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -6838,62 +6674,62 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="B97" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C97" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D97" t="s">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="E97" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="F97">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="B98" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C98" t="s">
         <v>65</v>
       </c>
       <c r="D98" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="E98" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="F98">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="B99" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C99" t="s">
-        <v>65</v>
+        <v>258</v>
       </c>
       <c r="D99" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E99" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -6901,16 +6737,16 @@
         <v>206</v>
       </c>
       <c r="B100" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C100" t="s">
-        <v>89</v>
+        <v>212</v>
       </c>
       <c r="D100" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E100" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -6921,16 +6757,16 @@
         <v>206</v>
       </c>
       <c r="B101" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C101" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D101" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="E101" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -6941,19 +6777,19 @@
         <v>206</v>
       </c>
       <c r="B102" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C102" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D102" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="E102" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -6961,16 +6797,16 @@
         <v>206</v>
       </c>
       <c r="B103" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C103" t="s">
         <v>65</v>
       </c>
       <c r="D103" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E103" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -6981,19 +6817,19 @@
         <v>206</v>
       </c>
       <c r="B104" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C104" t="s">
-        <v>258</v>
+        <v>65</v>
       </c>
       <c r="D104" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="E104" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F104">
-        <v>0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -7001,16 +6837,16 @@
         <v>206</v>
       </c>
       <c r="B105" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C105" t="s">
-        <v>212</v>
+        <v>65</v>
       </c>
       <c r="D105" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="E105" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -7021,7 +6857,7 @@
         <v>206</v>
       </c>
       <c r="B106" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="C106" t="s">
         <v>65</v>
@@ -7041,19 +6877,19 @@
         <v>206</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="C107" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="D107" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="E107" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="F107">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -7061,16 +6897,16 @@
         <v>206</v>
       </c>
       <c r="B108" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C108" t="s">
         <v>65</v>
       </c>
       <c r="D108" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E108" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -7081,16 +6917,16 @@
         <v>206</v>
       </c>
       <c r="B109" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C109" t="s">
         <v>65</v>
       </c>
       <c r="D109" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="E109" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -7101,7 +6937,7 @@
         <v>206</v>
       </c>
       <c r="B110" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C110" t="s">
         <v>65</v>
@@ -7121,13 +6957,13 @@
         <v>206</v>
       </c>
       <c r="B111" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C111" t="s">
         <v>65</v>
       </c>
       <c r="D111" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E111" t="s">
         <v>104</v>
@@ -7141,19 +6977,19 @@
         <v>206</v>
       </c>
       <c r="B112" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C112" t="s">
         <v>65</v>
       </c>
       <c r="D112" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E112" t="s">
         <v>104</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -7161,19 +6997,19 @@
         <v>206</v>
       </c>
       <c r="B113" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="C113" t="s">
         <v>65</v>
       </c>
       <c r="D113" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E113" t="s">
         <v>104</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -7181,7 +7017,7 @@
         <v>206</v>
       </c>
       <c r="B114" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C114" t="s">
         <v>65</v>
@@ -7193,7 +7029,7 @@
         <v>104</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -7201,19 +7037,19 @@
         <v>206</v>
       </c>
       <c r="B115" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C115" t="s">
         <v>65</v>
       </c>
       <c r="D115" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E115" t="s">
         <v>104</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -7221,19 +7057,19 @@
         <v>206</v>
       </c>
       <c r="B116" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C116" t="s">
         <v>65</v>
       </c>
       <c r="D116" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E116" t="s">
         <v>104</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -7241,7 +7077,7 @@
         <v>206</v>
       </c>
       <c r="B117" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C117" t="s">
         <v>65</v>
@@ -7253,7 +7089,7 @@
         <v>104</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -7261,13 +7097,13 @@
         <v>206</v>
       </c>
       <c r="B118" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C118" t="s">
         <v>65</v>
       </c>
       <c r="D118" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E118" t="s">
         <v>104</v>
@@ -7281,19 +7117,19 @@
         <v>206</v>
       </c>
       <c r="B119" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C119" t="s">
         <v>65</v>
       </c>
       <c r="D119" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E119" t="s">
         <v>104</v>
       </c>
       <c r="F119">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -7301,19 +7137,19 @@
         <v>206</v>
       </c>
       <c r="B120" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C120" t="s">
-        <v>65</v>
+        <v>233</v>
       </c>
       <c r="D120" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E120" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F120">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -7321,19 +7157,19 @@
         <v>206</v>
       </c>
       <c r="B121" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C121" t="s">
         <v>65</v>
       </c>
       <c r="D121" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E121" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F121">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -7341,96 +7177,96 @@
         <v>206</v>
       </c>
       <c r="B122" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C122" t="s">
         <v>65</v>
       </c>
       <c r="D122" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="E122" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F122">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="B123" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="C123" t="s">
         <v>65</v>
       </c>
       <c r="D123" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="E123" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F123">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="B124" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C124" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D124" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="E124" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="F124">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="B125" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="C125" t="s">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="D125" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="E125" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F125">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="B126" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="C126" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="D126" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E126" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -7438,42 +7274,42 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="B127" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C127" t="s">
         <v>65</v>
       </c>
       <c r="D127" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E127" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F127">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="B128" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C128" t="s">
         <v>65</v>
       </c>
       <c r="D128" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="E128" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F128">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -7481,13 +7317,13 @@
         <v>236</v>
       </c>
       <c r="B129" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C129" t="s">
         <v>65</v>
       </c>
       <c r="D129" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="E129" t="s">
         <v>108</v>
@@ -7501,16 +7337,16 @@
         <v>236</v>
       </c>
       <c r="B130" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C130" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D130" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="E130" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -7521,16 +7357,16 @@
         <v>236</v>
       </c>
       <c r="B131" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C131" t="s">
-        <v>240</v>
+        <v>65</v>
       </c>
       <c r="D131" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="E131" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -7541,19 +7377,19 @@
         <v>236</v>
       </c>
       <c r="B132" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C132" t="s">
-        <v>242</v>
+        <v>65</v>
       </c>
       <c r="D132" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E132" t="s">
         <v>104</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -7561,138 +7397,18 @@
         <v>236</v>
       </c>
       <c r="B133" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C133" t="s">
         <v>65</v>
       </c>
       <c r="D133" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E133" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>236</v>
-      </c>
-      <c r="B134" t="s">
-        <v>244</v>
-      </c>
-      <c r="C134" t="s">
-        <v>65</v>
-      </c>
-      <c r="D134" t="s">
-        <v>130</v>
-      </c>
-      <c r="E134" t="s">
-        <v>108</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>236</v>
-      </c>
-      <c r="B135" t="s">
-        <v>239</v>
-      </c>
-      <c r="C135" t="s">
-        <v>65</v>
-      </c>
-      <c r="D135" t="s">
-        <v>159</v>
-      </c>
-      <c r="E135" t="s">
-        <v>108</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>236</v>
-      </c>
-      <c r="B136" t="s">
-        <v>245</v>
-      </c>
-      <c r="C136" t="s">
-        <v>65</v>
-      </c>
-      <c r="D136" t="s">
-        <v>132</v>
-      </c>
-      <c r="E136" t="s">
-        <v>108</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>236</v>
-      </c>
-      <c r="B137" t="s">
-        <v>246</v>
-      </c>
-      <c r="C137" t="s">
-        <v>65</v>
-      </c>
-      <c r="D137" t="s">
-        <v>122</v>
-      </c>
-      <c r="E137" t="s">
-        <v>104</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>236</v>
-      </c>
-      <c r="B138" t="s">
-        <v>247</v>
-      </c>
-      <c r="C138" t="s">
-        <v>65</v>
-      </c>
-      <c r="D138" t="s">
-        <v>116</v>
-      </c>
-      <c r="E138" t="s">
-        <v>104</v>
-      </c>
-      <c r="F138">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>236</v>
-      </c>
-      <c r="B139" t="s">
-        <v>248</v>
-      </c>
-      <c r="C139" t="s">
-        <v>65</v>
-      </c>
-      <c r="D139" t="s">
-        <v>122</v>
-      </c>
-      <c r="E139" t="s">
-        <v>104</v>
-      </c>
-      <c r="F139">
         <v>0.02</v>
       </c>
     </row>

--- a/dashboard/server/resources/counterparty_targets_2026.xlsx
+++ b/dashboard/server/resources/counterparty_targets_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\B2B\data_analysis_ai\dashboard\server\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B52078-B769-431B-8D41-1FF6BB07D1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933EA44C-CFBC-419E-AD4B-1802BE962206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-72" windowWidth="23256" windowHeight="12456" xr2:uid="{BF30D8BD-E8FB-4CB0-B3F0-05A8332F606C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF30D8BD-E8FB-4CB0-B3F0-05A8332F606C}"/>
   </bookViews>
   <sheets>
     <sheet name="26 출강 타겟" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="269">
   <si>
     <t>티어</t>
   </si>
@@ -1250,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF9C648-897F-4933-AE23-AECAF1223738}">
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D161" sqref="D161"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I130" sqref="I130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2073,39 +2073,39 @@
         <v>62</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="1">
-        <v>0</v>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42">
+        <v>15.79</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2116,7 +2116,7 @@
         <v>101</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
         <v>103</v>
@@ -2125,27 +2125,27 @@
         <v>104</v>
       </c>
       <c r="F43">
-        <v>15.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2153,7 +2153,7 @@
         <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
         <v>65</v>
@@ -2165,7 +2165,7 @@
         <v>108</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2173,19 +2173,19 @@
         <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E46" t="s">
         <v>108</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2196,7 +2196,7 @@
         <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="D47" t="s">
         <v>112</v>
@@ -2205,7 +2205,7 @@
         <v>108</v>
       </c>
       <c r="F47">
-        <v>7.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2216,7 +2216,7 @@
         <v>110</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="D48" t="s">
         <v>112</v>
@@ -2225,7 +2225,7 @@
         <v>108</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2236,7 +2236,7 @@
         <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D49" t="s">
         <v>112</v>
@@ -2245,7 +2245,7 @@
         <v>108</v>
       </c>
       <c r="F49">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2253,19 +2253,19 @@
         <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D50" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2273,19 +2273,19 @@
         <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="D51" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E51" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="F51">
-        <v>0.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2293,19 +2293,19 @@
         <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E52" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2313,16 +2313,16 @@
         <v>20</v>
       </c>
       <c r="B53" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C53" t="s">
         <v>65</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E53" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2333,13 +2333,13 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C54" t="s">
         <v>65</v>
       </c>
       <c r="D54" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E54" t="s">
         <v>104</v>
@@ -2353,13 +2353,13 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C55" t="s">
         <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E55" t="s">
         <v>104</v>
@@ -2373,13 +2373,13 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C56" t="s">
         <v>65</v>
       </c>
       <c r="D56" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E56" t="s">
         <v>104</v>
@@ -2393,13 +2393,13 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C57" t="s">
         <v>65</v>
       </c>
       <c r="D57" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="E57" t="s">
         <v>104</v>
@@ -2413,7 +2413,7 @@
         <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2433,19 +2433,19 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="C59" t="s">
         <v>65</v>
       </c>
       <c r="D59" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="E59" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2453,19 +2453,19 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C60" t="s">
         <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E60" t="s">
         <v>108</v>
       </c>
       <c r="F60">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2473,7 +2473,7 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C61" t="s">
         <v>65</v>
@@ -2485,7 +2485,7 @@
         <v>108</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2493,19 +2493,19 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="D62" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E62" t="s">
         <v>108</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2516,7 +2516,7 @@
         <v>134</v>
       </c>
       <c r="C63" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="D63" t="s">
         <v>130</v>
@@ -2525,7 +2525,7 @@
         <v>108</v>
       </c>
       <c r="F63">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2545,7 +2545,7 @@
         <v>108</v>
       </c>
       <c r="F64">
-        <v>1.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2553,19 +2553,19 @@
         <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="D65" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E65" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2573,16 +2573,16 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="C66" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E66" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2590,19 +2590,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="D67" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E67" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2616,7 +2616,7 @@
         <v>138</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D68" t="s">
         <v>140</v>
@@ -2633,16 +2633,16 @@
         <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C69" t="s">
-        <v>142</v>
+        <v>257</v>
       </c>
       <c r="D69" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="E69" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2653,16 +2653,16 @@
         <v>40</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>257</v>
+        <v>145</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="E70" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>144</v>
       </c>
       <c r="C71" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D71" t="s">
         <v>146</v>
@@ -2693,16 +2693,16 @@
         <v>40</v>
       </c>
       <c r="B72" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C72" t="s">
-        <v>147</v>
+        <v>265</v>
       </c>
       <c r="D72" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>148</v>
       </c>
       <c r="C73" t="s">
-        <v>265</v>
+        <v>31</v>
       </c>
       <c r="D73" t="s">
         <v>149</v>
@@ -2725,7 +2725,7 @@
         <v>104</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2733,19 +2733,19 @@
         <v>40</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="D74" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E74" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F74">
-        <v>0.96</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2753,10 +2753,10 @@
         <v>40</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C75" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D75" t="s">
         <v>151</v>
@@ -2765,7 +2765,7 @@
         <v>141</v>
       </c>
       <c r="F75">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -2773,10 +2773,10 @@
         <v>40</v>
       </c>
       <c r="B76" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C76" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D76" t="s">
         <v>151</v>
@@ -2785,7 +2785,7 @@
         <v>141</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2793,19 +2793,19 @@
         <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C77" t="s">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="D77" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E77" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F77">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2813,19 +2813,19 @@
         <v>40</v>
       </c>
       <c r="B78" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C78" t="s">
         <v>65</v>
       </c>
       <c r="D78" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E78" t="s">
         <v>108</v>
       </c>
       <c r="F78">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2833,19 +2833,19 @@
         <v>40</v>
       </c>
       <c r="B79" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C79" t="s">
         <v>65</v>
       </c>
       <c r="D79" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="E79" t="s">
         <v>108</v>
       </c>
       <c r="F79">
-        <v>1.5</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2853,7 +2853,7 @@
         <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C80" t="s">
         <v>65</v>
@@ -2865,7 +2865,7 @@
         <v>108</v>
       </c>
       <c r="F80">
-        <v>0.17</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2873,19 +2873,19 @@
         <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C81" t="s">
         <v>65</v>
       </c>
       <c r="D81" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="E81" t="s">
         <v>108</v>
       </c>
       <c r="F81">
-        <v>1.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2893,7 +2893,7 @@
         <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C82" t="s">
         <v>65</v>
@@ -2905,7 +2905,7 @@
         <v>108</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2913,19 +2913,19 @@
         <v>40</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C83" t="s">
         <v>65</v>
       </c>
       <c r="D83" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E83" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F83">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2933,19 +2933,19 @@
         <v>40</v>
       </c>
       <c r="B84" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C84" t="s">
         <v>65</v>
       </c>
       <c r="D84" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E84" t="s">
         <v>104</v>
       </c>
       <c r="F84">
-        <v>1.9</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2953,19 +2953,19 @@
         <v>40</v>
       </c>
       <c r="B85" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C85" t="s">
         <v>65</v>
       </c>
       <c r="D85" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E85" t="s">
         <v>104</v>
       </c>
       <c r="F85">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2973,13 +2973,13 @@
         <v>40</v>
       </c>
       <c r="B86" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C86" t="s">
         <v>65</v>
       </c>
       <c r="D86" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="E86" t="s">
         <v>104</v>
@@ -2993,13 +2993,13 @@
         <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C87" t="s">
         <v>65</v>
       </c>
       <c r="D87" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E87" t="s">
         <v>104</v>
@@ -3013,13 +3013,13 @@
         <v>40</v>
       </c>
       <c r="B88" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C88" t="s">
         <v>65</v>
       </c>
       <c r="D88" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="E88" t="s">
         <v>104</v>
@@ -3033,19 +3033,19 @@
         <v>40</v>
       </c>
       <c r="B89" t="s">
-        <v>168</v>
+        <v>82</v>
       </c>
       <c r="C89" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="D89" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="E89" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -3053,16 +3053,16 @@
         <v>40</v>
       </c>
       <c r="B90" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D90" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="E90" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F90">
         <v>0.5</v>
@@ -3073,19 +3073,19 @@
         <v>40</v>
       </c>
       <c r="B91" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C91" t="s">
         <v>65</v>
       </c>
       <c r="D91" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="E91" t="s">
         <v>108</v>
       </c>
       <c r="F91">
-        <v>0.5</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -3093,39 +3093,39 @@
         <v>40</v>
       </c>
       <c r="B92" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C92" t="s">
         <v>65</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E92" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F92">
-        <v>1.44</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B93" t="s">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="C93" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="D93" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="E93" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F93">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3136,16 +3136,16 @@
         <v>63</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="D94" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="E94" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="F94">
-        <v>0.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -3156,16 +3156,16 @@
         <v>63</v>
       </c>
       <c r="C95" t="s">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="D95" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="E95" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3176,7 +3176,7 @@
         <v>63</v>
       </c>
       <c r="C96" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="D96" t="s">
         <v>151</v>
@@ -3185,7 +3185,7 @@
         <v>141</v>
       </c>
       <c r="F96">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -3196,7 +3196,7 @@
         <v>63</v>
       </c>
       <c r="C97" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D97" t="s">
         <v>151</v>
@@ -3205,7 +3205,7 @@
         <v>141</v>
       </c>
       <c r="F97">
-        <v>0.02</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -3213,19 +3213,19 @@
         <v>62</v>
       </c>
       <c r="B98" t="s">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="C98" t="s">
-        <v>174</v>
+        <v>255</v>
       </c>
       <c r="D98" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E98" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F98">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -3236,7 +3236,7 @@
         <v>175</v>
       </c>
       <c r="C99" t="s">
-        <v>255</v>
+        <v>176</v>
       </c>
       <c r="D99" t="s">
         <v>137</v>
@@ -3245,7 +3245,7 @@
         <v>108</v>
       </c>
       <c r="F99">
-        <v>0.7</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -3253,19 +3253,19 @@
         <v>62</v>
       </c>
       <c r="B100" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="C100" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D100" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E100" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F100">
-        <v>0.28000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -3276,16 +3276,16 @@
         <v>78</v>
       </c>
       <c r="C101" t="s">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="D101" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E101" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -3293,19 +3293,19 @@
         <v>62</v>
       </c>
       <c r="B102" t="s">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="C102" t="s">
         <v>65</v>
       </c>
       <c r="D102" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E102" t="s">
         <v>108</v>
       </c>
       <c r="F102">
-        <v>0.78</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -3313,7 +3313,7 @@
         <v>62</v>
       </c>
       <c r="B103" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C103" t="s">
         <v>65</v>
@@ -3325,7 +3325,7 @@
         <v>108</v>
       </c>
       <c r="F103">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -3333,19 +3333,19 @@
         <v>62</v>
       </c>
       <c r="B104" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="C104" t="s">
         <v>65</v>
       </c>
       <c r="D104" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="E104" t="s">
         <v>108</v>
       </c>
       <c r="F104">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -3353,13 +3353,13 @@
         <v>62</v>
       </c>
       <c r="B105" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="C105" t="s">
         <v>65</v>
       </c>
       <c r="D105" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="E105" t="s">
         <v>108</v>
@@ -3373,19 +3373,19 @@
         <v>62</v>
       </c>
       <c r="B106" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C106" t="s">
         <v>65</v>
       </c>
       <c r="D106" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="E106" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F106">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -3393,19 +3393,19 @@
         <v>62</v>
       </c>
       <c r="B107" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C107" t="s">
         <v>65</v>
       </c>
       <c r="D107" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="E107" t="s">
         <v>104</v>
       </c>
       <c r="F107">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -3413,13 +3413,13 @@
         <v>62</v>
       </c>
       <c r="B108" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C108" t="s">
         <v>65</v>
       </c>
       <c r="D108" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E108" t="s">
         <v>104</v>
@@ -3433,16 +3433,16 @@
         <v>62</v>
       </c>
       <c r="B109" t="s">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="C109" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D109" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="E109" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3453,19 +3453,19 @@
         <v>62</v>
       </c>
       <c r="B110" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C110" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="D110" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E110" t="s">
         <v>141</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -3473,19 +3473,19 @@
         <v>62</v>
       </c>
       <c r="B111" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="C111" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="D111" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E111" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F111">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -3493,16 +3493,16 @@
         <v>62</v>
       </c>
       <c r="B112" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C112" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="D112" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="E112" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F112">
         <v>0.6</v>
@@ -3513,39 +3513,39 @@
         <v>62</v>
       </c>
       <c r="B113" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C113" t="s">
-        <v>186</v>
+        <v>65</v>
       </c>
       <c r="D113" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E113" t="s">
         <v>141</v>
       </c>
       <c r="F113">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="B114" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C114" t="s">
         <v>65</v>
       </c>
       <c r="D114" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="E114" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F114">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3553,19 +3553,19 @@
         <v>83</v>
       </c>
       <c r="B115" t="s">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="C115" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="D115" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E115" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F115">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -3573,19 +3573,19 @@
         <v>83</v>
       </c>
       <c r="B116" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C116" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D116" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E116" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -3593,19 +3593,19 @@
         <v>83</v>
       </c>
       <c r="B117" t="s">
-        <v>88</v>
+        <v>266</v>
       </c>
       <c r="C117" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D117" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="E117" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F117">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -3613,19 +3613,19 @@
         <v>83</v>
       </c>
       <c r="B118" t="s">
-        <v>266</v>
+        <v>189</v>
       </c>
       <c r="C118" t="s">
-        <v>113</v>
+        <v>256</v>
       </c>
       <c r="D118" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="E118" t="s">
         <v>108</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3633,19 +3633,19 @@
         <v>83</v>
       </c>
       <c r="B119" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C119" t="s">
-        <v>256</v>
+        <v>65</v>
       </c>
       <c r="D119" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E119" t="s">
         <v>108</v>
       </c>
       <c r="F119">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -3653,7 +3653,7 @@
         <v>83</v>
       </c>
       <c r="B120" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C120" t="s">
         <v>65</v>
@@ -3665,7 +3665,7 @@
         <v>108</v>
       </c>
       <c r="F120">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -3673,19 +3673,19 @@
         <v>83</v>
       </c>
       <c r="B121" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C121" t="s">
         <v>65</v>
       </c>
       <c r="D121" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E121" t="s">
         <v>108</v>
       </c>
       <c r="F121">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -3693,19 +3693,19 @@
         <v>83</v>
       </c>
       <c r="B122" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C122" t="s">
         <v>65</v>
       </c>
       <c r="D122" t="s">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c r="E122" t="s">
         <v>108</v>
       </c>
       <c r="F122">
-        <v>0.43</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -3713,19 +3713,19 @@
         <v>83</v>
       </c>
       <c r="B123" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C123" t="s">
         <v>65</v>
       </c>
       <c r="D123" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F123">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -3733,19 +3733,19 @@
         <v>83</v>
       </c>
       <c r="B124" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C124" t="s">
         <v>65</v>
       </c>
       <c r="D124" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E124" t="s">
         <v>104</v>
       </c>
       <c r="F124">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -3753,19 +3753,19 @@
         <v>83</v>
       </c>
       <c r="B125" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C125" t="s">
         <v>65</v>
       </c>
       <c r="D125" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E125" t="s">
         <v>104</v>
       </c>
       <c r="F125">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -3773,19 +3773,19 @@
         <v>83</v>
       </c>
       <c r="B126" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C126" t="s">
         <v>65</v>
       </c>
       <c r="D126" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E126" t="s">
         <v>104</v>
       </c>
       <c r="F126">
-        <v>0.28999999999999998</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -3793,19 +3793,19 @@
         <v>83</v>
       </c>
       <c r="B127" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C127" t="s">
         <v>65</v>
       </c>
       <c r="D127" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E127" t="s">
         <v>104</v>
       </c>
       <c r="F127">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -3813,7 +3813,7 @@
         <v>83</v>
       </c>
       <c r="B128" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C128" t="s">
         <v>65</v>
@@ -3833,19 +3833,19 @@
         <v>83</v>
       </c>
       <c r="B129" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C129" t="s">
         <v>65</v>
       </c>
       <c r="D129" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E129" t="s">
         <v>104</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -3853,19 +3853,19 @@
         <v>83</v>
       </c>
       <c r="B130" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C130" t="s">
         <v>65</v>
       </c>
       <c r="D130" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E130" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F130">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -3873,19 +3873,19 @@
         <v>83</v>
       </c>
       <c r="B131" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C131" t="s">
-        <v>65</v>
+        <v>203</v>
       </c>
       <c r="D131" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E131" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F131">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -3893,10 +3893,10 @@
         <v>83</v>
       </c>
       <c r="B132" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C132" t="s">
-        <v>203</v>
+        <v>65</v>
       </c>
       <c r="D132" t="s">
         <v>151</v>
@@ -3905,7 +3905,7 @@
         <v>141</v>
       </c>
       <c r="F132">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -3913,39 +3913,39 @@
         <v>83</v>
       </c>
       <c r="B133" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C133" t="s">
         <v>65</v>
       </c>
       <c r="D133" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E133" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="B134" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C134" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="D134" t="s">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="E134" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F134">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -3953,19 +3953,19 @@
         <v>206</v>
       </c>
       <c r="B135" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C135" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="D135" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="E135" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="F135">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -3976,7 +3976,7 @@
         <v>208</v>
       </c>
       <c r="C136" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="D136" t="s">
         <v>80</v>
@@ -3985,7 +3985,7 @@
         <v>81</v>
       </c>
       <c r="F136">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -3993,19 +3993,19 @@
         <v>206</v>
       </c>
       <c r="B137" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C137" t="s">
-        <v>209</v>
+        <v>258</v>
       </c>
       <c r="D137" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="E137" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="F137">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -4013,19 +4013,19 @@
         <v>206</v>
       </c>
       <c r="B138" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C138" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="D138" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E138" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -4033,19 +4033,19 @@
         <v>206</v>
       </c>
       <c r="B139" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C139" t="s">
-        <v>212</v>
+        <v>65</v>
       </c>
       <c r="D139" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E139" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F139">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -4053,19 +4053,19 @@
         <v>206</v>
       </c>
       <c r="B140" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C140" t="s">
-        <v>65</v>
+        <v>215</v>
       </c>
       <c r="D140" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="E140" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="F140">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -4073,19 +4073,19 @@
         <v>206</v>
       </c>
       <c r="B141" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C141" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="D141" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E141" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -4093,19 +4093,19 @@
         <v>206</v>
       </c>
       <c r="B142" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C142" t="s">
         <v>65</v>
       </c>
       <c r="D142" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="E142" t="s">
         <v>108</v>
       </c>
       <c r="F142">
-        <v>0.37</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -4113,19 +4113,19 @@
         <v>206</v>
       </c>
       <c r="B143" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C143" t="s">
         <v>65</v>
       </c>
       <c r="D143" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="E143" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F143">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -4133,13 +4133,13 @@
         <v>206</v>
       </c>
       <c r="B144" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C144" t="s">
         <v>65</v>
       </c>
       <c r="D144" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E144" t="s">
         <v>104</v>
@@ -4153,7 +4153,7 @@
         <v>206</v>
       </c>
       <c r="B145" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C145" t="s">
         <v>65</v>
@@ -4173,7 +4173,7 @@
         <v>206</v>
       </c>
       <c r="B146" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C146" t="s">
         <v>65</v>
@@ -4193,7 +4193,7 @@
         <v>206</v>
       </c>
       <c r="B147" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C147" t="s">
         <v>65</v>
@@ -4205,7 +4205,7 @@
         <v>104</v>
       </c>
       <c r="F147">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -4213,7 +4213,7 @@
         <v>206</v>
       </c>
       <c r="B148" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C148" t="s">
         <v>65</v>
@@ -4233,19 +4233,19 @@
         <v>206</v>
       </c>
       <c r="B149" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C149" t="s">
         <v>65</v>
       </c>
       <c r="D149" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E149" t="s">
         <v>104</v>
       </c>
       <c r="F149">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -4253,13 +4253,13 @@
         <v>206</v>
       </c>
       <c r="B150" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C150" t="s">
         <v>65</v>
       </c>
       <c r="D150" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="E150" t="s">
         <v>104</v>
@@ -4273,19 +4273,19 @@
         <v>206</v>
       </c>
       <c r="B151" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C151" t="s">
         <v>65</v>
       </c>
       <c r="D151" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="E151" t="s">
         <v>104</v>
       </c>
       <c r="F151">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -4293,7 +4293,7 @@
         <v>206</v>
       </c>
       <c r="B152" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C152" t="s">
         <v>65</v>
@@ -4305,7 +4305,7 @@
         <v>104</v>
       </c>
       <c r="F152">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -4313,13 +4313,13 @@
         <v>206</v>
       </c>
       <c r="B153" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C153" t="s">
         <v>65</v>
       </c>
       <c r="D153" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E153" t="s">
         <v>104</v>
@@ -4333,13 +4333,13 @@
         <v>206</v>
       </c>
       <c r="B154" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C154" t="s">
         <v>65</v>
       </c>
       <c r="D154" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E154" t="s">
         <v>104</v>
@@ -4353,13 +4353,13 @@
         <v>206</v>
       </c>
       <c r="B155" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C155" t="s">
         <v>65</v>
       </c>
       <c r="D155" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="E155" t="s">
         <v>104</v>
@@ -4373,13 +4373,13 @@
         <v>206</v>
       </c>
       <c r="B156" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C156" t="s">
         <v>65</v>
       </c>
       <c r="D156" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="E156" t="s">
         <v>104</v>
@@ -4393,13 +4393,13 @@
         <v>206</v>
       </c>
       <c r="B157" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C157" t="s">
         <v>65</v>
       </c>
       <c r="D157" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="E157" t="s">
         <v>104</v>
@@ -4413,7 +4413,7 @@
         <v>206</v>
       </c>
       <c r="B158" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C158" t="s">
         <v>65</v>
@@ -4433,19 +4433,19 @@
         <v>206</v>
       </c>
       <c r="B159" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C159" t="s">
-        <v>65</v>
+        <v>233</v>
       </c>
       <c r="D159" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E159" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -4453,19 +4453,19 @@
         <v>206</v>
       </c>
       <c r="B160" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C160" t="s">
-        <v>233</v>
+        <v>65</v>
       </c>
       <c r="D160" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="E160" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="F160">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -4473,7 +4473,7 @@
         <v>206</v>
       </c>
       <c r="B161" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C161" t="s">
         <v>65</v>
@@ -4490,22 +4490,22 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="B162" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C162" t="s">
         <v>65</v>
       </c>
       <c r="D162" t="s">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="E162" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -4513,19 +4513,19 @@
         <v>236</v>
       </c>
       <c r="B163" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C163" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D163" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="E163" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F163">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -4533,16 +4533,16 @@
         <v>236</v>
       </c>
       <c r="B164" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C164" t="s">
-        <v>53</v>
+        <v>240</v>
       </c>
       <c r="D164" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="E164" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="F164">
         <v>0.09</v>
@@ -4553,19 +4553,19 @@
         <v>236</v>
       </c>
       <c r="B165" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C165" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D165" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="E165" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F165">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -4573,19 +4573,19 @@
         <v>236</v>
       </c>
       <c r="B166" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="C166" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="D166" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E166" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F166">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -4593,19 +4593,19 @@
         <v>236</v>
       </c>
       <c r="B167" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="C167" t="s">
-        <v>267</v>
+        <v>65</v>
       </c>
       <c r="D167" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E167" t="s">
         <v>108</v>
       </c>
       <c r="F167">
-        <v>7.0000000000000007E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -4613,19 +4613,19 @@
         <v>236</v>
       </c>
       <c r="B168" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C168" t="s">
         <v>65</v>
       </c>
       <c r="D168" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="E168" t="s">
         <v>108</v>
       </c>
       <c r="F168">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -4633,19 +4633,19 @@
         <v>236</v>
       </c>
       <c r="B169" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C169" t="s">
         <v>65</v>
       </c>
       <c r="D169" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="E169" t="s">
         <v>108</v>
       </c>
       <c r="F169">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -4653,19 +4653,19 @@
         <v>236</v>
       </c>
       <c r="B170" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C170" t="s">
         <v>65</v>
       </c>
       <c r="D170" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E170" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F170">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -4673,19 +4673,19 @@
         <v>236</v>
       </c>
       <c r="B171" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C171" t="s">
         <v>65</v>
       </c>
       <c r="D171" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E171" t="s">
         <v>104</v>
       </c>
       <c r="F171">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -4693,38 +4693,18 @@
         <v>236</v>
       </c>
       <c r="B172" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C172" t="s">
         <v>65</v>
       </c>
       <c r="D172" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E172" t="s">
         <v>104</v>
       </c>
       <c r="F172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
-        <v>236</v>
-      </c>
-      <c r="B173" t="s">
-        <v>248</v>
-      </c>
-      <c r="C173" t="s">
-        <v>65</v>
-      </c>
-      <c r="D173" t="s">
-        <v>122</v>
-      </c>
-      <c r="E173" t="s">
-        <v>104</v>
-      </c>
-      <c r="F173">
         <v>0</v>
       </c>
     </row>
@@ -4738,8 +4718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F18B4A-CD5C-4B9F-ADEF-B0399A504A71}">
   <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/dashboard/server/resources/counterparty_targets_2026.xlsx
+++ b/dashboard/server/resources/counterparty_targets_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\B2B\data_analysis_ai\dashboard\server\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933EA44C-CFBC-419E-AD4B-1802BE962206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD616E82-12B8-4210-9A29-2479FC6E9571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BF30D8BD-E8FB-4CB0-B3F0-05A8332F606C}"/>
+    <workbookView xWindow="22932" yWindow="-72" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BF30D8BD-E8FB-4CB0-B3F0-05A8332F606C}"/>
   </bookViews>
   <sheets>
     <sheet name="26 출강 타겟" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="274">
   <si>
     <t>티어</t>
   </si>
@@ -409,9 +409,6 @@
     <t>김윤지</t>
   </si>
   <si>
-    <t>YTN</t>
-  </si>
-  <si>
     <t>손승완</t>
   </si>
   <si>
@@ -526,9 +523,6 @@
     <t>현대글로비스</t>
   </si>
   <si>
-    <t>KAI</t>
-  </si>
-  <si>
     <t>메타넷</t>
   </si>
   <si>
@@ -583,9 +577,6 @@
     <t>에스원</t>
   </si>
   <si>
-    <t>앰코테크놀로지아</t>
-  </si>
-  <si>
     <t>네이버커넥트</t>
   </si>
   <si>
@@ -646,9 +637,6 @@
     <t>한화인재경영원</t>
   </si>
   <si>
-    <t>BGF리테일</t>
-  </si>
-  <si>
     <t>인프라운영팀</t>
   </si>
   <si>
@@ -769,16 +757,10 @@
     <t>HR LEADER CLASS</t>
   </si>
   <si>
-    <t>LG경영연구원</t>
-  </si>
-  <si>
     <t>디어포스</t>
   </si>
   <si>
     <t>한섬</t>
-  </si>
-  <si>
-    <t>창신아이앤씨</t>
   </si>
   <si>
     <t>경농</t>
@@ -795,10 +777,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>삼성금융연수원 / 삼성금융연수원 (원소속 삼성화재)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인사지원담당</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -856,7 +834,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LG경영연구원</t>
+    <t>비지에프리테일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국항공우주산업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘지경영연구원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘지사이언스파크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와이티엔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사총무실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경영지원부문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성금융연수원 (원소속 삼성화재)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경영지원실</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경영지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창신아이엔씨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앰코테크놀로지코리아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스케이엠앤서비스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1252,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF9C648-897F-4933-AE23-AECAF1223738}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I130" sqref="I130"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1396,7 +1422,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -1496,7 +1522,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -1796,7 +1822,7 @@
         <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D27" t="s">
         <v>68</v>
@@ -1816,7 +1842,7 @@
         <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D28" t="s">
         <v>39</v>
@@ -1836,7 +1862,7 @@
         <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="D29" t="s">
         <v>39</v>
@@ -1976,7 +2002,7 @@
         <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D36" t="s">
         <v>97</v>
@@ -1996,7 +2022,7 @@
         <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D37" t="s">
         <v>99</v>
@@ -2016,7 +2042,7 @@
         <v>27</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>29</v>
@@ -2033,10 +2059,10 @@
         <v>40</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>14</v>
@@ -2053,10 +2079,10 @@
         <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>39</v>
@@ -2333,13 +2359,13 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
+        <v>265</v>
+      </c>
+      <c r="C54" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" t="s">
         <v>123</v>
-      </c>
-      <c r="C54" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" t="s">
-        <v>124</v>
       </c>
       <c r="E54" t="s">
         <v>104</v>
@@ -2353,7 +2379,7 @@
         <v>20</v>
       </c>
       <c r="B55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C55" t="s">
         <v>65</v>
@@ -2373,13 +2399,13 @@
         <v>20</v>
       </c>
       <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" t="s">
         <v>126</v>
-      </c>
-      <c r="C56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" t="s">
-        <v>127</v>
       </c>
       <c r="E56" t="s">
         <v>104</v>
@@ -2393,7 +2419,7 @@
         <v>20</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s">
         <v>65</v>
@@ -2433,13 +2459,13 @@
         <v>20</v>
       </c>
       <c r="B59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59" t="s">
         <v>129</v>
-      </c>
-      <c r="C59" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" t="s">
-        <v>130</v>
       </c>
       <c r="E59" t="s">
         <v>108</v>
@@ -2453,13 +2479,13 @@
         <v>20</v>
       </c>
       <c r="B60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" t="s">
         <v>131</v>
-      </c>
-      <c r="C60" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" t="s">
-        <v>132</v>
       </c>
       <c r="E60" t="s">
         <v>108</v>
@@ -2473,13 +2499,13 @@
         <v>20</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C61" t="s">
         <v>65</v>
       </c>
       <c r="D61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E61" t="s">
         <v>108</v>
@@ -2493,13 +2519,13 @@
         <v>20</v>
       </c>
       <c r="B62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" t="s">
         <v>134</v>
       </c>
-      <c r="C62" t="s">
-        <v>135</v>
-      </c>
       <c r="D62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E62" t="s">
         <v>108</v>
@@ -2513,13 +2539,13 @@
         <v>20</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
         <v>65</v>
       </c>
       <c r="D63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E63" t="s">
         <v>108</v>
@@ -2533,13 +2559,13 @@
         <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C64" t="s">
         <v>65</v>
       </c>
       <c r="D64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E64" t="s">
         <v>108</v>
@@ -2573,13 +2599,13 @@
         <v>20</v>
       </c>
       <c r="B66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" t="s">
         <v>136</v>
-      </c>
-      <c r="C66" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66" t="s">
-        <v>137</v>
       </c>
       <c r="E66" t="s">
         <v>108</v>
@@ -2593,16 +2619,16 @@
         <v>40</v>
       </c>
       <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" t="s">
         <v>138</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>139</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>140</v>
-      </c>
-      <c r="E67" t="s">
-        <v>141</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2613,16 +2639,16 @@
         <v>40</v>
       </c>
       <c r="B68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D68" t="s">
+        <v>139</v>
+      </c>
+      <c r="E68" t="s">
         <v>140</v>
-      </c>
-      <c r="E68" t="s">
-        <v>141</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2633,10 +2659,10 @@
         <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C69" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D69" t="s">
         <v>103</v>
@@ -2653,16 +2679,16 @@
         <v>40</v>
       </c>
       <c r="B70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" t="s">
         <v>144</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>145</v>
       </c>
-      <c r="D70" t="s">
-        <v>146</v>
-      </c>
       <c r="E70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2673,16 +2699,16 @@
         <v>40</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2693,13 +2719,13 @@
         <v>40</v>
       </c>
       <c r="B72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72" t="s">
+        <v>258</v>
+      </c>
+      <c r="D72" t="s">
         <v>148</v>
-      </c>
-      <c r="C72" t="s">
-        <v>265</v>
-      </c>
-      <c r="D72" t="s">
-        <v>149</v>
       </c>
       <c r="E72" t="s">
         <v>104</v>
@@ -2713,13 +2739,13 @@
         <v>40</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s">
         <v>31</v>
       </c>
       <c r="D73" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E73" t="s">
         <v>104</v>
@@ -2733,16 +2759,16 @@
         <v>40</v>
       </c>
       <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" t="s">
         <v>150</v>
       </c>
-      <c r="C74" t="s">
-        <v>147</v>
-      </c>
-      <c r="D74" t="s">
-        <v>151</v>
-      </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F74">
         <v>0.11</v>
@@ -2753,16 +2779,16 @@
         <v>40</v>
       </c>
       <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="s">
         <v>152</v>
       </c>
-      <c r="C75" t="s">
-        <v>153</v>
-      </c>
       <c r="D75" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2773,16 +2799,16 @@
         <v>40</v>
       </c>
       <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="s">
         <v>154</v>
       </c>
-      <c r="C76" t="s">
-        <v>155</v>
-      </c>
       <c r="D76" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E76" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F76">
         <v>1.5</v>
@@ -2793,13 +2819,13 @@
         <v>40</v>
       </c>
       <c r="B77" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C77" t="s">
         <v>65</v>
       </c>
       <c r="D77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E77" t="s">
         <v>108</v>
@@ -2813,13 +2839,13 @@
         <v>40</v>
       </c>
       <c r="B78" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C78" t="s">
         <v>65</v>
       </c>
       <c r="D78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E78" t="s">
         <v>108</v>
@@ -2833,13 +2859,13 @@
         <v>40</v>
       </c>
       <c r="B79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" t="s">
+        <v>269</v>
+      </c>
+      <c r="D79" t="s">
         <v>158</v>
-      </c>
-      <c r="C79" t="s">
-        <v>65</v>
-      </c>
-      <c r="D79" t="s">
-        <v>159</v>
       </c>
       <c r="E79" t="s">
         <v>108</v>
@@ -2853,13 +2879,13 @@
         <v>40</v>
       </c>
       <c r="B80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C80" t="s">
         <v>65</v>
       </c>
       <c r="D80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E80" t="s">
         <v>108</v>
@@ -2873,13 +2899,13 @@
         <v>40</v>
       </c>
       <c r="B81" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C81" t="s">
         <v>65</v>
       </c>
       <c r="D81" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E81" t="s">
         <v>108</v>
@@ -2893,13 +2919,13 @@
         <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
       <c r="C82" t="s">
         <v>65</v>
       </c>
       <c r="D82" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E82" t="s">
         <v>108</v>
@@ -2913,7 +2939,7 @@
         <v>40</v>
       </c>
       <c r="B83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C83" t="s">
         <v>65</v>
@@ -2933,13 +2959,13 @@
         <v>40</v>
       </c>
       <c r="B84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C84" t="s">
         <v>65</v>
       </c>
       <c r="D84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E84" t="s">
         <v>104</v>
@@ -2953,13 +2979,13 @@
         <v>40</v>
       </c>
       <c r="B85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C85" t="s">
         <v>65</v>
       </c>
       <c r="D85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E85" t="s">
         <v>104</v>
@@ -2973,13 +2999,13 @@
         <v>40</v>
       </c>
       <c r="B86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C86" t="s">
         <v>65</v>
       </c>
       <c r="D86" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E86" t="s">
         <v>104</v>
@@ -2993,13 +3019,13 @@
         <v>40</v>
       </c>
       <c r="B87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C87" t="s">
         <v>65</v>
       </c>
       <c r="D87" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E87" t="s">
         <v>104</v>
@@ -3013,7 +3039,7 @@
         <v>40</v>
       </c>
       <c r="B88" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C88" t="s">
         <v>65</v>
@@ -3039,10 +3065,10 @@
         <v>31</v>
       </c>
       <c r="D89" t="s">
+        <v>139</v>
+      </c>
+      <c r="E89" t="s">
         <v>140</v>
-      </c>
-      <c r="E89" t="s">
-        <v>141</v>
       </c>
       <c r="F89">
         <v>0.5</v>
@@ -3053,13 +3079,13 @@
         <v>40</v>
       </c>
       <c r="B90" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C90" t="s">
         <v>65</v>
       </c>
       <c r="D90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E90" t="s">
         <v>108</v>
@@ -3073,7 +3099,7 @@
         <v>40</v>
       </c>
       <c r="B91" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C91" t="s">
         <v>65</v>
@@ -3093,13 +3119,13 @@
         <v>40</v>
       </c>
       <c r="B92" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C92" t="s">
         <v>65</v>
       </c>
       <c r="D92" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E92" t="s">
         <v>104</v>
@@ -3119,10 +3145,10 @@
         <v>28</v>
       </c>
       <c r="D93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E93" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F93">
         <v>0.88</v>
@@ -3136,10 +3162,10 @@
         <v>63</v>
       </c>
       <c r="C94" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E94" t="s">
         <v>104</v>
@@ -3159,10 +3185,10 @@
         <v>64</v>
       </c>
       <c r="D95" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E95" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F95">
         <v>0.03</v>
@@ -3176,13 +3202,13 @@
         <v>63</v>
       </c>
       <c r="C96" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D96" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E96" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F96">
         <v>0.02</v>
@@ -3196,13 +3222,13 @@
         <v>63</v>
       </c>
       <c r="C97" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D97" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E97" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F97">
         <v>0.5</v>
@@ -3213,13 +3239,13 @@
         <v>62</v>
       </c>
       <c r="B98" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C98" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D98" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E98" t="s">
         <v>108</v>
@@ -3233,13 +3259,13 @@
         <v>62</v>
       </c>
       <c r="B99" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C99" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D99" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E99" t="s">
         <v>108</v>
@@ -3256,7 +3282,7 @@
         <v>78</v>
       </c>
       <c r="C100" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D100" t="s">
         <v>122</v>
@@ -3279,7 +3305,7 @@
         <v>65</v>
       </c>
       <c r="D101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E101" t="s">
         <v>108</v>
@@ -3293,13 +3319,13 @@
         <v>62</v>
       </c>
       <c r="B102" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C102" t="s">
         <v>65</v>
       </c>
       <c r="D102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E102" t="s">
         <v>108</v>
@@ -3313,13 +3339,13 @@
         <v>62</v>
       </c>
       <c r="B103" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C103" t="s">
         <v>65</v>
       </c>
       <c r="D103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E103" t="s">
         <v>108</v>
@@ -3333,7 +3359,7 @@
         <v>62</v>
       </c>
       <c r="B104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C104" t="s">
         <v>65</v>
@@ -3353,13 +3379,13 @@
         <v>62</v>
       </c>
       <c r="B105" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C105" t="s">
         <v>65</v>
       </c>
       <c r="D105" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E105" t="s">
         <v>108</v>
@@ -3373,13 +3399,13 @@
         <v>62</v>
       </c>
       <c r="B106" t="s">
-        <v>181</v>
+        <v>272</v>
       </c>
       <c r="C106" t="s">
         <v>65</v>
       </c>
       <c r="D106" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E106" t="s">
         <v>104</v>
@@ -3393,13 +3419,13 @@
         <v>62</v>
       </c>
       <c r="B107" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C107" t="s">
         <v>65</v>
       </c>
       <c r="D107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E107" t="s">
         <v>104</v>
@@ -3413,7 +3439,7 @@
         <v>62</v>
       </c>
       <c r="B108" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C108" t="s">
         <v>65</v>
@@ -3439,10 +3465,10 @@
         <v>58</v>
       </c>
       <c r="D109" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E109" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3459,10 +3485,10 @@
         <v>95</v>
       </c>
       <c r="D110" t="s">
+        <v>139</v>
+      </c>
+      <c r="E110" t="s">
         <v>140</v>
-      </c>
-      <c r="E110" t="s">
-        <v>141</v>
       </c>
       <c r="F110">
         <v>0.5</v>
@@ -3473,13 +3499,13 @@
         <v>62</v>
       </c>
       <c r="B111" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C111" t="s">
         <v>65</v>
       </c>
       <c r="D111" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E111" t="s">
         <v>108</v>
@@ -3493,16 +3519,16 @@
         <v>62</v>
       </c>
       <c r="B112" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C112" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D112" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E112" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F112">
         <v>0.6</v>
@@ -3513,16 +3539,16 @@
         <v>62</v>
       </c>
       <c r="B113" t="s">
-        <v>187</v>
+        <v>264</v>
       </c>
       <c r="C113" t="s">
         <v>65</v>
       </c>
       <c r="D113" t="s">
+        <v>139</v>
+      </c>
+      <c r="E113" t="s">
         <v>140</v>
-      </c>
-      <c r="E113" t="s">
-        <v>141</v>
       </c>
       <c r="F113">
         <v>0.5</v>
@@ -3533,13 +3559,13 @@
         <v>83</v>
       </c>
       <c r="B114" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C114" t="s">
         <v>65</v>
       </c>
       <c r="D114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E114" t="s">
         <v>108</v>
@@ -3559,7 +3585,7 @@
         <v>87</v>
       </c>
       <c r="D115" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E115" t="s">
         <v>104</v>
@@ -3579,10 +3605,10 @@
         <v>89</v>
       </c>
       <c r="D116" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E116" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F116">
         <v>0.5</v>
@@ -3593,7 +3619,7 @@
         <v>83</v>
       </c>
       <c r="B117" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C117" t="s">
         <v>113</v>
@@ -3613,13 +3639,13 @@
         <v>83</v>
       </c>
       <c r="B118" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C118" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D118" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E118" t="s">
         <v>108</v>
@@ -3633,13 +3659,13 @@
         <v>83</v>
       </c>
       <c r="B119" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C119" t="s">
         <v>65</v>
       </c>
       <c r="D119" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E119" t="s">
         <v>108</v>
@@ -3653,13 +3679,13 @@
         <v>83</v>
       </c>
       <c r="B120" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C120" t="s">
         <v>65</v>
       </c>
       <c r="D120" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E120" t="s">
         <v>108</v>
@@ -3673,13 +3699,13 @@
         <v>83</v>
       </c>
       <c r="B121" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C121" t="s">
         <v>65</v>
       </c>
       <c r="D121" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E121" t="s">
         <v>108</v>
@@ -3693,7 +3719,7 @@
         <v>83</v>
       </c>
       <c r="B122" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C122" t="s">
         <v>65</v>
@@ -3713,7 +3739,7 @@
         <v>83</v>
       </c>
       <c r="B123" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C123" t="s">
         <v>65</v>
@@ -3733,13 +3759,13 @@
         <v>83</v>
       </c>
       <c r="B124" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C124" t="s">
-        <v>65</v>
+        <v>266</v>
       </c>
       <c r="D124" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E124" t="s">
         <v>104</v>
@@ -3753,7 +3779,7 @@
         <v>83</v>
       </c>
       <c r="B125" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C125" t="s">
         <v>65</v>
@@ -3773,13 +3799,13 @@
         <v>83</v>
       </c>
       <c r="B126" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C126" t="s">
         <v>65</v>
       </c>
       <c r="D126" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E126" t="s">
         <v>104</v>
@@ -3793,7 +3819,7 @@
         <v>83</v>
       </c>
       <c r="B127" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C127" t="s">
         <v>65</v>
@@ -3813,7 +3839,7 @@
         <v>83</v>
       </c>
       <c r="B128" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C128" t="s">
         <v>65</v>
@@ -3833,13 +3859,13 @@
         <v>83</v>
       </c>
       <c r="B129" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C129" t="s">
         <v>65</v>
       </c>
       <c r="D129" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E129" t="s">
         <v>104</v>
@@ -3853,13 +3879,13 @@
         <v>83</v>
       </c>
       <c r="B130" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C130" t="s">
         <v>65</v>
       </c>
       <c r="D130" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E130" t="s">
         <v>108</v>
@@ -3873,16 +3899,16 @@
         <v>83</v>
       </c>
       <c r="B131" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="C131" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D131" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E131" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F131">
         <v>0.2</v>
@@ -3893,16 +3919,16 @@
         <v>83</v>
       </c>
       <c r="B132" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C132" t="s">
         <v>65</v>
       </c>
       <c r="D132" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E132" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3913,13 +3939,13 @@
         <v>83</v>
       </c>
       <c r="B133" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C133" t="s">
         <v>65</v>
       </c>
       <c r="D133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E133" t="s">
         <v>108</v>
@@ -3930,10 +3956,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B134" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C134" t="s">
         <v>89</v>
@@ -3950,10 +3976,10 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B135" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C135" t="s">
         <v>35</v>
@@ -3970,13 +3996,13 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B136" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C136" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D136" t="s">
         <v>80</v>
@@ -3990,16 +4016,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B137" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C137" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D137" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E137" t="s">
         <v>104</v>
@@ -4010,13 +4036,13 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B138" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C138" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D138" t="s">
         <v>107</v>
@@ -4030,16 +4056,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B139" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C139" t="s">
         <v>65</v>
       </c>
       <c r="D139" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E139" t="s">
         <v>104</v>
@@ -4050,19 +4076,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B140" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C140" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D140" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E140" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -4070,16 +4096,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B141" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C141" t="s">
         <v>65</v>
       </c>
       <c r="D141" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E141" t="s">
         <v>108</v>
@@ -4090,16 +4116,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B142" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C142" t="s">
-        <v>65</v>
+        <v>270</v>
       </c>
       <c r="D142" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E142" t="s">
         <v>108</v>
@@ -4110,10 +4136,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B143" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C143" t="s">
         <v>65</v>
@@ -4130,16 +4156,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B144" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C144" t="s">
         <v>65</v>
       </c>
       <c r="D144" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E144" t="s">
         <v>104</v>
@@ -4150,16 +4176,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B145" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C145" t="s">
-        <v>65</v>
+        <v>267</v>
       </c>
       <c r="D145" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E145" t="s">
         <v>104</v>
@@ -4170,16 +4196,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
+        <v>202</v>
+      </c>
+      <c r="B146" t="s">
         <v>206</v>
       </c>
-      <c r="B146" t="s">
-        <v>210</v>
-      </c>
       <c r="C146" t="s">
         <v>65</v>
       </c>
       <c r="D146" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E146" t="s">
         <v>104</v>
@@ -4190,16 +4216,16 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B147" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C147" t="s">
         <v>65</v>
       </c>
       <c r="D147" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E147" t="s">
         <v>104</v>
@@ -4210,16 +4236,16 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B148" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C148" t="s">
         <v>65</v>
       </c>
       <c r="D148" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E148" t="s">
         <v>104</v>
@@ -4230,10 +4256,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B149" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C149" t="s">
         <v>65</v>
@@ -4250,16 +4276,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B150" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C150" t="s">
         <v>65</v>
       </c>
       <c r="D150" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E150" t="s">
         <v>104</v>
@@ -4270,10 +4296,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B151" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C151" t="s">
         <v>65</v>
@@ -4290,10 +4316,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B152" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C152" t="s">
         <v>65</v>
@@ -4310,16 +4336,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B153" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C153" t="s">
         <v>65</v>
       </c>
       <c r="D153" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E153" t="s">
         <v>104</v>
@@ -4330,16 +4356,16 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B154" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C154" t="s">
         <v>65</v>
       </c>
       <c r="D154" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E154" t="s">
         <v>104</v>
@@ -4350,16 +4376,16 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B155" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C155" t="s">
         <v>65</v>
       </c>
       <c r="D155" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E155" t="s">
         <v>104</v>
@@ -4370,16 +4396,16 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B156" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C156" t="s">
         <v>65</v>
       </c>
       <c r="D156" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E156" t="s">
         <v>104</v>
@@ -4390,10 +4416,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B157" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C157" t="s">
         <v>65</v>
@@ -4410,10 +4436,10 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B158" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C158" t="s">
         <v>65</v>
@@ -4430,16 +4456,16 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B159" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C159" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D159" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E159" t="s">
         <v>108</v>
@@ -4450,19 +4476,19 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B160" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C160" t="s">
         <v>65</v>
       </c>
       <c r="D160" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E160" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -4470,19 +4496,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B161" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C161" t="s">
         <v>65</v>
       </c>
       <c r="D161" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E161" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4490,10 +4516,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B162" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C162" t="s">
         <v>65</v>
@@ -4510,10 +4536,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B163" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C163" t="s">
         <v>53</v>
@@ -4530,16 +4556,16 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
+        <v>232</v>
+      </c>
+      <c r="B164" t="s">
+        <v>235</v>
+      </c>
+      <c r="C164" t="s">
         <v>236</v>
       </c>
-      <c r="B164" t="s">
-        <v>239</v>
-      </c>
-      <c r="C164" t="s">
-        <v>240</v>
-      </c>
       <c r="D164" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E164" t="s">
         <v>108</v>
@@ -4550,13 +4576,13 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B165" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C165" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D165" t="s">
         <v>122</v>
@@ -4570,16 +4596,16 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B166" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C166" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D166" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E166" t="s">
         <v>108</v>
@@ -4590,16 +4616,16 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B167" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C167" t="s">
         <v>65</v>
       </c>
       <c r="D167" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E167" t="s">
         <v>108</v>
@@ -4610,16 +4636,16 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B168" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C168" t="s">
         <v>65</v>
       </c>
       <c r="D168" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E168" t="s">
         <v>108</v>
@@ -4630,16 +4656,16 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B169" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C169" t="s">
         <v>65</v>
       </c>
       <c r="D169" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E169" t="s">
         <v>108</v>
@@ -4650,10 +4676,10 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B170" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="C170" t="s">
         <v>65</v>
@@ -4670,10 +4696,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B171" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C171" t="s">
         <v>65</v>
@@ -4690,10 +4716,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B172" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C172" t="s">
         <v>65</v>
@@ -4718,8 +4744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F18B4A-CD5C-4B9F-ADEF-B0399A504A71}">
   <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5017,13 +5043,13 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
         <v>123</v>
-      </c>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>124</v>
       </c>
       <c r="E15" t="s">
         <v>104</v>
@@ -5037,7 +5063,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
         <v>65</v>
@@ -5057,13 +5083,13 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
         <v>126</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" t="s">
-        <v>127</v>
       </c>
       <c r="E17" t="s">
         <v>104</v>
@@ -5077,7 +5103,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
         <v>65</v>
@@ -5117,13 +5143,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
         <v>129</v>
-      </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>130</v>
       </c>
       <c r="E20" t="s">
         <v>108</v>
@@ -5137,13 +5163,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
         <v>131</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" t="s">
-        <v>132</v>
       </c>
       <c r="E21" t="s">
         <v>108</v>
@@ -5157,13 +5183,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" t="s">
         <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E22" t="s">
         <v>108</v>
@@ -5177,13 +5203,13 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" t="s">
         <v>134</v>
       </c>
-      <c r="C23" t="s">
-        <v>135</v>
-      </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
         <v>108</v>
@@ -5197,13 +5223,13 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C24" t="s">
         <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E24" t="s">
         <v>108</v>
@@ -5237,13 +5263,13 @@
         <v>20</v>
       </c>
       <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
         <v>136</v>
-      </c>
-      <c r="C26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" t="s">
-        <v>137</v>
       </c>
       <c r="E26" t="s">
         <v>108</v>
@@ -5257,16 +5283,16 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" t="s">
         <v>138</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>139</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>140</v>
-      </c>
-      <c r="E27" t="s">
-        <v>141</v>
       </c>
       <c r="F27">
         <v>1.31</v>
@@ -5277,16 +5303,16 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C28" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" t="s">
         <v>140</v>
-      </c>
-      <c r="E28" t="s">
-        <v>141</v>
       </c>
       <c r="F28">
         <v>0.4</v>
@@ -5297,10 +5323,10 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C29" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D29" t="s">
         <v>103</v>
@@ -5317,16 +5343,16 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" t="s">
         <v>144</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>145</v>
       </c>
-      <c r="D30" t="s">
-        <v>146</v>
-      </c>
       <c r="E30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F30">
         <v>1.6</v>
@@ -5337,16 +5363,16 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -5357,13 +5383,13 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" t="s">
+        <v>258</v>
+      </c>
+      <c r="D32" t="s">
         <v>148</v>
-      </c>
-      <c r="C32" t="s">
-        <v>265</v>
-      </c>
-      <c r="D32" t="s">
-        <v>149</v>
       </c>
       <c r="E32" t="s">
         <v>104</v>
@@ -5377,13 +5403,13 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E33" t="s">
         <v>104</v>
@@ -5397,16 +5423,16 @@
         <v>40</v>
       </c>
       <c r="B34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" t="s">
         <v>150</v>
       </c>
-      <c r="C34" t="s">
-        <v>147</v>
-      </c>
-      <c r="D34" t="s">
-        <v>151</v>
-      </c>
       <c r="E34" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F34">
         <v>1.1599999999999999</v>
@@ -5417,16 +5443,16 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" t="s">
         <v>152</v>
       </c>
-      <c r="C35" t="s">
-        <v>153</v>
-      </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F35">
         <v>1.18</v>
@@ -5437,16 +5463,16 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" t="s">
         <v>154</v>
       </c>
-      <c r="C36" t="s">
-        <v>155</v>
-      </c>
       <c r="D36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -5457,13 +5483,13 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C37" t="s">
         <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E37" t="s">
         <v>108</v>
@@ -5477,13 +5503,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C38" t="s">
         <v>65</v>
       </c>
       <c r="D38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E38" t="s">
         <v>108</v>
@@ -5497,13 +5523,13 @@
         <v>40</v>
       </c>
       <c r="B39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" t="s">
         <v>158</v>
-      </c>
-      <c r="C39" t="s">
-        <v>65</v>
-      </c>
-      <c r="D39" t="s">
-        <v>159</v>
       </c>
       <c r="E39" t="s">
         <v>108</v>
@@ -5517,13 +5543,13 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C40" t="s">
         <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E40" t="s">
         <v>108</v>
@@ -5537,13 +5563,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C41" t="s">
         <v>65</v>
       </c>
       <c r="D41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E41" t="s">
         <v>108</v>
@@ -5557,13 +5583,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>162</v>
+        <v>262</v>
       </c>
       <c r="C42" t="s">
         <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E42" t="s">
         <v>108</v>
@@ -5577,7 +5603,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
         <v>65</v>
@@ -5597,13 +5623,13 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C44" t="s">
         <v>65</v>
       </c>
       <c r="D44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E44" t="s">
         <v>104</v>
@@ -5617,13 +5643,13 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C45" t="s">
         <v>65</v>
       </c>
       <c r="D45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E45" t="s">
         <v>104</v>
@@ -5637,13 +5663,13 @@
         <v>40</v>
       </c>
       <c r="B46" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C46" t="s">
         <v>65</v>
       </c>
       <c r="D46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E46" t="s">
         <v>104</v>
@@ -5657,13 +5683,13 @@
         <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C47" t="s">
         <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E47" t="s">
         <v>104</v>
@@ -5677,7 +5703,7 @@
         <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C48" t="s">
         <v>65</v>
@@ -5703,10 +5729,10 @@
         <v>31</v>
       </c>
       <c r="D49" t="s">
+        <v>139</v>
+      </c>
+      <c r="E49" t="s">
         <v>140</v>
-      </c>
-      <c r="E49" t="s">
-        <v>141</v>
       </c>
       <c r="F49">
         <v>0.5</v>
@@ -5717,13 +5743,13 @@
         <v>40</v>
       </c>
       <c r="B50" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C50" t="s">
         <v>65</v>
       </c>
       <c r="D50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E50" t="s">
         <v>108</v>
@@ -5737,7 +5763,7 @@
         <v>40</v>
       </c>
       <c r="B51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C51" t="s">
         <v>65</v>
@@ -5757,13 +5783,13 @@
         <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C52" t="s">
         <v>65</v>
       </c>
       <c r="D52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E52" t="s">
         <v>104</v>
@@ -5783,10 +5809,10 @@
         <v>28</v>
       </c>
       <c r="D53" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E53" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -5800,10 +5826,10 @@
         <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D54" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E54" t="s">
         <v>104</v>
@@ -5823,10 +5849,10 @@
         <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E55" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -5840,13 +5866,13 @@
         <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -5860,13 +5886,13 @@
         <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -5877,13 +5903,13 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C58" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E58" t="s">
         <v>108</v>
@@ -5897,13 +5923,13 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E59" t="s">
         <v>108</v>
@@ -5920,7 +5946,7 @@
         <v>78</v>
       </c>
       <c r="C60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D60" t="s">
         <v>122</v>
@@ -5963,7 +5989,7 @@
         <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E62" t="s">
         <v>108</v>
@@ -5977,13 +6003,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C63" t="s">
         <v>65</v>
       </c>
       <c r="D63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E63" t="s">
         <v>108</v>
@@ -5997,13 +6023,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C64" t="s">
         <v>65</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E64" t="s">
         <v>108</v>
@@ -6017,7 +6043,7 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" t="s">
         <v>65</v>
@@ -6037,13 +6063,13 @@
         <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C66" t="s">
         <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E66" t="s">
         <v>108</v>
@@ -6057,13 +6083,13 @@
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>181</v>
+        <v>272</v>
       </c>
       <c r="C67" t="s">
         <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E67" t="s">
         <v>104</v>
@@ -6077,13 +6103,13 @@
         <v>62</v>
       </c>
       <c r="B68" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C68" t="s">
         <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E68" t="s">
         <v>104</v>
@@ -6097,7 +6123,7 @@
         <v>62</v>
       </c>
       <c r="B69" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C69" t="s">
         <v>65</v>
@@ -6123,10 +6149,10 @@
         <v>58</v>
       </c>
       <c r="D70" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F70">
         <v>0.5</v>
@@ -6143,10 +6169,10 @@
         <v>95</v>
       </c>
       <c r="D71" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" t="s">
         <v>140</v>
-      </c>
-      <c r="E71" t="s">
-        <v>141</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -6157,13 +6183,13 @@
         <v>62</v>
       </c>
       <c r="B72" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C72" t="s">
         <v>65</v>
       </c>
       <c r="D72" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E72" t="s">
         <v>108</v>
@@ -6177,16 +6203,16 @@
         <v>62</v>
       </c>
       <c r="B73" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C73" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -6197,16 +6223,16 @@
         <v>62</v>
       </c>
       <c r="B74" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C74" t="s">
         <v>65</v>
       </c>
       <c r="D74" t="s">
+        <v>139</v>
+      </c>
+      <c r="E74" t="s">
         <v>140</v>
-      </c>
-      <c r="E74" t="s">
-        <v>141</v>
       </c>
       <c r="F74">
         <v>0.4</v>
@@ -6217,13 +6243,13 @@
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C75" t="s">
         <v>65</v>
       </c>
       <c r="D75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E75" t="s">
         <v>108</v>
@@ -6243,7 +6269,7 @@
         <v>87</v>
       </c>
       <c r="D76" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E76" t="s">
         <v>104</v>
@@ -6263,10 +6289,10 @@
         <v>89</v>
       </c>
       <c r="D77" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -6277,7 +6303,7 @@
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C78" t="s">
         <v>113</v>
@@ -6297,13 +6323,13 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C79" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E79" t="s">
         <v>108</v>
@@ -6317,13 +6343,13 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C80" t="s">
         <v>65</v>
       </c>
       <c r="D80" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E80" t="s">
         <v>108</v>
@@ -6337,13 +6363,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C81" t="s">
         <v>65</v>
       </c>
       <c r="D81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E81" t="s">
         <v>108</v>
@@ -6357,13 +6383,13 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C82" t="s">
         <v>65</v>
       </c>
       <c r="D82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E82" t="s">
         <v>108</v>
@@ -6377,7 +6403,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C83" t="s">
         <v>65</v>
@@ -6397,7 +6423,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C84" t="s">
         <v>65</v>
@@ -6417,13 +6443,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C85" t="s">
         <v>65</v>
       </c>
       <c r="D85" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E85" t="s">
         <v>104</v>
@@ -6437,7 +6463,7 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C86" t="s">
         <v>65</v>
@@ -6457,13 +6483,13 @@
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C87" t="s">
         <v>65</v>
       </c>
       <c r="D87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E87" t="s">
         <v>104</v>
@@ -6477,7 +6503,7 @@
         <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C88" t="s">
         <v>65</v>
@@ -6497,7 +6523,7 @@
         <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C89" t="s">
         <v>65</v>
@@ -6517,13 +6543,13 @@
         <v>83</v>
       </c>
       <c r="B90" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C90" t="s">
         <v>65</v>
       </c>
       <c r="D90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E90" t="s">
         <v>104</v>
@@ -6537,13 +6563,13 @@
         <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C91" t="s">
         <v>65</v>
       </c>
       <c r="D91" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E91" t="s">
         <v>108</v>
@@ -6557,16 +6583,16 @@
         <v>83</v>
       </c>
       <c r="B92" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="C92" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D92" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E92" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F92">
         <v>0.1</v>
@@ -6577,16 +6603,16 @@
         <v>83</v>
       </c>
       <c r="B93" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C93" t="s">
         <v>65</v>
       </c>
       <c r="D93" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E93" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F93">
         <v>0.3</v>
@@ -6597,13 +6623,13 @@
         <v>83</v>
       </c>
       <c r="B94" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C94" t="s">
         <v>65</v>
       </c>
       <c r="D94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E94" t="s">
         <v>108</v>
@@ -6614,10 +6640,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B95" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C95" t="s">
         <v>89</v>
@@ -6634,10 +6660,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B96" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C96" t="s">
         <v>35</v>
@@ -6654,13 +6680,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B97" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C97" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D97" t="s">
         <v>80</v>
@@ -6674,16 +6700,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98" t="s">
         <v>206</v>
       </c>
-      <c r="B98" t="s">
-        <v>210</v>
-      </c>
       <c r="C98" t="s">
         <v>65</v>
       </c>
       <c r="D98" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E98" t="s">
         <v>104</v>
@@ -6694,16 +6720,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B99" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C99" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D99" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E99" t="s">
         <v>104</v>
@@ -6714,13 +6740,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B100" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C100" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D100" t="s">
         <v>107</v>
@@ -6734,16 +6760,16 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B101" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C101" t="s">
         <v>65</v>
       </c>
       <c r="D101" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E101" t="s">
         <v>104</v>
@@ -6754,19 +6780,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B102" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C102" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E102" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F102">
         <v>0.12</v>
@@ -6774,16 +6800,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B103" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C103" t="s">
         <v>65</v>
       </c>
       <c r="D103" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E103" t="s">
         <v>108</v>
@@ -6794,16 +6820,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B104" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C104" t="s">
-        <v>65</v>
+        <v>270</v>
       </c>
       <c r="D104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E104" t="s">
         <v>108</v>
@@ -6814,10 +6840,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B105" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C105" t="s">
         <v>65</v>
@@ -6834,16 +6860,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B106" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C106" t="s">
         <v>65</v>
       </c>
       <c r="D106" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E106" t="s">
         <v>104</v>
@@ -6854,16 +6880,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B107" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C107" t="s">
-        <v>65</v>
+        <v>267</v>
       </c>
       <c r="D107" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E107" t="s">
         <v>104</v>
@@ -6874,16 +6900,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B108" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C108" t="s">
         <v>65</v>
       </c>
       <c r="D108" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E108" t="s">
         <v>104</v>
@@ -6894,16 +6920,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B109" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C109" t="s">
         <v>65</v>
       </c>
       <c r="D109" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E109" t="s">
         <v>104</v>
@@ -6914,10 +6940,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B110" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C110" t="s">
         <v>65</v>
@@ -6934,16 +6960,16 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B111" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C111" t="s">
         <v>65</v>
       </c>
       <c r="D111" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E111" t="s">
         <v>104</v>
@@ -6954,10 +6980,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B112" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C112" t="s">
         <v>65</v>
@@ -6974,10 +7000,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B113" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C113" t="s">
         <v>65</v>
@@ -6994,16 +7020,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B114" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C114" t="s">
         <v>65</v>
       </c>
       <c r="D114" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E114" t="s">
         <v>104</v>
@@ -7014,16 +7040,16 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B115" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C115" t="s">
         <v>65</v>
       </c>
       <c r="D115" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E115" t="s">
         <v>104</v>
@@ -7034,16 +7060,16 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B116" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C116" t="s">
         <v>65</v>
       </c>
       <c r="D116" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E116" t="s">
         <v>104</v>
@@ -7054,16 +7080,16 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B117" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C117" t="s">
         <v>65</v>
       </c>
       <c r="D117" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E117" t="s">
         <v>104</v>
@@ -7074,10 +7100,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B118" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C118" t="s">
         <v>65</v>
@@ -7094,10 +7120,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B119" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C119" t="s">
         <v>65</v>
@@ -7114,16 +7140,16 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B120" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C120" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D120" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E120" t="s">
         <v>108</v>
@@ -7134,19 +7160,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B121" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="C121" t="s">
         <v>65</v>
       </c>
       <c r="D121" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E121" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F121">
         <v>0.1</v>
@@ -7154,19 +7180,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B122" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C122" t="s">
         <v>65</v>
       </c>
       <c r="D122" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E122" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F122">
         <v>0.1</v>
@@ -7174,10 +7200,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B123" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C123" t="s">
         <v>65</v>
@@ -7194,10 +7220,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B124" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C124" t="s">
         <v>53</v>
@@ -7214,16 +7240,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
+        <v>232</v>
+      </c>
+      <c r="B125" t="s">
+        <v>235</v>
+      </c>
+      <c r="C125" t="s">
         <v>236</v>
       </c>
-      <c r="B125" t="s">
-        <v>239</v>
-      </c>
-      <c r="C125" t="s">
-        <v>240</v>
-      </c>
       <c r="D125" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E125" t="s">
         <v>108</v>
@@ -7234,13 +7260,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B126" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C126" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D126" t="s">
         <v>122</v>
@@ -7254,16 +7280,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B127" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="C127" t="s">
         <v>65</v>
       </c>
       <c r="D127" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E127" t="s">
         <v>108</v>
@@ -7274,16 +7300,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B128" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C128" t="s">
         <v>65</v>
       </c>
       <c r="D128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E128" t="s">
         <v>108</v>
@@ -7294,16 +7320,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B129" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C129" t="s">
         <v>65</v>
       </c>
       <c r="D129" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E129" t="s">
         <v>108</v>
@@ -7314,16 +7340,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B130" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C130" t="s">
         <v>65</v>
       </c>
       <c r="D130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E130" t="s">
         <v>108</v>
@@ -7334,10 +7360,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B131" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="C131" t="s">
         <v>65</v>
@@ -7354,10 +7380,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B132" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C132" t="s">
         <v>65</v>
@@ -7374,10 +7400,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B133" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C133" t="s">
         <v>65</v>
@@ -7445,13 +7471,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
         <v>126</v>
-      </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>127</v>
       </c>
       <c r="E2" t="s">
         <v>104</v>

--- a/dashboard/server/resources/counterparty_targets_2026.xlsx
+++ b/dashboard/server/resources/counterparty_targets_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\B2B\data_analysis_ai\dashboard\server\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD616E82-12B8-4210-9A29-2479FC6E9571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCF5FA0-C129-4664-AA0D-914E4E4CB200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-72" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BF30D8BD-E8FB-4CB0-B3F0-05A8332F606C}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="273">
   <si>
     <t>티어</t>
   </si>
@@ -590,9 +590,6 @@
   </si>
   <si>
     <t>HR개발팀</t>
-  </si>
-  <si>
-    <t>LG사이언스파크</t>
   </si>
   <si>
     <t>두산</t>
@@ -1278,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF9C648-897F-4933-AE23-AECAF1223738}">
   <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1422,7 +1419,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -1522,7 +1519,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -1822,7 +1819,7 @@
         <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D27" t="s">
         <v>68</v>
@@ -1842,7 +1839,7 @@
         <v>69</v>
       </c>
       <c r="C28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D28" t="s">
         <v>39</v>
@@ -1862,7 +1859,7 @@
         <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D29" t="s">
         <v>39</v>
@@ -2002,7 +1999,7 @@
         <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D36" t="s">
         <v>97</v>
@@ -2022,7 +2019,7 @@
         <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D37" t="s">
         <v>99</v>
@@ -2042,7 +2039,7 @@
         <v>27</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>29</v>
@@ -2059,10 +2056,10 @@
         <v>40</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>14</v>
@@ -2079,10 +2076,10 @@
         <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>257</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>39</v>
@@ -2359,7 +2356,7 @@
         <v>20</v>
       </c>
       <c r="B54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C54" t="s">
         <v>65</v>
@@ -2662,7 +2659,7 @@
         <v>142</v>
       </c>
       <c r="C69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D69" t="s">
         <v>103</v>
@@ -2722,7 +2719,7 @@
         <v>147</v>
       </c>
       <c r="C72" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D72" t="s">
         <v>148</v>
@@ -2862,7 +2859,7 @@
         <v>157</v>
       </c>
       <c r="C79" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D79" t="s">
         <v>158</v>
@@ -2919,7 +2916,7 @@
         <v>40</v>
       </c>
       <c r="B82" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C82" t="s">
         <v>65</v>
@@ -3242,7 +3239,7 @@
         <v>173</v>
       </c>
       <c r="C98" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D98" t="s">
         <v>136</v>
@@ -3399,7 +3396,7 @@
         <v>62</v>
       </c>
       <c r="B106" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C106" t="s">
         <v>65</v>
@@ -3539,7 +3536,7 @@
         <v>62</v>
       </c>
       <c r="B113" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C113" t="s">
         <v>65</v>
@@ -3559,7 +3556,7 @@
         <v>83</v>
       </c>
       <c r="B114" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C114" t="s">
         <v>65</v>
@@ -3619,7 +3616,7 @@
         <v>83</v>
       </c>
       <c r="B117" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C117" t="s">
         <v>113</v>
@@ -3639,10 +3636,10 @@
         <v>83</v>
       </c>
       <c r="B118" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C118" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D118" t="s">
         <v>129</v>
@@ -3659,7 +3656,7 @@
         <v>83</v>
       </c>
       <c r="B119" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C119" t="s">
         <v>65</v>
@@ -3679,7 +3676,7 @@
         <v>83</v>
       </c>
       <c r="B120" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C120" t="s">
         <v>65</v>
@@ -3699,7 +3696,7 @@
         <v>83</v>
       </c>
       <c r="B121" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C121" t="s">
         <v>65</v>
@@ -3719,7 +3716,7 @@
         <v>83</v>
       </c>
       <c r="B122" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C122" t="s">
         <v>65</v>
@@ -3739,7 +3736,7 @@
         <v>83</v>
       </c>
       <c r="B123" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C123" t="s">
         <v>65</v>
@@ -3759,10 +3756,10 @@
         <v>83</v>
       </c>
       <c r="B124" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C124" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D124" t="s">
         <v>123</v>
@@ -3779,7 +3776,7 @@
         <v>83</v>
       </c>
       <c r="B125" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C125" t="s">
         <v>65</v>
@@ -3799,7 +3796,7 @@
         <v>83</v>
       </c>
       <c r="B126" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C126" t="s">
         <v>65</v>
@@ -3819,7 +3816,7 @@
         <v>83</v>
       </c>
       <c r="B127" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C127" t="s">
         <v>65</v>
@@ -3839,7 +3836,7 @@
         <v>83</v>
       </c>
       <c r="B128" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C128" t="s">
         <v>65</v>
@@ -3859,7 +3856,7 @@
         <v>83</v>
       </c>
       <c r="B129" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C129" t="s">
         <v>65</v>
@@ -3879,7 +3876,7 @@
         <v>83</v>
       </c>
       <c r="B130" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C130" t="s">
         <v>65</v>
@@ -3899,10 +3896,10 @@
         <v>83</v>
       </c>
       <c r="B131" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C131" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D131" t="s">
         <v>150</v>
@@ -3919,7 +3916,7 @@
         <v>83</v>
       </c>
       <c r="B132" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C132" t="s">
         <v>65</v>
@@ -3939,7 +3936,7 @@
         <v>83</v>
       </c>
       <c r="B133" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C133" t="s">
         <v>65</v>
@@ -3956,10 +3953,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
+        <v>201</v>
+      </c>
+      <c r="B134" t="s">
         <v>202</v>
-      </c>
-      <c r="B134" t="s">
-        <v>203</v>
       </c>
       <c r="C134" t="s">
         <v>89</v>
@@ -3976,10 +3973,10 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B135" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C135" t="s">
         <v>35</v>
@@ -3996,13 +3993,13 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B136" t="s">
+        <v>203</v>
+      </c>
+      <c r="C136" t="s">
         <v>204</v>
-      </c>
-      <c r="C136" t="s">
-        <v>205</v>
       </c>
       <c r="D136" t="s">
         <v>80</v>
@@ -4016,13 +4013,13 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B137" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C137" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D137" t="s">
         <v>123</v>
@@ -4036,13 +4033,13 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B138" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C138" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D138" t="s">
         <v>107</v>
@@ -4056,10 +4053,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B139" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C139" t="s">
         <v>65</v>
@@ -4076,13 +4073,13 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B140" t="s">
+        <v>209</v>
+      </c>
+      <c r="C140" t="s">
         <v>210</v>
-      </c>
-      <c r="C140" t="s">
-        <v>211</v>
       </c>
       <c r="D140" t="s">
         <v>150</v>
@@ -4096,10 +4093,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B141" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C141" t="s">
         <v>65</v>
@@ -4116,13 +4113,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B142" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C142" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D142" t="s">
         <v>158</v>
@@ -4136,10 +4133,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B143" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C143" t="s">
         <v>65</v>
@@ -4156,10 +4153,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B144" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C144" t="s">
         <v>65</v>
@@ -4176,13 +4173,13 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B145" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C145" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D145" t="s">
         <v>126</v>
@@ -4196,10 +4193,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B146" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C146" t="s">
         <v>65</v>
@@ -4216,10 +4213,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B147" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C147" t="s">
         <v>65</v>
@@ -4236,10 +4233,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B148" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C148" t="s">
         <v>65</v>
@@ -4256,10 +4253,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B149" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C149" t="s">
         <v>65</v>
@@ -4276,10 +4273,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B150" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C150" t="s">
         <v>65</v>
@@ -4296,10 +4293,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B151" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C151" t="s">
         <v>65</v>
@@ -4316,10 +4313,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B152" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C152" t="s">
         <v>65</v>
@@ -4336,10 +4333,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B153" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C153" t="s">
         <v>65</v>
@@ -4356,10 +4353,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B154" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C154" t="s">
         <v>65</v>
@@ -4376,10 +4373,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B155" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C155" t="s">
         <v>65</v>
@@ -4396,10 +4393,10 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B156" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C156" t="s">
         <v>65</v>
@@ -4416,10 +4413,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B157" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C157" t="s">
         <v>65</v>
@@ -4436,10 +4433,10 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B158" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C158" t="s">
         <v>65</v>
@@ -4456,13 +4453,13 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B159" t="s">
+        <v>227</v>
+      </c>
+      <c r="C159" t="s">
         <v>228</v>
-      </c>
-      <c r="C159" t="s">
-        <v>229</v>
       </c>
       <c r="D159" t="s">
         <v>129</v>
@@ -4476,10 +4473,10 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B160" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C160" t="s">
         <v>65</v>
@@ -4496,10 +4493,10 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B161" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C161" t="s">
         <v>65</v>
@@ -4516,10 +4513,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
+        <v>231</v>
+      </c>
+      <c r="B162" t="s">
         <v>232</v>
-      </c>
-      <c r="B162" t="s">
-        <v>233</v>
       </c>
       <c r="C162" t="s">
         <v>65</v>
@@ -4536,10 +4533,10 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B163" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C163" t="s">
         <v>53</v>
@@ -4556,13 +4553,13 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B164" t="s">
+        <v>234</v>
+      </c>
+      <c r="C164" t="s">
         <v>235</v>
-      </c>
-      <c r="C164" t="s">
-        <v>236</v>
       </c>
       <c r="D164" t="s">
         <v>158</v>
@@ -4576,13 +4573,13 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B165" t="s">
+        <v>236</v>
+      </c>
+      <c r="C165" t="s">
         <v>237</v>
-      </c>
-      <c r="C165" t="s">
-        <v>238</v>
       </c>
       <c r="D165" t="s">
         <v>122</v>
@@ -4596,13 +4593,13 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B166" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C166" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D166" t="s">
         <v>136</v>
@@ -4616,10 +4613,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B167" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C167" t="s">
         <v>65</v>
@@ -4636,10 +4633,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B168" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C168" t="s">
         <v>65</v>
@@ -4656,10 +4653,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B169" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C169" t="s">
         <v>65</v>
@@ -4676,10 +4673,10 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B170" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C170" t="s">
         <v>65</v>
@@ -4696,10 +4693,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B171" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C171" t="s">
         <v>65</v>
@@ -4716,10 +4713,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B172" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C172" t="s">
         <v>65</v>
@@ -4744,8 +4741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F18B4A-CD5C-4B9F-ADEF-B0399A504A71}">
   <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5043,7 +5040,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C15" t="s">
         <v>65</v>
@@ -5326,7 +5323,7 @@
         <v>142</v>
       </c>
       <c r="C29" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D29" t="s">
         <v>103</v>
@@ -5386,7 +5383,7 @@
         <v>147</v>
       </c>
       <c r="C32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D32" t="s">
         <v>148</v>
@@ -5526,7 +5523,7 @@
         <v>157</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>268</v>
       </c>
       <c r="D39" t="s">
         <v>158</v>
@@ -5583,7 +5580,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C42" t="s">
         <v>65</v>
@@ -5906,7 +5903,7 @@
         <v>173</v>
       </c>
       <c r="C58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D58" t="s">
         <v>136</v>
@@ -6083,7 +6080,7 @@
         <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C67" t="s">
         <v>65</v>
@@ -6223,7 +6220,7 @@
         <v>62</v>
       </c>
       <c r="B74" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="C74" t="s">
         <v>65</v>
@@ -6243,7 +6240,7 @@
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C75" t="s">
         <v>65</v>
@@ -6303,7 +6300,7 @@
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C78" t="s">
         <v>113</v>
@@ -6323,10 +6320,10 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D79" t="s">
         <v>129</v>
@@ -6343,7 +6340,7 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C80" t="s">
         <v>65</v>
@@ -6363,7 +6360,7 @@
         <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C81" t="s">
         <v>65</v>
@@ -6383,7 +6380,7 @@
         <v>83</v>
       </c>
       <c r="B82" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C82" t="s">
         <v>65</v>
@@ -6403,7 +6400,7 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C83" t="s">
         <v>65</v>
@@ -6423,7 +6420,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C84" t="s">
         <v>65</v>
@@ -6443,10 +6440,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C85" t="s">
-        <v>65</v>
+        <v>265</v>
       </c>
       <c r="D85" t="s">
         <v>123</v>
@@ -6463,7 +6460,7 @@
         <v>83</v>
       </c>
       <c r="B86" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C86" t="s">
         <v>65</v>
@@ -6483,7 +6480,7 @@
         <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C87" t="s">
         <v>65</v>
@@ -6503,7 +6500,7 @@
         <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C88" t="s">
         <v>65</v>
@@ -6523,7 +6520,7 @@
         <v>83</v>
       </c>
       <c r="B89" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C89" t="s">
         <v>65</v>
@@ -6543,7 +6540,7 @@
         <v>83</v>
       </c>
       <c r="B90" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C90" t="s">
         <v>65</v>
@@ -6563,7 +6560,7 @@
         <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C91" t="s">
         <v>65</v>
@@ -6583,10 +6580,10 @@
         <v>83</v>
       </c>
       <c r="B92" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D92" t="s">
         <v>150</v>
@@ -6603,7 +6600,7 @@
         <v>83</v>
       </c>
       <c r="B93" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C93" t="s">
         <v>65</v>
@@ -6623,7 +6620,7 @@
         <v>83</v>
       </c>
       <c r="B94" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C94" t="s">
         <v>65</v>
@@ -6640,10 +6637,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>201</v>
+      </c>
+      <c r="B95" t="s">
         <v>202</v>
-      </c>
-      <c r="B95" t="s">
-        <v>203</v>
       </c>
       <c r="C95" t="s">
         <v>89</v>
@@ -6660,10 +6657,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C96" t="s">
         <v>35</v>
@@ -6680,13 +6677,13 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B97" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97" t="s">
         <v>204</v>
-      </c>
-      <c r="C97" t="s">
-        <v>205</v>
       </c>
       <c r="D97" t="s">
         <v>80</v>
@@ -6700,10 +6697,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C98" t="s">
         <v>65</v>
@@ -6720,13 +6717,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B99" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C99" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D99" t="s">
         <v>123</v>
@@ -6740,13 +6737,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B100" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C100" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D100" t="s">
         <v>107</v>
@@ -6760,10 +6757,10 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B101" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C101" t="s">
         <v>65</v>
@@ -6780,13 +6777,13 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B102" t="s">
+        <v>209</v>
+      </c>
+      <c r="C102" t="s">
         <v>210</v>
-      </c>
-      <c r="C102" t="s">
-        <v>211</v>
       </c>
       <c r="D102" t="s">
         <v>150</v>
@@ -6800,10 +6797,10 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C103" t="s">
         <v>65</v>
@@ -6820,13 +6817,13 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B104" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C104" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D104" t="s">
         <v>158</v>
@@ -6840,10 +6837,10 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B105" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C105" t="s">
         <v>65</v>
@@ -6860,10 +6857,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B106" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C106" t="s">
         <v>65</v>
@@ -6880,13 +6877,13 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B107" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C107" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D107" t="s">
         <v>126</v>
@@ -6900,10 +6897,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B108" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C108" t="s">
         <v>65</v>
@@ -6920,10 +6917,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B109" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C109" t="s">
         <v>65</v>
@@ -6940,10 +6937,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B110" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C110" t="s">
         <v>65</v>
@@ -6960,10 +6957,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B111" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C111" t="s">
         <v>65</v>
@@ -6980,10 +6977,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B112" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C112" t="s">
         <v>65</v>
@@ -7000,10 +6997,10 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B113" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C113" t="s">
         <v>65</v>
@@ -7020,10 +7017,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B114" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C114" t="s">
         <v>65</v>
@@ -7040,10 +7037,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B115" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C115" t="s">
         <v>65</v>
@@ -7060,10 +7057,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B116" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C116" t="s">
         <v>65</v>
@@ -7080,10 +7077,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B117" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C117" t="s">
         <v>65</v>
@@ -7100,10 +7097,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B118" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C118" t="s">
         <v>65</v>
@@ -7120,10 +7117,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B119" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C119" t="s">
         <v>65</v>
@@ -7140,13 +7137,13 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B120" t="s">
+        <v>227</v>
+      </c>
+      <c r="C120" t="s">
         <v>228</v>
-      </c>
-      <c r="C120" t="s">
-        <v>229</v>
       </c>
       <c r="D120" t="s">
         <v>129</v>
@@ -7160,10 +7157,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B121" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C121" t="s">
         <v>65</v>
@@ -7180,10 +7177,10 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B122" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C122" t="s">
         <v>65</v>
@@ -7200,10 +7197,10 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
+        <v>231</v>
+      </c>
+      <c r="B123" t="s">
         <v>232</v>
-      </c>
-      <c r="B123" t="s">
-        <v>233</v>
       </c>
       <c r="C123" t="s">
         <v>65</v>
@@ -7220,10 +7217,10 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B124" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C124" t="s">
         <v>53</v>
@@ -7240,13 +7237,13 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B125" t="s">
+        <v>234</v>
+      </c>
+      <c r="C125" t="s">
         <v>235</v>
-      </c>
-      <c r="C125" t="s">
-        <v>236</v>
       </c>
       <c r="D125" t="s">
         <v>158</v>
@@ -7260,13 +7257,13 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B126" t="s">
+        <v>236</v>
+      </c>
+      <c r="C126" t="s">
         <v>237</v>
-      </c>
-      <c r="C126" t="s">
-        <v>238</v>
       </c>
       <c r="D126" t="s">
         <v>122</v>
@@ -7280,10 +7277,10 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B127" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C127" t="s">
         <v>65</v>
@@ -7300,10 +7297,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B128" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C128" t="s">
         <v>65</v>
@@ -7320,10 +7317,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B129" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C129" t="s">
         <v>65</v>
@@ -7340,10 +7337,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B130" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C130" t="s">
         <v>65</v>
@@ -7360,10 +7357,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B131" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C131" t="s">
         <v>65</v>
@@ -7380,10 +7377,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B132" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C132" t="s">
         <v>65</v>
@@ -7400,10 +7397,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B133" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C133" t="s">
         <v>65</v>

--- a/dashboard/server/resources/counterparty_targets_2026.xlsx
+++ b/dashboard/server/resources/counterparty_targets_2026.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\B2B\data_analysis_ai\dashboard\server\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFCF5FA0-C129-4664-AA0D-914E4E4CB200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E370E116-652C-410E-881A-292AE7ACE46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-72" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BF30D8BD-E8FB-4CB0-B3F0-05A8332F606C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BF30D8BD-E8FB-4CB0-B3F0-05A8332F606C}"/>
   </bookViews>
   <sheets>
     <sheet name="26 출강 타겟" sheetId="2" r:id="rId1"/>
     <sheet name="26 온라인 타겟" sheetId="6" r:id="rId2"/>
-    <sheet name="참고" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="272">
   <si>
     <t>티어</t>
   </si>
@@ -56,9 +55,6 @@
   </si>
   <si>
     <t>26 출강 타겟</t>
-  </si>
-  <si>
-    <t>25 온라인</t>
   </si>
   <si>
     <t>26 온라인 타겟</t>
@@ -1313,19 +1309,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
       </c>
       <c r="F2">
         <v>2.16</v>
@@ -1333,19 +1329,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
       </c>
       <c r="F3">
         <v>0.84</v>
@@ -1353,19 +1349,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>1.41</v>
@@ -1373,19 +1369,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
       </c>
       <c r="F5">
         <v>0.04</v>
@@ -1393,19 +1389,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
       </c>
       <c r="F6">
         <v>5.03</v>
@@ -1413,19 +1409,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
       <c r="C7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
       </c>
       <c r="F7">
         <v>0.05</v>
@@ -1433,19 +1429,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
         <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
       </c>
       <c r="F8">
         <v>4.8099999999999996</v>
@@ -1453,19 +1449,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
         <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
       </c>
       <c r="F9">
         <v>0.03</v>
@@ -1473,19 +1469,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10">
         <v>1.1200000000000001</v>
@@ -1493,19 +1489,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
       <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
         <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>15</v>
       </c>
       <c r="F11">
         <v>3.69</v>
@@ -1513,19 +1509,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" t="s">
-        <v>242</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12">
         <v>0.5</v>
@@ -1533,19 +1529,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13">
         <v>1.92</v>
@@ -1553,19 +1549,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14">
         <v>0.69</v>
@@ -1573,19 +1569,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15">
         <v>1.1000000000000001</v>
@@ -1593,19 +1589,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
         <v>40</v>
       </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16">
         <v>0.49</v>
@@ -1613,19 +1609,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17">
         <v>0.01</v>
@@ -1633,19 +1629,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
         <v>46</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>47</v>
       </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18">
         <v>2.2200000000000002</v>
@@ -1653,19 +1649,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19">
         <v>0.01</v>
@@ -1673,19 +1669,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
         <v>50</v>
       </c>
-      <c r="C20" t="s">
-        <v>51</v>
-      </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20">
         <v>1.8</v>
@@ -1693,19 +1689,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
         <v>52</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>53</v>
       </c>
-      <c r="D21" t="s">
-        <v>54</v>
-      </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F21">
         <v>2.4500000000000002</v>
@@ -1713,19 +1709,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22">
         <v>0.05</v>
@@ -1733,19 +1729,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
         <v>56</v>
       </c>
-      <c r="C23" t="s">
-        <v>57</v>
-      </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23">
         <v>1.84</v>
@@ -1753,19 +1749,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24">
         <v>0.5</v>
@@ -1773,19 +1769,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
         <v>60</v>
       </c>
-      <c r="C25" t="s">
-        <v>61</v>
-      </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25">
         <v>1.77</v>
@@ -1793,19 +1789,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F26">
         <v>1.6</v>
@@ -1813,19 +1809,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>243</v>
+      </c>
+      <c r="D27" t="s">
         <v>67</v>
       </c>
-      <c r="C27" t="s">
-        <v>244</v>
-      </c>
-      <c r="D27" t="s">
-        <v>68</v>
-      </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F27">
         <v>0.18</v>
@@ -1833,19 +1829,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F28">
         <v>0.7</v>
@@ -1853,19 +1849,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F29">
         <v>0.46</v>
@@ -1873,19 +1869,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" t="s">
         <v>70</v>
       </c>
-      <c r="C30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D30" t="s">
-        <v>71</v>
-      </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F30">
         <v>0.14000000000000001</v>
@@ -1893,19 +1889,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
         <v>72</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>73</v>
       </c>
-      <c r="D31" t="s">
-        <v>74</v>
-      </c>
       <c r="E31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F31">
         <v>0.95</v>
@@ -1913,19 +1909,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
         <v>75</v>
       </c>
-      <c r="C32" t="s">
-        <v>76</v>
-      </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F32">
         <v>0.54</v>
@@ -1933,19 +1929,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F33">
         <v>0.69</v>
@@ -1953,19 +1949,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
         <v>78</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>79</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>80</v>
-      </c>
-      <c r="E34" t="s">
-        <v>81</v>
       </c>
       <c r="F34">
         <v>0.09</v>
@@ -1973,19 +1969,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s">
         <v>90</v>
       </c>
-      <c r="C35" t="s">
-        <v>91</v>
-      </c>
       <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
         <v>14</v>
-      </c>
-      <c r="E35" t="s">
-        <v>15</v>
       </c>
       <c r="F35">
         <v>0.44</v>
@@ -1993,19 +1989,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" t="s">
+        <v>244</v>
+      </c>
+      <c r="D36" t="s">
         <v>96</v>
       </c>
-      <c r="C36" t="s">
-        <v>245</v>
-      </c>
-      <c r="D36" t="s">
-        <v>97</v>
-      </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F36">
         <v>0.31</v>
@@ -2013,19 +2009,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" t="s">
+        <v>245</v>
+      </c>
+      <c r="D37" t="s">
         <v>98</v>
       </c>
-      <c r="C37" t="s">
-        <v>246</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>99</v>
-      </c>
-      <c r="E37" t="s">
-        <v>100</v>
       </c>
       <c r="F37">
         <v>0.34</v>
@@ -2033,19 +2029,19 @@
     </row>
     <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -2053,19 +2049,19 @@
     </row>
     <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="D39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -2073,19 +2069,19 @@
     </row>
     <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -2093,19 +2089,19 @@
     </row>
     <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -2113,19 +2109,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" t="s">
         <v>101</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>102</v>
       </c>
-      <c r="D42" t="s">
-        <v>103</v>
-      </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F42">
         <v>15.79</v>
@@ -2133,19 +2129,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2153,19 +2149,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
         <v>106</v>
       </c>
-      <c r="C44" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" t="s">
-        <v>107</v>
-      </c>
       <c r="E44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F44">
         <v>4</v>
@@ -2173,19 +2169,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2193,19 +2189,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" t="s">
         <v>110</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>111</v>
       </c>
-      <c r="D46" t="s">
-        <v>112</v>
-      </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F46">
         <v>7.1</v>
@@ -2213,19 +2209,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2233,19 +2229,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D48" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F48">
         <v>0.1</v>
@@ -2253,19 +2249,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2273,19 +2269,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C50" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" t="s">
         <v>115</v>
       </c>
-      <c r="D50" t="s">
-        <v>116</v>
-      </c>
       <c r="E50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F50">
         <v>0.08</v>
@@ -2293,19 +2289,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" t="s">
         <v>117</v>
       </c>
-      <c r="C51" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>118</v>
-      </c>
-      <c r="E51" t="s">
-        <v>119</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2313,19 +2309,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2333,19 +2329,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" t="s">
         <v>121</v>
       </c>
-      <c r="C53" t="s">
-        <v>65</v>
-      </c>
-      <c r="D53" t="s">
-        <v>122</v>
-      </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2353,19 +2349,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2373,19 +2369,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2393,19 +2389,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56" t="s">
+        <v>124</v>
+      </c>
+      <c r="C56" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" t="s">
         <v>125</v>
       </c>
-      <c r="C56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" t="s">
-        <v>126</v>
-      </c>
       <c r="E56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2413,19 +2409,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2433,19 +2429,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2453,19 +2449,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" t="s">
+        <v>64</v>
+      </c>
+      <c r="D59" t="s">
         <v>128</v>
       </c>
-      <c r="C59" t="s">
-        <v>65</v>
-      </c>
-      <c r="D59" t="s">
-        <v>129</v>
-      </c>
       <c r="E59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F59">
         <v>1.6</v>
@@ -2473,19 +2469,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" t="s">
         <v>130</v>
       </c>
-      <c r="C60" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" t="s">
-        <v>131</v>
-      </c>
       <c r="E60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -2493,19 +2489,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2513,19 +2509,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B62" t="s">
+        <v>132</v>
+      </c>
+      <c r="C62" t="s">
         <v>133</v>
       </c>
-      <c r="C62" t="s">
-        <v>134</v>
-      </c>
       <c r="D62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F62">
         <v>1.44</v>
@@ -2533,19 +2529,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F63">
         <v>1.6</v>
@@ -2553,19 +2549,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D64" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F64">
         <v>3</v>
@@ -2573,19 +2569,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" t="s">
         <v>92</v>
       </c>
-      <c r="C65" t="s">
-        <v>93</v>
-      </c>
       <c r="D65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2593,19 +2589,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" t="s">
         <v>135</v>
       </c>
-      <c r="C66" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66" t="s">
-        <v>136</v>
-      </c>
       <c r="E66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2613,19 +2609,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B67" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" t="s">
         <v>137</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>138</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>139</v>
-      </c>
-      <c r="E67" t="s">
-        <v>140</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2633,19 +2629,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D68" t="s">
+        <v>138</v>
+      </c>
+      <c r="E68" t="s">
         <v>139</v>
-      </c>
-      <c r="E68" t="s">
-        <v>140</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2653,19 +2649,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -2673,19 +2669,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" t="s">
         <v>143</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>144</v>
       </c>
-      <c r="D70" t="s">
-        <v>145</v>
-      </c>
       <c r="E70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2693,19 +2689,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2713,19 +2709,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B72" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" t="s">
+        <v>256</v>
+      </c>
+      <c r="D72" t="s">
         <v>147</v>
       </c>
-      <c r="C72" t="s">
-        <v>257</v>
-      </c>
-      <c r="D72" t="s">
-        <v>148</v>
-      </c>
       <c r="E72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -2733,19 +2729,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B73" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" t="s">
         <v>147</v>
       </c>
-      <c r="C73" t="s">
-        <v>31</v>
-      </c>
-      <c r="D73" t="s">
-        <v>148</v>
-      </c>
       <c r="E73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F73">
         <v>0.96</v>
@@ -2753,19 +2749,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" t="s">
+        <v>145</v>
+      </c>
+      <c r="D74" t="s">
         <v>149</v>
       </c>
-      <c r="C74" t="s">
-        <v>146</v>
-      </c>
-      <c r="D74" t="s">
-        <v>150</v>
-      </c>
       <c r="E74" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F74">
         <v>0.11</v>
@@ -2773,19 +2769,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B75" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" t="s">
         <v>151</v>
       </c>
-      <c r="C75" t="s">
-        <v>152</v>
-      </c>
       <c r="D75" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E75" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2793,19 +2789,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B76" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" t="s">
         <v>153</v>
       </c>
-      <c r="C76" t="s">
-        <v>154</v>
-      </c>
       <c r="D76" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E76" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F76">
         <v>1.5</v>
@@ -2813,19 +2809,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B77" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F77">
         <v>0.7</v>
@@ -2833,19 +2829,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B78" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C78" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D78" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F78">
         <v>1.5</v>
@@ -2853,19 +2849,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B79" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" t="s">
+        <v>267</v>
+      </c>
+      <c r="D79" t="s">
         <v>157</v>
       </c>
-      <c r="C79" t="s">
-        <v>268</v>
-      </c>
-      <c r="D79" t="s">
-        <v>158</v>
-      </c>
       <c r="E79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F79">
         <v>0.17</v>
@@ -2873,19 +2869,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F80">
         <v>1.3</v>
@@ -2893,19 +2889,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D81" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2913,19 +2909,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B82" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D82" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F82">
         <v>1.04</v>
@@ -2933,19 +2929,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B83" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E83" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F83">
         <v>1.9</v>
@@ -2953,19 +2949,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D84" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F84">
         <v>1.1000000000000001</v>
@@ -2973,19 +2969,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B85" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -2993,19 +2989,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C86" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D86" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E86" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -3013,19 +3009,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C87" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D87" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -3033,19 +3029,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B88" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D88" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -3053,19 +3049,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D89" t="s">
+        <v>138</v>
+      </c>
+      <c r="E89" t="s">
         <v>139</v>
-      </c>
-      <c r="E89" t="s">
-        <v>140</v>
       </c>
       <c r="F89">
         <v>0.5</v>
@@ -3073,19 +3069,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B90" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F90">
         <v>0.5</v>
@@ -3093,19 +3089,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B91" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F91">
         <v>1.44</v>
@@ -3113,19 +3109,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C92" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F92">
         <v>0.5</v>
@@ -3133,19 +3129,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>61</v>
+      </c>
+      <c r="B93" t="s">
         <v>62</v>
       </c>
-      <c r="B93" t="s">
-        <v>63</v>
-      </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E93" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F93">
         <v>0.88</v>
@@ -3153,19 +3149,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
+        <v>61</v>
+      </c>
+      <c r="B94" t="s">
         <v>62</v>
       </c>
-      <c r="B94" t="s">
-        <v>63</v>
-      </c>
       <c r="C94" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -3173,19 +3169,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>61</v>
+      </c>
+      <c r="B95" t="s">
         <v>62</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>63</v>
       </c>
-      <c r="C95" t="s">
-        <v>64</v>
-      </c>
       <c r="D95" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E95" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F95">
         <v>0.03</v>
@@ -3193,19 +3189,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
+        <v>61</v>
+      </c>
+      <c r="B96" t="s">
         <v>62</v>
       </c>
-      <c r="B96" t="s">
-        <v>63</v>
-      </c>
       <c r="C96" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D96" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E96" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F96">
         <v>0.02</v>
@@ -3213,19 +3209,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
+        <v>61</v>
+      </c>
+      <c r="B97" t="s">
         <v>62</v>
       </c>
-      <c r="B97" t="s">
-        <v>63</v>
-      </c>
       <c r="C97" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E97" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F97">
         <v>0.5</v>
@@ -3233,19 +3229,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B98" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C98" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D98" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E98" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F98">
         <v>0.7</v>
@@ -3253,19 +3249,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B99" t="s">
+        <v>172</v>
+      </c>
+      <c r="C99" t="s">
         <v>173</v>
       </c>
-      <c r="C99" t="s">
-        <v>174</v>
-      </c>
       <c r="D99" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E99" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F99">
         <v>0.28000000000000003</v>
@@ -3273,19 +3269,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B100" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C100" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E100" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -3293,19 +3289,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B101" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C101" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E101" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F101">
         <v>0.78</v>
@@ -3313,19 +3309,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B102" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C102" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E102" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F102">
         <v>0.43</v>
@@ -3333,19 +3329,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B103" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C103" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F103">
         <v>0.4</v>
@@ -3353,19 +3349,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B104" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C104" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F104">
         <v>0.6</v>
@@ -3373,19 +3369,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B105" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D105" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F105">
         <v>0.6</v>
@@ -3393,19 +3389,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B106" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C106" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F106">
         <v>0.7</v>
@@ -3413,19 +3409,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B107" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C107" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D107" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -3433,19 +3429,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B108" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D108" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -3453,19 +3449,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B109" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C109" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E109" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3473,19 +3469,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B110" t="s">
+        <v>93</v>
+      </c>
+      <c r="C110" t="s">
         <v>94</v>
       </c>
-      <c r="C110" t="s">
-        <v>95</v>
-      </c>
       <c r="D110" t="s">
+        <v>138</v>
+      </c>
+      <c r="E110" t="s">
         <v>139</v>
-      </c>
-      <c r="E110" t="s">
-        <v>140</v>
       </c>
       <c r="F110">
         <v>0.5</v>
@@ -3493,19 +3489,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B111" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C111" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D111" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E111" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F111">
         <v>0.6</v>
@@ -3513,19 +3509,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B112" t="s">
+        <v>181</v>
+      </c>
+      <c r="C112" t="s">
         <v>182</v>
       </c>
-      <c r="C112" t="s">
-        <v>183</v>
-      </c>
       <c r="D112" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E112" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F112">
         <v>0.6</v>
@@ -3533,19 +3529,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B113" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C113" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D113" t="s">
+        <v>138</v>
+      </c>
+      <c r="E113" t="s">
         <v>139</v>
-      </c>
-      <c r="E113" t="s">
-        <v>140</v>
       </c>
       <c r="F113">
         <v>0.5</v>
@@ -3553,19 +3549,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B114" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C114" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E114" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F114">
         <v>0.3</v>
@@ -3573,19 +3569,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B115" t="s">
+        <v>85</v>
+      </c>
+      <c r="C115" t="s">
         <v>86</v>
       </c>
-      <c r="C115" t="s">
-        <v>87</v>
-      </c>
       <c r="D115" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E115" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3593,19 +3589,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B116" t="s">
+        <v>87</v>
+      </c>
+      <c r="C116" t="s">
         <v>88</v>
       </c>
-      <c r="C116" t="s">
-        <v>89</v>
-      </c>
       <c r="D116" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E116" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F116">
         <v>0.5</v>
@@ -3613,19 +3609,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B117" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C117" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D117" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E117" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3633,19 +3629,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B118" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C118" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D118" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E118" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F118">
         <v>0.32</v>
@@ -3653,19 +3649,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B119" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C119" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D119" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E119" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F119">
         <v>0.4</v>
@@ -3673,19 +3669,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B120" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C120" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D120" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E120" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F120">
         <v>0.36</v>
@@ -3693,19 +3689,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B121" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C121" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D121" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E121" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F121">
         <v>0.43</v>
@@ -3713,19 +3709,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C122" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D122" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E122" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F122">
         <v>0.3</v>
@@ -3733,19 +3729,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B123" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C123" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D123" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E123" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F123">
         <v>0.37</v>
@@ -3753,19 +3749,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B124" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C124" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D124" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E124" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F124">
         <v>0.3</v>
@@ -3773,19 +3769,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B125" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C125" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D125" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E125" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F125">
         <v>0.28999999999999998</v>
@@ -3793,19 +3789,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B126" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C126" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F126">
         <v>0.25</v>
@@ -3813,19 +3809,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B127" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D127" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E127" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -3833,19 +3829,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B128" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C128" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D128" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E128" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -3853,19 +3849,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B129" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C129" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D129" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E129" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F129">
         <v>0.16</v>
@@ -3873,19 +3869,19 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B130" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C130" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D130" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E130" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F130">
         <v>0.4</v>
@@ -3893,19 +3889,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B131" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C131" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D131" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E131" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F131">
         <v>0.2</v>
@@ -3913,19 +3909,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B132" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C132" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D132" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E132" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3933,19 +3929,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B133" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C133" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E133" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F133">
         <v>0.4</v>
@@ -3953,19 +3949,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
+        <v>200</v>
+      </c>
+      <c r="B134" t="s">
         <v>201</v>
       </c>
-      <c r="B134" t="s">
-        <v>202</v>
-      </c>
       <c r="C134" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D134" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E134" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F134">
         <v>0.24</v>
@@ -3973,19 +3969,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B135" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D135" t="s">
+        <v>79</v>
+      </c>
+      <c r="E135" t="s">
         <v>80</v>
-      </c>
-      <c r="E135" t="s">
-        <v>81</v>
       </c>
       <c r="F135">
         <v>0.19</v>
@@ -3993,19 +3989,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B136" t="s">
+        <v>202</v>
+      </c>
+      <c r="C136" t="s">
         <v>203</v>
       </c>
-      <c r="C136" t="s">
-        <v>204</v>
-      </c>
       <c r="D136" t="s">
+        <v>79</v>
+      </c>
+      <c r="E136" t="s">
         <v>80</v>
-      </c>
-      <c r="E136" t="s">
-        <v>81</v>
       </c>
       <c r="F136">
         <v>0.02</v>
@@ -4013,19 +4009,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B137" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C137" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D137" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E137" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -4033,19 +4029,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B138" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C138" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D138" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E138" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F138">
         <v>0.16</v>
@@ -4053,19 +4049,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B139" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C139" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D139" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E139" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F139">
         <v>0.13</v>
@@ -4073,19 +4069,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B140" t="s">
+        <v>208</v>
+      </c>
+      <c r="C140" t="s">
         <v>209</v>
       </c>
-      <c r="C140" t="s">
-        <v>210</v>
-      </c>
       <c r="D140" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -4093,19 +4089,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B141" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C141" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D141" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E141" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F141">
         <v>0.37</v>
@@ -4113,19 +4109,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B142" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C142" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D142" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E142" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F142">
         <v>0.15</v>
@@ -4133,19 +4129,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B143" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C143" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D143" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E143" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F143">
         <v>0.2</v>
@@ -4153,19 +4149,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B144" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C144" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D144" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E144" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F144">
         <v>0.2</v>
@@ -4173,19 +4169,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B145" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C145" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D145" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E145" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F145">
         <v>0.2</v>
@@ -4193,19 +4189,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B146" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C146" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D146" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E146" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F146">
         <v>0.2</v>
@@ -4213,19 +4209,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B147" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C147" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D147" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E147" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F147">
         <v>0.15</v>
@@ -4233,19 +4229,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B148" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C148" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D148" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E148" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F148">
         <v>0.15</v>
@@ -4253,19 +4249,19 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B149" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C149" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D149" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E149" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F149">
         <v>0.1</v>
@@ -4273,19 +4269,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B150" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C150" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D150" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E150" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F150">
         <v>0.1</v>
@@ -4293,19 +4289,19 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B151" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C151" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D151" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E151" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F151">
         <v>7.0000000000000007E-2</v>
@@ -4313,19 +4309,19 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B152" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C152" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D152" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E152" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -4333,19 +4329,19 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B153" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C153" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D153" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E153" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -4353,19 +4349,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B154" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C154" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D154" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E154" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -4373,19 +4369,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B155" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C155" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D155" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E155" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -4393,19 +4389,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B156" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C156" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D156" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E156" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -4413,19 +4409,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B157" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C157" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D157" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E157" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -4433,19 +4429,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B158" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C158" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D158" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E158" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -4453,19 +4449,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B159" t="s">
+        <v>226</v>
+      </c>
+      <c r="C159" t="s">
         <v>227</v>
       </c>
-      <c r="C159" t="s">
-        <v>228</v>
-      </c>
       <c r="D159" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E159" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F159">
         <v>0.1</v>
@@ -4473,19 +4469,19 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B160" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C160" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D160" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E160" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F160">
         <v>0</v>
@@ -4493,19 +4489,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B161" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C161" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D161" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E161" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4513,19 +4509,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
+        <v>230</v>
+      </c>
+      <c r="B162" t="s">
         <v>231</v>
       </c>
-      <c r="B162" t="s">
-        <v>232</v>
-      </c>
       <c r="C162" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D162" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E162" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F162">
         <v>0.08</v>
@@ -4533,19 +4529,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B163" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C163" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D163" t="s">
+        <v>79</v>
+      </c>
+      <c r="E163" t="s">
         <v>80</v>
-      </c>
-      <c r="E163" t="s">
-        <v>81</v>
       </c>
       <c r="F163">
         <v>0.09</v>
@@ -4553,19 +4549,19 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B164" t="s">
+        <v>233</v>
+      </c>
+      <c r="C164" t="s">
         <v>234</v>
       </c>
-      <c r="C164" t="s">
-        <v>235</v>
-      </c>
       <c r="D164" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E164" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F164">
         <v>0.09</v>
@@ -4573,19 +4569,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B165" t="s">
+        <v>235</v>
+      </c>
+      <c r="C165" t="s">
         <v>236</v>
       </c>
-      <c r="C165" t="s">
-        <v>237</v>
-      </c>
       <c r="D165" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E165" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F165">
         <v>0.08</v>
@@ -4593,19 +4589,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B166" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C166" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D166" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E166" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F166">
         <v>7.0000000000000007E-2</v>
@@ -4613,19 +4609,19 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B167" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C167" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D167" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E167" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F167">
         <v>0.04</v>
@@ -4633,19 +4629,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B168" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C168" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D168" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E168" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F168">
         <v>0.08</v>
@@ -4653,19 +4649,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B169" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C169" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D169" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E169" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F169">
         <v>0.03</v>
@@ -4673,19 +4669,19 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B170" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C170" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D170" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E170" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F170">
         <v>0.04</v>
@@ -4693,19 +4689,19 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B171" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C171" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D171" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E171" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -4713,19 +4709,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B172" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C172" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D172" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E172" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -4741,8 +4737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F18B4A-CD5C-4B9F-ADEF-B0399A504A71}">
   <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4772,24 +4768,24 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
       <c r="F2">
         <v>12</v>
@@ -4797,19 +4793,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
         <v>101</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>102</v>
       </c>
-      <c r="D3" t="s">
-        <v>103</v>
-      </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F3">
         <v>3.65</v>
@@ -4817,19 +4813,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F4">
         <v>0.5</v>
@@ -4837,19 +4833,19 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
         <v>106</v>
       </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s">
-        <v>107</v>
-      </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4857,19 +4853,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -4877,19 +4873,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" t="s">
         <v>110</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>111</v>
       </c>
-      <c r="D7" t="s">
-        <v>112</v>
-      </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4897,19 +4893,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8">
         <v>0.13</v>
@@ -4917,19 +4913,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -4937,19 +4933,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -4957,19 +4953,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" t="s">
         <v>115</v>
       </c>
-      <c r="D11" t="s">
-        <v>116</v>
-      </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11">
         <v>1.97</v>
@@ -4977,19 +4973,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
         <v>117</v>
       </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>118</v>
-      </c>
-      <c r="E12" t="s">
-        <v>119</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -4997,19 +4993,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -5017,19 +5013,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
         <v>121</v>
       </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" t="s">
-        <v>122</v>
-      </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F14">
         <v>4.8</v>
@@ -5037,19 +5033,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15">
         <v>3.6</v>
@@ -5057,19 +5053,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F16">
         <v>2</v>
@@ -5077,19 +5073,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
         <v>125</v>
       </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" t="s">
-        <v>126</v>
-      </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -5097,19 +5093,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -5117,19 +5113,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -5137,19 +5133,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
         <v>128</v>
       </c>
-      <c r="C20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>129</v>
-      </c>
       <c r="E20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -5157,19 +5153,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
         <v>130</v>
       </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" t="s">
-        <v>131</v>
-      </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21">
         <v>2.2999999999999998</v>
@@ -5177,19 +5173,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -5197,19 +5193,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" t="s">
         <v>133</v>
       </c>
-      <c r="C23" t="s">
-        <v>134</v>
-      </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -5217,19 +5213,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -5237,19 +5233,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
         <v>92</v>
       </c>
-      <c r="C25" t="s">
-        <v>93</v>
-      </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -5257,19 +5253,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" t="s">
         <v>135</v>
       </c>
-      <c r="C26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" t="s">
-        <v>136</v>
-      </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -5277,19 +5273,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
         <v>137</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>138</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>139</v>
-      </c>
-      <c r="E27" t="s">
-        <v>140</v>
       </c>
       <c r="F27">
         <v>1.31</v>
@@ -5297,19 +5293,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" t="s">
         <v>139</v>
-      </c>
-      <c r="E28" t="s">
-        <v>140</v>
       </c>
       <c r="F28">
         <v>0.4</v>
@@ -5317,19 +5313,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F29">
         <v>1.62</v>
@@ -5337,19 +5333,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" t="s">
         <v>143</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>144</v>
       </c>
-      <c r="D30" t="s">
-        <v>145</v>
-      </c>
       <c r="E30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F30">
         <v>1.6</v>
@@ -5357,19 +5353,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -5377,19 +5373,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" t="s">
         <v>147</v>
       </c>
-      <c r="C32" t="s">
-        <v>257</v>
-      </c>
-      <c r="D32" t="s">
-        <v>148</v>
-      </c>
       <c r="E32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -5397,19 +5393,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
         <v>147</v>
       </c>
-      <c r="C33" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" t="s">
-        <v>148</v>
-      </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -5417,19 +5413,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" t="s">
+        <v>148</v>
+      </c>
+      <c r="C34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" t="s">
         <v>149</v>
       </c>
-      <c r="C34" t="s">
-        <v>146</v>
-      </c>
-      <c r="D34" t="s">
-        <v>150</v>
-      </c>
       <c r="E34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F34">
         <v>1.1599999999999999</v>
@@ -5437,19 +5433,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" t="s">
         <v>151</v>
       </c>
-      <c r="C35" t="s">
-        <v>152</v>
-      </c>
       <c r="D35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F35">
         <v>1.18</v>
@@ -5457,19 +5453,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" t="s">
         <v>153</v>
       </c>
-      <c r="C36" t="s">
-        <v>154</v>
-      </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -5477,19 +5473,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -5497,19 +5493,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -5517,19 +5513,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" t="s">
+        <v>267</v>
+      </c>
+      <c r="D39" t="s">
         <v>157</v>
       </c>
-      <c r="C39" t="s">
-        <v>268</v>
-      </c>
-      <c r="D39" t="s">
-        <v>158</v>
-      </c>
       <c r="E39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F39">
         <v>1.5</v>
@@ -5537,19 +5533,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -5557,19 +5553,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -5577,19 +5573,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -5597,19 +5593,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -5617,19 +5613,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -5637,19 +5633,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F45">
         <v>1.6</v>
@@ -5657,19 +5653,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F46">
         <v>1.5</v>
@@ -5677,19 +5673,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F47">
         <v>1.5</v>
@@ -5697,19 +5693,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -5717,19 +5713,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D49" t="s">
+        <v>138</v>
+      </c>
+      <c r="E49" t="s">
         <v>139</v>
-      </c>
-      <c r="E49" t="s">
-        <v>140</v>
       </c>
       <c r="F49">
         <v>0.5</v>
@@ -5737,19 +5733,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -5757,19 +5753,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -5777,19 +5773,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -5797,19 +5793,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
         <v>62</v>
       </c>
-      <c r="B53" t="s">
-        <v>63</v>
-      </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E53" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -5817,19 +5813,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
         <v>62</v>
       </c>
-      <c r="B54" t="s">
-        <v>63</v>
-      </c>
       <c r="C54" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D54" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F54">
         <v>0.17</v>
@@ -5837,19 +5833,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
         <v>62</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>63</v>
       </c>
-      <c r="C55" t="s">
-        <v>64</v>
-      </c>
       <c r="D55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E55" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -5857,19 +5853,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
         <v>62</v>
       </c>
-      <c r="B56" t="s">
-        <v>63</v>
-      </c>
       <c r="C56" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -5877,19 +5873,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
         <v>62</v>
       </c>
-      <c r="B57" t="s">
-        <v>63</v>
-      </c>
       <c r="C57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -5897,19 +5893,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -5917,19 +5913,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" t="s">
         <v>173</v>
       </c>
-      <c r="C59" t="s">
-        <v>174</v>
-      </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -5937,19 +5933,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F60">
         <v>0.4</v>
@@ -5957,19 +5953,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C61" t="s">
         <v>78</v>
       </c>
-      <c r="C61" t="s">
-        <v>79</v>
-      </c>
       <c r="D61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -5977,19 +5973,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -5997,19 +5993,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -6017,19 +6013,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -6037,19 +6033,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -6057,19 +6053,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -6077,19 +6073,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -6097,19 +6093,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F68">
         <v>0.9</v>
@@ -6117,19 +6113,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D69" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F69">
         <v>0.6</v>
@@ -6137,19 +6133,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F70">
         <v>0.5</v>
@@ -6157,19 +6153,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B71" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" t="s">
         <v>94</v>
       </c>
-      <c r="C71" t="s">
-        <v>95</v>
-      </c>
       <c r="D71" t="s">
+        <v>138</v>
+      </c>
+      <c r="E71" t="s">
         <v>139</v>
-      </c>
-      <c r="E71" t="s">
-        <v>140</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -6177,19 +6173,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B72" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -6197,19 +6193,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B73" t="s">
+        <v>181</v>
+      </c>
+      <c r="C73" t="s">
         <v>182</v>
       </c>
-      <c r="C73" t="s">
-        <v>183</v>
-      </c>
       <c r="D73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E73" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -6217,19 +6213,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B74" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C74" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D74" t="s">
+        <v>138</v>
+      </c>
+      <c r="E74" t="s">
         <v>139</v>
-      </c>
-      <c r="E74" t="s">
-        <v>140</v>
       </c>
       <c r="F74">
         <v>0.4</v>
@@ -6237,19 +6233,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C75" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -6257,19 +6253,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" t="s">
         <v>86</v>
       </c>
-      <c r="C76" t="s">
-        <v>87</v>
-      </c>
       <c r="D76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F76">
         <v>0.49</v>
@@ -6277,19 +6273,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" t="s">
         <v>88</v>
       </c>
-      <c r="C77" t="s">
-        <v>89</v>
-      </c>
       <c r="D77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -6297,19 +6293,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D78" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -6317,19 +6313,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C79" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D79" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -6337,19 +6333,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D80" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -6357,19 +6353,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C81" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D81" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E81" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -6377,19 +6373,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C82" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E82" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -6397,19 +6393,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C83" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E83" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -6417,19 +6413,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E84" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -6437,19 +6433,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C85" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D85" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -6457,19 +6453,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C86" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D86" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E86" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -6477,19 +6473,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C87" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D87" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -6497,19 +6493,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C88" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F88">
         <v>0.49</v>
@@ -6517,19 +6513,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F89">
         <v>0.3</v>
@@ -6537,19 +6533,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B90" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F90">
         <v>0.15</v>
@@ -6557,19 +6553,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C91" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D91" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6577,19 +6573,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B92" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E92" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F92">
         <v>0.1</v>
@@ -6597,19 +6593,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C93" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E93" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F93">
         <v>0.3</v>
@@ -6617,19 +6613,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C94" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D94" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E94" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -6637,19 +6633,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" t="s">
         <v>201</v>
       </c>
-      <c r="B95" t="s">
-        <v>202</v>
-      </c>
       <c r="C95" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -6657,19 +6653,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B96" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D96" t="s">
+        <v>79</v>
+      </c>
+      <c r="E96" t="s">
         <v>80</v>
-      </c>
-      <c r="E96" t="s">
-        <v>81</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -6677,19 +6673,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B97" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" t="s">
         <v>203</v>
       </c>
-      <c r="C97" t="s">
-        <v>204</v>
-      </c>
       <c r="D97" t="s">
+        <v>79</v>
+      </c>
+      <c r="E97" t="s">
         <v>80</v>
-      </c>
-      <c r="E97" t="s">
-        <v>81</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -6697,19 +6693,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C98" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D98" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -6717,19 +6713,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B99" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C99" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D99" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F99">
         <v>0.16</v>
@@ -6737,19 +6733,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B100" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C100" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D100" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E100" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -6757,19 +6753,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B101" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C101" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D101" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -6777,19 +6773,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B102" t="s">
+        <v>208</v>
+      </c>
+      <c r="C102" t="s">
         <v>209</v>
       </c>
-      <c r="C102" t="s">
-        <v>210</v>
-      </c>
       <c r="D102" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E102" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F102">
         <v>0.12</v>
@@ -6797,19 +6793,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B103" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C103" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D103" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E103" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -6817,19 +6813,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B104" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C104" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E104" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -6837,19 +6833,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B105" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D105" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -6857,19 +6853,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B106" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C106" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D106" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -6877,19 +6873,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B107" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C107" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D107" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E107" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -6897,19 +6893,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B108" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C108" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D108" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E108" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -6917,19 +6913,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C109" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D109" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E109" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -6937,19 +6933,19 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B110" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C110" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D110" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E110" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -6957,19 +6953,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B111" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C111" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E111" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -6977,19 +6973,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B112" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C112" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D112" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E112" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F112">
         <v>0.1</v>
@@ -6997,19 +6993,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B113" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C113" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E113" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F113">
         <v>0.2</v>
@@ -7017,19 +7013,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B114" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C114" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D114" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E114" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F114">
         <v>0.2</v>
@@ -7037,19 +7033,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B115" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C115" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D115" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E115" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F115">
         <v>0.2</v>
@@ -7057,19 +7053,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B116" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C116" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D116" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E116" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F116">
         <v>0.12</v>
@@ -7077,19 +7073,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B117" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C117" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D117" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E117" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F117">
         <v>0.1</v>
@@ -7097,19 +7093,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B118" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C118" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D118" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E118" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F118">
         <v>0.1</v>
@@ -7117,19 +7113,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B119" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C119" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D119" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E119" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F119">
         <v>0.1</v>
@@ -7137,19 +7133,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B120" t="s">
+        <v>226</v>
+      </c>
+      <c r="C120" t="s">
         <v>227</v>
       </c>
-      <c r="C120" t="s">
-        <v>228</v>
-      </c>
       <c r="D120" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E120" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -7157,19 +7153,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B121" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C121" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E121" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F121">
         <v>0.1</v>
@@ -7177,19 +7173,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B122" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C122" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D122" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E122" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F122">
         <v>0.1</v>
@@ -7197,19 +7193,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
+        <v>230</v>
+      </c>
+      <c r="B123" t="s">
         <v>231</v>
       </c>
-      <c r="B123" t="s">
-        <v>232</v>
-      </c>
       <c r="C123" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D123" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E123" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -7217,19 +7213,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B124" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C124" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D124" t="s">
+        <v>79</v>
+      </c>
+      <c r="E124" t="s">
         <v>80</v>
-      </c>
-      <c r="E124" t="s">
-        <v>81</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -7237,19 +7233,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B125" t="s">
+        <v>233</v>
+      </c>
+      <c r="C125" t="s">
         <v>234</v>
       </c>
-      <c r="C125" t="s">
-        <v>235</v>
-      </c>
       <c r="D125" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E125" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -7257,19 +7253,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B126" t="s">
+        <v>235</v>
+      </c>
+      <c r="C126" t="s">
         <v>236</v>
       </c>
-      <c r="C126" t="s">
-        <v>237</v>
-      </c>
       <c r="D126" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E126" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -7277,19 +7273,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B127" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C127" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D127" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E127" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -7297,19 +7293,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B128" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C128" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D128" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E128" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -7317,19 +7313,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B129" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C129" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D129" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E129" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -7337,19 +7333,19 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B130" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C130" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D130" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E130" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -7357,19 +7353,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B131" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C131" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D131" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E131" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -7377,19 +7373,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B132" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C132" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D132" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E132" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F132">
         <v>0.05</v>
@@ -7397,93 +7393,22 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B133" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C133" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D133" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E133" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F133">
         <v>0.02</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6233F52-2264-4A30-A87C-CDBF9974F41E}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard/server/resources/counterparty_targets_2026.xlsx
+++ b/dashboard/server/resources/counterparty_targets_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\B2B\data_analysis_ai\dashboard\server\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E370E116-652C-410E-881A-292AE7ACE46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331A84DE-F548-4975-8536-6EE95D5BD41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BF30D8BD-E8FB-4CB0-B3F0-05A8332F606C}"/>
+    <workbookView xWindow="22932" yWindow="-72" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BF30D8BD-E8FB-4CB0-B3F0-05A8332F606C}"/>
   </bookViews>
   <sheets>
     <sheet name="26 출강 타겟" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="276">
   <si>
     <t>티어</t>
   </si>
@@ -354,18 +354,12 @@
     <t>공공사업본부</t>
   </si>
   <si>
-    <t>카카오테크캠퍼스</t>
-  </si>
-  <si>
     <t>이현진</t>
   </si>
   <si>
     <t>기업교육 2팀 1파트</t>
   </si>
   <si>
-    <t>카카오창작재단</t>
-  </si>
-  <si>
     <t>현대자동차</t>
   </si>
   <si>
@@ -411,18 +405,12 @@
     <t>서울아산병원</t>
   </si>
   <si>
-    <t>** 어학 CP</t>
-  </si>
-  <si>
     <t>손지훈</t>
   </si>
   <si>
     <t>신한투자증권</t>
   </si>
   <si>
-    <t>동국제강그룹</t>
-  </si>
-  <si>
     <t>김민선</t>
   </si>
   <si>
@@ -504,9 +492,6 @@
     <t>농협경제지주</t>
   </si>
   <si>
-    <t>신세계남산</t>
-  </si>
-  <si>
     <t>아주</t>
   </si>
   <si>
@@ -592,9 +577,6 @@
   </si>
   <si>
     <t>에이치디한국조선해양</t>
-  </si>
-  <si>
-    <t>가톨릭관동대병원</t>
   </si>
   <si>
     <t>라이나생명</t>
@@ -876,6 +858,46 @@
   </si>
   <si>
     <t>에스케이엠앤서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가톨릭관동대학교 국제성모병원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동국홀딩스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어학CP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신세계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나금융그룹 디지털부문(CDO)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신세계남산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CKUM(꿈) 아카데미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연구개발본부 2파트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동국제강그룹 인재개발원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1269,16 +1291,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF9C648-897F-4933-AE23-AECAF1223738}">
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.375" bestFit="1" customWidth="1"/>
@@ -1415,7 +1437,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -1515,7 +1537,7 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -1815,7 +1837,7 @@
         <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D27" t="s">
         <v>67</v>
@@ -1835,7 +1857,7 @@
         <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D28" t="s">
         <v>38</v>
@@ -1855,7 +1877,7 @@
         <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D29" t="s">
         <v>38</v>
@@ -1995,7 +2017,7 @@
         <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D36" t="s">
         <v>96</v>
@@ -2015,7 +2037,7 @@
         <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D37" t="s">
         <v>98</v>
@@ -2035,7 +2057,7 @@
         <v>26</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>28</v>
@@ -2052,10 +2074,10 @@
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
@@ -2072,10 +2094,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>38</v>
@@ -2152,16 +2174,16 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
+        <v>270</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
         <v>105</v>
       </c>
-      <c r="C44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" t="s">
-        <v>106</v>
-      </c>
       <c r="E44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F44">
         <v>4</v>
@@ -2172,19 +2194,19 @@
         <v>19</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C45" t="s">
-        <v>64</v>
+        <v>274</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2192,19 +2214,19 @@
         <v>19</v>
       </c>
       <c r="B46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
         <v>109</v>
       </c>
-      <c r="C46" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" t="s">
-        <v>111</v>
-      </c>
       <c r="E46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F46">
-        <v>7.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2212,19 +2234,19 @@
         <v>19</v>
       </c>
       <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" t="s">
         <v>109</v>
       </c>
-      <c r="C47" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" t="s">
-        <v>111</v>
-      </c>
       <c r="E47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2232,19 +2254,19 @@
         <v>19</v>
       </c>
       <c r="B48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" t="s">
         <v>109</v>
       </c>
-      <c r="C48" t="s">
-        <v>112</v>
-      </c>
-      <c r="D48" t="s">
-        <v>111</v>
-      </c>
       <c r="E48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F48">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2252,19 +2274,19 @@
         <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="C49" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" t="s">
         <v>113</v>
       </c>
-      <c r="D49" t="s">
-        <v>111</v>
-      </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2272,19 +2294,19 @@
         <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="D50" t="s">
         <v>115</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F50">
-        <v>0.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2292,19 +2314,19 @@
         <v>19</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D51" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2312,16 +2334,16 @@
         <v>19</v>
       </c>
       <c r="B52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" t="s">
         <v>119</v>
       </c>
-      <c r="C52" t="s">
-        <v>64</v>
-      </c>
-      <c r="D52" t="s">
-        <v>106</v>
-      </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2332,13 +2354,13 @@
         <v>19</v>
       </c>
       <c r="B53" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" t="s">
+        <v>64</v>
+      </c>
+      <c r="D53" t="s">
         <v>120</v>
-      </c>
-      <c r="C53" t="s">
-        <v>64</v>
-      </c>
-      <c r="D53" t="s">
-        <v>121</v>
       </c>
       <c r="E53" t="s">
         <v>103</v>
@@ -2352,13 +2374,13 @@
         <v>19</v>
       </c>
       <c r="B54" t="s">
-        <v>263</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
         <v>64</v>
       </c>
       <c r="D54" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E54" t="s">
         <v>103</v>
@@ -2372,13 +2394,13 @@
         <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>123</v>
+        <v>268</v>
       </c>
       <c r="C55" t="s">
         <v>64</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E55" t="s">
         <v>103</v>
@@ -2392,13 +2414,13 @@
         <v>19</v>
       </c>
       <c r="B56" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C56" t="s">
         <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E56" t="s">
         <v>103</v>
@@ -2412,7 +2434,7 @@
         <v>19</v>
       </c>
       <c r="B57" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2432,19 +2454,19 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="C58" t="s">
-        <v>64</v>
+        <v>275</v>
       </c>
       <c r="D58" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="E58" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2452,19 +2474,19 @@
         <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C59" t="s">
         <v>64</v>
       </c>
       <c r="D59" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F59">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2472,19 +2494,19 @@
         <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C60" t="s">
         <v>64</v>
       </c>
       <c r="D60" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2492,19 +2514,19 @@
         <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C61" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="D61" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2512,19 +2534,19 @@
         <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="D62" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E62" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F62">
-        <v>1.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2532,56 +2554,56 @@
         <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F63">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
         <v>132</v>
       </c>
       <c r="C64" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="D64" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E64" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="C65" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="D65" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E65" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -2589,19 +2611,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B66" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C66" t="s">
-        <v>64</v>
+        <v>242</v>
       </c>
       <c r="D66" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="E66" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2612,19 +2634,19 @@
         <v>39</v>
       </c>
       <c r="B67" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D67" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2632,16 +2654,16 @@
         <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="D68" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E68" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2652,19 +2674,19 @@
         <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C69" t="s">
-        <v>248</v>
+        <v>30</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="E69" t="s">
         <v>103</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2672,19 +2694,19 @@
         <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D70" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2692,16 +2714,16 @@
         <v>39</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C71" t="s">
+        <v>147</v>
+      </c>
+      <c r="D71" t="s">
         <v>145</v>
       </c>
-      <c r="D71" t="s">
-        <v>144</v>
-      </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2712,19 +2734,19 @@
         <v>39</v>
       </c>
       <c r="B72" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C72" t="s">
-        <v>256</v>
+        <v>149</v>
       </c>
       <c r="D72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E72" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -2732,19 +2754,19 @@
         <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D73" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E73" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F73">
-        <v>0.96</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -2752,19 +2774,19 @@
         <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
+        <v>269</v>
       </c>
       <c r="C74" t="s">
-        <v>145</v>
+        <v>272</v>
       </c>
       <c r="D74" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F74">
-        <v>0.11</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -2772,19 +2794,19 @@
         <v>39</v>
       </c>
       <c r="B75" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C75" t="s">
-        <v>151</v>
+        <v>261</v>
       </c>
       <c r="D75" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E75" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -2792,19 +2814,19 @@
         <v>39</v>
       </c>
       <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" t="s">
         <v>152</v>
       </c>
-      <c r="C76" t="s">
-        <v>153</v>
-      </c>
-      <c r="D76" t="s">
-        <v>149</v>
-      </c>
       <c r="E76" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F76">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -2818,13 +2840,13 @@
         <v>64</v>
       </c>
       <c r="D77" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F77">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2832,19 +2854,19 @@
         <v>39</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
+        <v>254</v>
       </c>
       <c r="C78" t="s">
         <v>64</v>
       </c>
       <c r="D78" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F78">
-        <v>1.5</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2852,19 +2874,19 @@
         <v>39</v>
       </c>
       <c r="B79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C79" t="s">
-        <v>267</v>
+        <v>64</v>
       </c>
       <c r="D79" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="E79" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F79">
-        <v>0.17</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2872,19 +2894,19 @@
         <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C80" t="s">
         <v>64</v>
       </c>
       <c r="D80" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="E80" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F80">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2892,16 +2914,16 @@
         <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C81" t="s">
         <v>64</v>
       </c>
       <c r="D81" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E81" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -2912,19 +2934,19 @@
         <v>39</v>
       </c>
       <c r="B82" t="s">
-        <v>260</v>
+        <v>158</v>
       </c>
       <c r="C82" t="s">
         <v>64</v>
       </c>
       <c r="D82" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E82" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F82">
-        <v>1.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2932,19 +2954,19 @@
         <v>39</v>
       </c>
       <c r="B83" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C83" t="s">
         <v>64</v>
       </c>
       <c r="D83" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E83" t="s">
         <v>103</v>
       </c>
       <c r="F83">
-        <v>1.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2952,19 +2974,19 @@
         <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C84" t="s">
         <v>64</v>
       </c>
       <c r="D84" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="E84" t="s">
         <v>103</v>
       </c>
       <c r="F84">
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2972,19 +2994,19 @@
         <v>39</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D85" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E85" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2992,19 +3014,19 @@
         <v>39</v>
       </c>
       <c r="B86" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C86" t="s">
         <v>64</v>
       </c>
       <c r="D86" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="E86" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -3012,7 +3034,7 @@
         <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C87" t="s">
         <v>64</v>
@@ -3024,107 +3046,107 @@
         <v>103</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B88" t="s">
-        <v>165</v>
+        <v>62</v>
       </c>
       <c r="C88" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="E88" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B89" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="D89" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="E89" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="F89">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B90" t="s">
-        <v>166</v>
+        <v>62</v>
       </c>
       <c r="C90" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D90" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E90" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F90">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B91" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="C91" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="D91" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="E91" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F91">
-        <v>1.44</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B92" t="s">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="C92" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="E92" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F92">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3132,19 +3154,19 @@
         <v>61</v>
       </c>
       <c r="B93" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>240</v>
       </c>
       <c r="D93" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E93" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F93">
-        <v>0.88</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3152,19 +3174,19 @@
         <v>61</v>
       </c>
       <c r="B94" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="C94" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D94" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E94" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -3172,19 +3194,19 @@
         <v>61</v>
       </c>
       <c r="B95" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C95" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="D95" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="E95" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="F95">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -3192,19 +3214,19 @@
         <v>61</v>
       </c>
       <c r="B96" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C96" t="s">
-        <v>170</v>
+        <v>64</v>
       </c>
       <c r="D96" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E96" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F96">
-        <v>0.02</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -3212,19 +3234,19 @@
         <v>61</v>
       </c>
       <c r="B97" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="C97" t="s">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="D97" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E97" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F97">
-        <v>0.5</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -3232,19 +3254,19 @@
         <v>61</v>
       </c>
       <c r="B98" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C98" t="s">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="D98" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E98" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F98">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -3252,19 +3274,19 @@
         <v>61</v>
       </c>
       <c r="B99" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="C99" t="s">
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="D99" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="E99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F99">
-        <v>0.28000000000000003</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -3272,19 +3294,19 @@
         <v>61</v>
       </c>
       <c r="B100" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="C100" t="s">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="D100" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E100" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -3292,19 +3314,19 @@
         <v>61</v>
       </c>
       <c r="B101" t="s">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="C101" t="s">
         <v>64</v>
       </c>
       <c r="D101" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="E101" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F101">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -3312,19 +3334,19 @@
         <v>61</v>
       </c>
       <c r="B102" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C102" t="s">
         <v>64</v>
       </c>
       <c r="D102" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="E102" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F102">
-        <v>0.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -3332,19 +3354,19 @@
         <v>61</v>
       </c>
       <c r="B103" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C103" t="s">
         <v>64</v>
       </c>
       <c r="D103" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="E103" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F103">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -3352,19 +3374,19 @@
         <v>61</v>
       </c>
       <c r="B104" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="C104" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D104" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="E104" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F104">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -3372,19 +3394,19 @@
         <v>61</v>
       </c>
       <c r="B105" t="s">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="C105" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="D105" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E105" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F105">
-        <v>0.6</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -3392,19 +3414,19 @@
         <v>61</v>
       </c>
       <c r="B106" t="s">
-        <v>270</v>
+        <v>175</v>
       </c>
       <c r="C106" t="s">
         <v>64</v>
       </c>
       <c r="D106" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="E106" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F106">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -3412,19 +3434,19 @@
         <v>61</v>
       </c>
       <c r="B107" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C107" t="s">
-        <v>64</v>
+        <v>177</v>
       </c>
       <c r="D107" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="E107" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -3432,119 +3454,119 @@
         <v>61</v>
       </c>
       <c r="B108" t="s">
-        <v>179</v>
+        <v>256</v>
       </c>
       <c r="C108" t="s">
         <v>64</v>
       </c>
       <c r="D108" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E108" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B109" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="C109" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D109" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E109" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B110" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C110" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D110" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E110" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="F110">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B111" t="s">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="C111" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D111" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E111" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F111">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B112" t="s">
-        <v>181</v>
+        <v>251</v>
       </c>
       <c r="C112" t="s">
-        <v>182</v>
+        <v>110</v>
       </c>
       <c r="D112" t="s">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c r="E112" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F112">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B113" t="s">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="C113" t="s">
-        <v>64</v>
+        <v>241</v>
       </c>
       <c r="D113" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E113" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F113">
-        <v>0.5</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -3552,19 +3574,19 @@
         <v>82</v>
       </c>
       <c r="B114" t="s">
-        <v>183</v>
+        <v>266</v>
       </c>
       <c r="C114" t="s">
-        <v>64</v>
+        <v>273</v>
       </c>
       <c r="D114" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="E114" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F114">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3572,19 +3594,19 @@
         <v>82</v>
       </c>
       <c r="B115" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="C115" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D115" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="E115" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -3592,19 +3614,19 @@
         <v>82</v>
       </c>
       <c r="B116" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="C116" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D116" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E116" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F116">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -3612,19 +3634,19 @@
         <v>82</v>
       </c>
       <c r="B117" t="s">
-        <v>257</v>
+        <v>182</v>
       </c>
       <c r="C117" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="D117" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E117" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -3632,19 +3654,19 @@
         <v>82</v>
       </c>
       <c r="B118" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C118" t="s">
-        <v>247</v>
+        <v>64</v>
       </c>
       <c r="D118" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E118" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F118">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -3652,19 +3674,19 @@
         <v>82</v>
       </c>
       <c r="B119" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C119" t="s">
-        <v>64</v>
+        <v>258</v>
       </c>
       <c r="D119" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E119" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F119">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -3672,19 +3694,19 @@
         <v>82</v>
       </c>
       <c r="B120" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C120" t="s">
         <v>64</v>
       </c>
       <c r="D120" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F120">
-        <v>0.36</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -3692,19 +3714,19 @@
         <v>82</v>
       </c>
       <c r="B121" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C121" t="s">
         <v>64</v>
       </c>
       <c r="D121" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="E121" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F121">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -3712,19 +3734,19 @@
         <v>82</v>
       </c>
       <c r="B122" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C122" t="s">
         <v>64</v>
       </c>
       <c r="D122" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="E122" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F122">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -3732,19 +3754,19 @@
         <v>82</v>
       </c>
       <c r="B123" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C123" t="s">
         <v>64</v>
       </c>
       <c r="D123" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E123" t="s">
         <v>103</v>
       </c>
       <c r="F123">
-        <v>0.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -3752,10 +3774,10 @@
         <v>82</v>
       </c>
       <c r="B124" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C124" t="s">
-        <v>264</v>
+        <v>64</v>
       </c>
       <c r="D124" t="s">
         <v>122</v>
@@ -3764,7 +3786,7 @@
         <v>103</v>
       </c>
       <c r="F124">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -3772,19 +3794,19 @@
         <v>82</v>
       </c>
       <c r="B125" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C125" t="s">
         <v>64</v>
       </c>
       <c r="D125" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E125" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F125">
-        <v>0.28999999999999998</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -3792,19 +3814,19 @@
         <v>82</v>
       </c>
       <c r="B126" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="C126" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="D126" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="E126" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F126">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -3812,16 +3834,16 @@
         <v>82</v>
       </c>
       <c r="B127" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C127" t="s">
         <v>64</v>
       </c>
       <c r="D127" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="E127" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -3832,96 +3854,96 @@
         <v>82</v>
       </c>
       <c r="B128" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C128" t="s">
         <v>64</v>
       </c>
       <c r="D128" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E128" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="B129" t="s">
         <v>195</v>
       </c>
       <c r="C129" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D129" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E129" t="s">
         <v>103</v>
       </c>
       <c r="F129">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="B130" t="s">
         <v>196</v>
       </c>
       <c r="C130" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D130" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E130" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="F130">
-        <v>0.4</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="B131" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="C131" t="s">
         <v>197</v>
       </c>
       <c r="D131" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E131" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="F131">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="B132" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C132" t="s">
-        <v>64</v>
+        <v>243</v>
       </c>
       <c r="D132" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="E132" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -3929,199 +3951,199 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="B133" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C133" t="s">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="D133" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="E133" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F133">
-        <v>0.4</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B134" t="s">
         <v>201</v>
       </c>
       <c r="C134" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="D134" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="E134" t="s">
         <v>103</v>
       </c>
       <c r="F134">
-        <v>0.24</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B135" t="s">
         <v>202</v>
       </c>
       <c r="C135" t="s">
-        <v>34</v>
+        <v>203</v>
       </c>
       <c r="D135" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="E135" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="F135">
-        <v>0.19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B136" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C136" t="s">
-        <v>203</v>
+        <v>64</v>
       </c>
       <c r="D136" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="E136" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="F136">
-        <v>0.02</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B137" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C137" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="D137" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="E137" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B138" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C138" t="s">
-        <v>206</v>
+        <v>64</v>
       </c>
       <c r="D138" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E138" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F138">
-        <v>0.16</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B139" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C139" t="s">
         <v>64</v>
       </c>
       <c r="D139" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E139" t="s">
         <v>103</v>
       </c>
       <c r="F139">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B140" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C140" t="s">
-        <v>209</v>
+        <v>259</v>
       </c>
       <c r="D140" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="E140" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B141" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C141" t="s">
         <v>64</v>
       </c>
       <c r="D141" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E141" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F141">
-        <v>0.37</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B142" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C142" t="s">
-        <v>268</v>
+        <v>64</v>
       </c>
       <c r="D142" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="E142" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F142">
         <v>0.15</v>
@@ -4129,196 +4151,196 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B143" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C143" t="s">
         <v>64</v>
       </c>
       <c r="D143" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E143" t="s">
         <v>103</v>
       </c>
       <c r="F143">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B144" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C144" t="s">
         <v>64</v>
       </c>
       <c r="D144" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E144" t="s">
         <v>103</v>
       </c>
       <c r="F144">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B145" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C145" t="s">
-        <v>265</v>
+        <v>64</v>
       </c>
       <c r="D145" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E145" t="s">
         <v>103</v>
       </c>
       <c r="F145">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B146" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C146" t="s">
         <v>64</v>
       </c>
       <c r="D146" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E146" t="s">
         <v>103</v>
       </c>
       <c r="F146">
-        <v>0.2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B147" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C147" t="s">
         <v>64</v>
       </c>
       <c r="D147" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E147" t="s">
         <v>103</v>
       </c>
       <c r="F147">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B148" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C148" t="s">
         <v>64</v>
       </c>
       <c r="D148" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E148" t="s">
         <v>103</v>
       </c>
       <c r="F148">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B149" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C149" t="s">
         <v>64</v>
       </c>
       <c r="D149" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="E149" t="s">
         <v>103</v>
       </c>
       <c r="F149">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B150" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C150" t="s">
         <v>64</v>
       </c>
       <c r="D150" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="E150" t="s">
         <v>103</v>
       </c>
       <c r="F150">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B151" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C151" t="s">
         <v>64</v>
       </c>
       <c r="D151" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="E151" t="s">
         <v>103</v>
       </c>
       <c r="F151">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B152" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C152" t="s">
         <v>64</v>
       </c>
       <c r="D152" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E152" t="s">
         <v>103</v>
@@ -4329,16 +4351,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B153" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C153" t="s">
         <v>64</v>
       </c>
       <c r="D153" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E153" t="s">
         <v>103</v>
@@ -4349,27 +4371,27 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B154" t="s">
+        <v>220</v>
+      </c>
+      <c r="C154" t="s">
         <v>221</v>
       </c>
-      <c r="C154" t="s">
-        <v>64</v>
-      </c>
       <c r="D154" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="E154" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B155" t="s">
         <v>222</v>
@@ -4378,10 +4400,10 @@
         <v>64</v>
       </c>
       <c r="D155" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="E155" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -4389,7 +4411,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B156" t="s">
         <v>223</v>
@@ -4398,10 +4420,10 @@
         <v>64</v>
       </c>
       <c r="D156" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E156" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -4409,107 +4431,107 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="B157" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C157" t="s">
         <v>64</v>
       </c>
       <c r="D157" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="E157" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="B158" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C158" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D158" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="E158" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="F158">
-        <v>0</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="B159" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C159" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D159" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="E159" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F159">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="B160" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C160" t="s">
-        <v>64</v>
+        <v>230</v>
       </c>
       <c r="D160" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="E160" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="B161" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="C161" t="s">
-        <v>64</v>
+        <v>252</v>
       </c>
       <c r="D161" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E161" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F161">
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B162" t="s">
         <v>231</v>
@@ -4518,212 +4540,112 @@
         <v>64</v>
       </c>
       <c r="D162" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="E162" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F162">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B163" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C163" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D163" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="E163" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="F163">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B164" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C164" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="D164" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="E164" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F164">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B165" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="C165" t="s">
-        <v>236</v>
+        <v>64</v>
       </c>
       <c r="D165" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E165" t="s">
         <v>103</v>
       </c>
       <c r="F165">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B166" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="C166" t="s">
-        <v>258</v>
+        <v>64</v>
       </c>
       <c r="D166" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E166" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F166">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B167" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C167" t="s">
         <v>64</v>
       </c>
       <c r="D167" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E167" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F167">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>230</v>
-      </c>
-      <c r="B168" t="s">
-        <v>233</v>
-      </c>
-      <c r="C168" t="s">
-        <v>64</v>
-      </c>
-      <c r="D168" t="s">
-        <v>157</v>
-      </c>
-      <c r="E168" t="s">
-        <v>107</v>
-      </c>
-      <c r="F168">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>230</v>
-      </c>
-      <c r="B169" t="s">
-        <v>238</v>
-      </c>
-      <c r="C169" t="s">
-        <v>64</v>
-      </c>
-      <c r="D169" t="s">
-        <v>130</v>
-      </c>
-      <c r="E169" t="s">
-        <v>107</v>
-      </c>
-      <c r="F169">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>230</v>
-      </c>
-      <c r="B170" t="s">
-        <v>269</v>
-      </c>
-      <c r="C170" t="s">
-        <v>64</v>
-      </c>
-      <c r="D170" t="s">
-        <v>121</v>
-      </c>
-      <c r="E170" t="s">
-        <v>103</v>
-      </c>
-      <c r="F170">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
-        <v>230</v>
-      </c>
-      <c r="B171" t="s">
-        <v>239</v>
-      </c>
-      <c r="C171" t="s">
-        <v>64</v>
-      </c>
-      <c r="D171" t="s">
-        <v>115</v>
-      </c>
-      <c r="E171" t="s">
-        <v>103</v>
-      </c>
-      <c r="F171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
-        <v>230</v>
-      </c>
-      <c r="B172" t="s">
-        <v>240</v>
-      </c>
-      <c r="C172" t="s">
-        <v>64</v>
-      </c>
-      <c r="D172" t="s">
-        <v>121</v>
-      </c>
-      <c r="E172" t="s">
-        <v>103</v>
-      </c>
-      <c r="F172">
         <v>0</v>
       </c>
     </row>
@@ -4735,16 +4657,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F18B4A-CD5C-4B9F-ADEF-B0399A504A71}">
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F124" sqref="F124"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.625" customWidth="1"/>
     <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.125" bestFit="1" customWidth="1"/>
@@ -4836,16 +4758,16 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
         <v>105</v>
       </c>
-      <c r="C5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4856,19 +4778,19 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
         <v>108</v>
       </c>
-      <c r="C6" t="s">
-        <v>64</v>
-      </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -4876,19 +4798,19 @@
         <v>19</v>
       </c>
       <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
         <v>109</v>
       </c>
-      <c r="C7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" t="s">
-        <v>111</v>
-      </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -4896,19 +4818,19 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
         <v>109</v>
       </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" t="s">
-        <v>111</v>
-      </c>
       <c r="E8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -4916,19 +4838,19 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
         <v>109</v>
       </c>
-      <c r="C9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" t="s">
-        <v>111</v>
-      </c>
       <c r="E9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -4936,19 +4858,19 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s">
         <v>113</v>
       </c>
-      <c r="D10" t="s">
-        <v>111</v>
-      </c>
       <c r="E10" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -4956,19 +4878,19 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
         <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F11">
-        <v>1.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -4976,19 +4898,19 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -4996,19 +4918,19 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
         <v>119</v>
       </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>106</v>
-      </c>
       <c r="E13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -5016,19 +4938,19 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
         <v>120</v>
       </c>
-      <c r="C14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" t="s">
-        <v>121</v>
-      </c>
       <c r="E14" t="s">
         <v>103</v>
       </c>
       <c r="F14">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -5036,19 +4958,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>263</v>
+        <v>121</v>
       </c>
       <c r="C15" t="s">
         <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E15" t="s">
         <v>103</v>
       </c>
       <c r="F15">
-        <v>3.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -5056,13 +4978,13 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>268</v>
       </c>
       <c r="C16" t="s">
         <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
         <v>103</v>
@@ -5076,13 +4998,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
         <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
         <v>103</v>
@@ -5096,7 +5018,7 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>64</v>
@@ -5116,16 +5038,16 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>267</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>275</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F19">
         <v>2</v>
@@ -5136,19 +5058,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
         <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -5156,19 +5078,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
         <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F21">
-        <v>2.2999999999999998</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -5176,19 +5098,19 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -5196,19 +5118,19 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -5216,59 +5138,59 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
         <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" t="s">
         <v>134</v>
       </c>
-      <c r="C26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>135</v>
       </c>
-      <c r="E26" t="s">
-        <v>107</v>
-      </c>
       <c r="F26">
-        <v>3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -5276,19 +5198,19 @@
         <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="F27">
-        <v>1.31</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -5296,19 +5218,19 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" t="s">
         <v>140</v>
       </c>
-      <c r="D28" t="s">
-        <v>138</v>
-      </c>
       <c r="E28" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F28">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -5316,19 +5238,19 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" t="s">
         <v>141</v>
       </c>
-      <c r="C29" t="s">
-        <v>248</v>
-      </c>
       <c r="D29" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F29">
-        <v>1.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -5339,16 +5261,16 @@
         <v>142</v>
       </c>
       <c r="C30" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" t="s">
         <v>143</v>
       </c>
-      <c r="D30" t="s">
-        <v>144</v>
-      </c>
       <c r="E30" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="F30">
-        <v>1.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -5359,13 +5281,13 @@
         <v>142</v>
       </c>
       <c r="C31" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -5376,19 +5298,19 @@
         <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -5399,16 +5321,16 @@
         <v>146</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -5419,16 +5341,16 @@
         <v>148</v>
       </c>
       <c r="C34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D34" t="s">
         <v>145</v>
       </c>
-      <c r="D34" t="s">
-        <v>149</v>
-      </c>
       <c r="E34" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F34">
-        <v>1.1599999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -5439,16 +5361,16 @@
         <v>150</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F35">
-        <v>1.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -5456,16 +5378,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>269</v>
       </c>
       <c r="C36" t="s">
-        <v>153</v>
+        <v>272</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="E36" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -5476,19 +5398,19 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>261</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -5496,16 +5418,16 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C38" t="s">
         <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -5516,19 +5438,19 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C39" t="s">
-        <v>267</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="E39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F39">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -5536,16 +5458,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>158</v>
+        <v>254</v>
       </c>
       <c r="C40" t="s">
         <v>64</v>
       </c>
       <c r="D40" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="E40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -5556,19 +5478,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C41" t="s">
         <v>64</v>
       </c>
       <c r="D41" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -5576,16 +5498,16 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>260</v>
+        <v>156</v>
       </c>
       <c r="C42" t="s">
         <v>64</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -5596,19 +5518,19 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s">
         <v>64</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="E43" t="s">
         <v>103</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -5616,7 +5538,7 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C44" t="s">
         <v>64</v>
@@ -5628,7 +5550,7 @@
         <v>103</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -5636,19 +5558,19 @@
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C45" t="s">
         <v>64</v>
       </c>
       <c r="D45" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
         <v>103</v>
       </c>
       <c r="F45">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -5656,19 +5578,19 @@
         <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C46" t="s">
         <v>64</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="E46" t="s">
         <v>103</v>
       </c>
       <c r="F46">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -5676,19 +5598,19 @@
         <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="D47" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E47" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F47">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -5696,16 +5618,16 @@
         <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
         <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="E48" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -5716,19 +5638,19 @@
         <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="E49" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F49">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -5736,16 +5658,16 @@
         <v>39</v>
       </c>
       <c r="B50" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C50" t="s">
         <v>64</v>
       </c>
       <c r="D50" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -5753,19 +5675,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -5773,22 +5695,22 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="D52" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E52" t="s">
         <v>103</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -5799,13 +5721,13 @@
         <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E53" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -5819,16 +5741,16 @@
         <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D54" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F54">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -5839,13 +5761,13 @@
         <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="D55" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E55" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -5856,16 +5778,16 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="D56" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E56" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -5876,16 +5798,16 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="C57" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E57" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -5896,19 +5818,19 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="D58" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E58" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -5916,16 +5838,16 @@
         <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="D59" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E59" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -5939,16 +5861,16 @@
         <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="D60" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E60" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F60">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -5956,16 +5878,16 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="C61" t="s">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="D61" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="E61" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -5976,16 +5898,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="C62" t="s">
         <v>64</v>
       </c>
       <c r="D62" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -5996,16 +5918,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="E63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -6016,16 +5938,16 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C64" t="s">
         <v>64</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="E64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -6036,16 +5958,16 @@
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>136</v>
+        <v>264</v>
       </c>
       <c r="C65" t="s">
         <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="E65" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -6056,19 +5978,19 @@
         <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C66" t="s">
         <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E66" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -6076,19 +5998,19 @@
         <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>270</v>
+        <v>174</v>
       </c>
       <c r="C67" t="s">
         <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="E67" t="s">
         <v>103</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -6096,19 +6018,19 @@
         <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="C68" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D68" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="E68" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F68">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -6116,19 +6038,19 @@
         <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>179</v>
+        <v>93</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="D69" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E69" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F69">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -6136,19 +6058,19 @@
         <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="C70" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D70" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F70">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -6156,16 +6078,16 @@
         <v>61</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="D71" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -6176,16 +6098,16 @@
         <v>61</v>
       </c>
       <c r="B72" t="s">
-        <v>180</v>
+        <v>256</v>
       </c>
       <c r="C72" t="s">
         <v>64</v>
       </c>
       <c r="D72" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E72" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -6193,19 +6115,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C73" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="D73" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -6213,22 +6135,22 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>262</v>
+        <v>85</v>
       </c>
       <c r="C74" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D74" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="F74">
-        <v>0.4</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -6236,16 +6158,16 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="C75" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D75" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="E75" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -6256,19 +6178,19 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>85</v>
+        <v>251</v>
       </c>
       <c r="C76" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="D76" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="E76" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F76">
-        <v>0.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -6276,16 +6198,16 @@
         <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="C77" t="s">
-        <v>88</v>
+        <v>241</v>
       </c>
       <c r="D77" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="E77" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -6296,16 +6218,16 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="C78" t="s">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -6316,16 +6238,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C79" t="s">
-        <v>247</v>
+        <v>64</v>
       </c>
       <c r="D79" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -6336,16 +6258,16 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C80" t="s">
         <v>64</v>
       </c>
       <c r="D80" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -6356,16 +6278,16 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C81" t="s">
         <v>64</v>
       </c>
       <c r="D81" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="E81" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -6376,16 +6298,16 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C82" t="s">
         <v>64</v>
       </c>
       <c r="D82" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="E82" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -6396,16 +6318,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C83" t="s">
-        <v>64</v>
+        <v>258</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="E83" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -6416,13 +6338,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C84" t="s">
         <v>64</v>
       </c>
       <c r="D84" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E84" t="s">
         <v>103</v>
@@ -6436,10 +6358,10 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C85" t="s">
-        <v>264</v>
+        <v>64</v>
       </c>
       <c r="D85" t="s">
         <v>122</v>
@@ -6456,19 +6378,19 @@
         <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C86" t="s">
         <v>64</v>
       </c>
       <c r="D86" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E86" t="s">
         <v>103</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -6476,19 +6398,19 @@
         <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C87" t="s">
         <v>64</v>
       </c>
       <c r="D87" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E87" t="s">
         <v>103</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -6496,19 +6418,19 @@
         <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C88" t="s">
         <v>64</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E88" t="s">
         <v>103</v>
       </c>
       <c r="F88">
-        <v>0.49</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -6516,19 +6438,19 @@
         <v>82</v>
       </c>
       <c r="B89" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C89" t="s">
         <v>64</v>
       </c>
       <c r="D89" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E89" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F89">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -6536,19 +6458,19 @@
         <v>82</v>
       </c>
       <c r="B90" t="s">
-        <v>195</v>
+        <v>253</v>
       </c>
       <c r="C90" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="D90" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="E90" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F90">
-        <v>0.15</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -6556,19 +6478,19 @@
         <v>82</v>
       </c>
       <c r="B91" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C91" t="s">
         <v>64</v>
       </c>
       <c r="D91" t="s">
+        <v>145</v>
+      </c>
+      <c r="E91" t="s">
         <v>135</v>
       </c>
-      <c r="E91" t="s">
-        <v>107</v>
-      </c>
       <c r="F91">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -6576,56 +6498,56 @@
         <v>82</v>
       </c>
       <c r="B92" t="s">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="C92" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="D92" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E92" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F92">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="B93" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C93" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D93" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="E93" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="F93">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="B94" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C94" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D94" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E94" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -6633,19 +6555,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B95" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C95" t="s">
-        <v>88</v>
+        <v>197</v>
       </c>
       <c r="D95" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="E95" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -6653,19 +6575,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B96" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C96" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="D96" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="E96" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -6673,39 +6595,39 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C97" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="D97" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="E97" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" t="s">
         <v>200</v>
       </c>
-      <c r="B98" t="s">
-        <v>204</v>
-      </c>
       <c r="C98" t="s">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="D98" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E98" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -6713,13 +6635,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B99" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C99" t="s">
-        <v>249</v>
+        <v>64</v>
       </c>
       <c r="D99" t="s">
         <v>122</v>
@@ -6728,44 +6650,44 @@
         <v>103</v>
       </c>
       <c r="F99">
-        <v>0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B100" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C100" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D100" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="E100" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B101" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C101" t="s">
         <v>64</v>
       </c>
       <c r="D101" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E101" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -6773,39 +6695,39 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B102" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C102" t="s">
-        <v>209</v>
+        <v>262</v>
       </c>
       <c r="D102" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E102" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F102">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C103" t="s">
         <v>64</v>
       </c>
       <c r="D103" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="E103" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -6813,19 +6735,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B104" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C104" t="s">
-        <v>268</v>
+        <v>64</v>
       </c>
       <c r="D104" t="s">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="E104" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -6833,16 +6755,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B105" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C105" t="s">
-        <v>64</v>
+        <v>259</v>
       </c>
       <c r="D105" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E105" t="s">
         <v>103</v>
@@ -6853,16 +6775,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B106" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C106" t="s">
         <v>64</v>
       </c>
       <c r="D106" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E106" t="s">
         <v>103</v>
@@ -6873,16 +6795,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B107" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C107" t="s">
-        <v>265</v>
+        <v>64</v>
       </c>
       <c r="D107" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E107" t="s">
         <v>103</v>
@@ -6893,16 +6815,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B108" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C108" t="s">
         <v>64</v>
       </c>
       <c r="D108" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E108" t="s">
         <v>103</v>
@@ -6913,16 +6835,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B109" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C109" t="s">
         <v>64</v>
       </c>
       <c r="D109" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="E109" t="s">
         <v>103</v>
@@ -6933,76 +6855,76 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C110" t="s">
         <v>64</v>
       </c>
       <c r="D110" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E110" t="s">
         <v>103</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B111" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C111" t="s">
         <v>64</v>
       </c>
       <c r="D111" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="E111" t="s">
         <v>103</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B112" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C112" t="s">
         <v>64</v>
       </c>
       <c r="D112" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E112" t="s">
         <v>103</v>
       </c>
       <c r="F112">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B113" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C113" t="s">
         <v>64</v>
       </c>
       <c r="D113" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="E113" t="s">
         <v>103</v>
@@ -7013,76 +6935,76 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B114" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C114" t="s">
         <v>64</v>
       </c>
       <c r="D114" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E114" t="s">
         <v>103</v>
       </c>
       <c r="F114">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B115" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C115" t="s">
         <v>64</v>
       </c>
       <c r="D115" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E115" t="s">
         <v>103</v>
       </c>
       <c r="F115">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B116" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C116" t="s">
         <v>64</v>
       </c>
       <c r="D116" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E116" t="s">
         <v>103</v>
       </c>
       <c r="F116">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B117" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C117" t="s">
         <v>64</v>
       </c>
       <c r="D117" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="E117" t="s">
         <v>103</v>
@@ -7093,39 +7015,39 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B118" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C118" t="s">
-        <v>64</v>
+        <v>221</v>
       </c>
       <c r="D118" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E118" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F118">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B119" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="C119" t="s">
         <v>64</v>
       </c>
       <c r="D119" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="E119" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F119">
         <v>0.1</v>
@@ -7133,79 +7055,79 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B120" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C120" t="s">
-        <v>227</v>
+        <v>64</v>
       </c>
       <c r="D120" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="E120" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="B121" t="s">
-        <v>271</v>
+        <v>225</v>
       </c>
       <c r="C121" t="s">
         <v>64</v>
       </c>
       <c r="D121" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="E121" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F121">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="B122" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C122" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D122" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="E122" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="F122">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B123" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C123" t="s">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="D123" t="s">
-        <v>106</v>
+        <v>152</v>
       </c>
       <c r="E123" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -7213,19 +7135,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
+        <v>224</v>
+      </c>
+      <c r="B124" t="s">
+        <v>229</v>
+      </c>
+      <c r="C124" t="s">
         <v>230</v>
       </c>
-      <c r="B124" t="s">
-        <v>232</v>
-      </c>
-      <c r="C124" t="s">
-        <v>52</v>
-      </c>
       <c r="D124" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="E124" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -7233,19 +7155,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B125" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="C125" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="D125" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="E125" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -7253,19 +7175,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B126" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C126" t="s">
-        <v>236</v>
+        <v>64</v>
       </c>
       <c r="D126" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E126" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -7273,19 +7195,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B127" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="C127" t="s">
         <v>64</v>
       </c>
       <c r="D127" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="E127" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -7293,19 +7215,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B128" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C128" t="s">
         <v>64</v>
       </c>
       <c r="D128" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E128" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -7313,19 +7235,19 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B129" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="C129" t="s">
         <v>64</v>
       </c>
       <c r="D129" t="s">
-        <v>157</v>
+        <v>119</v>
       </c>
       <c r="E129" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -7333,81 +7255,41 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B130" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C130" t="s">
         <v>64</v>
       </c>
       <c r="D130" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="E130" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B131" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="C131" t="s">
         <v>64</v>
       </c>
       <c r="D131" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E131" t="s">
         <v>103</v>
       </c>
       <c r="F131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>230</v>
-      </c>
-      <c r="B132" t="s">
-        <v>239</v>
-      </c>
-      <c r="C132" t="s">
-        <v>64</v>
-      </c>
-      <c r="D132" t="s">
-        <v>115</v>
-      </c>
-      <c r="E132" t="s">
-        <v>103</v>
-      </c>
-      <c r="F132">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>230</v>
-      </c>
-      <c r="B133" t="s">
-        <v>240</v>
-      </c>
-      <c r="C133" t="s">
-        <v>64</v>
-      </c>
-      <c r="D133" t="s">
-        <v>121</v>
-      </c>
-      <c r="E133" t="s">
-        <v>103</v>
-      </c>
-      <c r="F133">
         <v>0.02</v>
       </c>
     </row>

--- a/dashboard/server/resources/counterparty_targets_2026.xlsx
+++ b/dashboard/server/resources/counterparty_targets_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\B2B\data_analysis_ai\dashboard\server\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331A84DE-F548-4975-8536-6EE95D5BD41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3109D0A8-FDCB-4406-82C2-AC5561ABCFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-72" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BF30D8BD-E8FB-4CB0-B3F0-05A8332F606C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF30D8BD-E8FB-4CB0-B3F0-05A8332F606C}"/>
   </bookViews>
   <sheets>
     <sheet name="26 출강 타겟" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="277">
   <si>
     <t>티어</t>
   </si>
@@ -898,6 +898,10 @@
   </si>
   <si>
     <t>동국제강그룹 인재개발원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인프라운영팀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1293,23 +1297,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF9C648-897F-4933-AE23-AECAF1223738}">
   <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B126" sqref="B126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.3984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.8984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1329,7 +1333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1349,7 +1353,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1369,7 +1373,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1389,7 +1393,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1409,7 +1413,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1429,7 +1433,7 @@
         <v>5.03</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1449,7 +1453,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1469,7 +1473,7 @@
         <v>4.8099999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1489,7 +1493,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -1509,7 +1513,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1529,7 +1533,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1549,7 +1553,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1569,7 +1573,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -1589,7 +1593,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1609,7 +1613,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1629,7 +1633,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1649,7 +1653,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1669,7 +1673,7 @@
         <v>2.2200000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1689,7 +1693,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1709,7 +1713,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -1729,7 +1733,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -1749,7 +1753,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -1769,7 +1773,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -1789,7 +1793,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1809,7 +1813,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -1829,7 +1833,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -1849,7 +1853,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -1869,7 +1873,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -1889,7 +1893,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -1909,7 +1913,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -1929,7 +1933,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -1949,7 +1953,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -1969,7 +1973,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -1989,7 +1993,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -2009,7 +2013,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -2029,7 +2033,7 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>82</v>
       </c>
@@ -2049,7 +2053,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>19</v>
       </c>
@@ -2069,7 +2073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
@@ -2089,7 +2093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -2109,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>61</v>
       </c>
@@ -2129,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2149,7 +2153,7 @@
         <v>15.79</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2169,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -2189,7 +2193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -2209,7 +2213,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -2229,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -2249,7 +2253,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -2269,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -2289,7 +2293,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -2309,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -2329,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -2349,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -2369,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -2389,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -2409,7 +2413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -2429,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -2449,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -2469,7 +2473,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -2489,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -2509,7 +2513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -2529,7 +2533,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -2549,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -2569,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>39</v>
       </c>
@@ -2589,7 +2593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -2609,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>39</v>
       </c>
@@ -2629,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>39</v>
       </c>
@@ -2649,7 +2653,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>39</v>
       </c>
@@ -2669,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>39</v>
       </c>
@@ -2689,7 +2693,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>39</v>
       </c>
@@ -2709,7 +2713,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>39</v>
       </c>
@@ -2729,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>39</v>
       </c>
@@ -2749,7 +2753,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>39</v>
       </c>
@@ -2769,7 +2773,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>39</v>
       </c>
@@ -2789,7 +2793,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>39</v>
       </c>
@@ -2809,7 +2813,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>39</v>
       </c>
@@ -2829,7 +2833,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>39</v>
       </c>
@@ -2849,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -2869,7 +2873,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>39</v>
       </c>
@@ -2889,7 +2893,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>39</v>
       </c>
@@ -2909,7 +2913,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>39</v>
       </c>
@@ -2929,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>39</v>
       </c>
@@ -2949,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>39</v>
       </c>
@@ -2969,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>39</v>
       </c>
@@ -2989,7 +2993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>39</v>
       </c>
@@ -3009,7 +3013,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>39</v>
       </c>
@@ -3029,7 +3033,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -3049,7 +3053,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>61</v>
       </c>
@@ -3069,7 +3073,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>61</v>
       </c>
@@ -3089,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>61</v>
       </c>
@@ -3109,7 +3113,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>61</v>
       </c>
@@ -3129,7 +3133,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>61</v>
       </c>
@@ -3149,7 +3153,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>61</v>
       </c>
@@ -3169,7 +3173,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>61</v>
       </c>
@@ -3189,7 +3193,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>61</v>
       </c>
@@ -3209,7 +3213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>61</v>
       </c>
@@ -3229,7 +3233,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>61</v>
       </c>
@@ -3249,7 +3253,7 @@
         <v>1.87</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>61</v>
       </c>
@@ -3269,7 +3273,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>61</v>
       </c>
@@ -3289,7 +3293,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>61</v>
       </c>
@@ -3309,7 +3313,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>61</v>
       </c>
@@ -3329,7 +3333,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>61</v>
       </c>
@@ -3349,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>61</v>
       </c>
@@ -3369,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>61</v>
       </c>
@@ -3389,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>61</v>
       </c>
@@ -3409,7 +3413,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>61</v>
       </c>
@@ -3429,7 +3433,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>61</v>
       </c>
@@ -3449,7 +3453,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>61</v>
       </c>
@@ -3469,7 +3473,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>82</v>
       </c>
@@ -3489,7 +3493,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>82</v>
       </c>
@@ -3509,7 +3513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>82</v>
       </c>
@@ -3529,7 +3533,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>82</v>
       </c>
@@ -3549,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>82</v>
       </c>
@@ -3569,7 +3573,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>82</v>
       </c>
@@ -3589,7 +3593,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>82</v>
       </c>
@@ -3609,7 +3613,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>82</v>
       </c>
@@ -3629,7 +3633,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>82</v>
       </c>
@@ -3649,7 +3653,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>82</v>
       </c>
@@ -3669,7 +3673,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>82</v>
       </c>
@@ -3689,7 +3693,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>82</v>
       </c>
@@ -3709,7 +3713,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>82</v>
       </c>
@@ -3729,7 +3733,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>82</v>
       </c>
@@ -3749,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>82</v>
       </c>
@@ -3769,7 +3773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>82</v>
       </c>
@@ -3789,7 +3793,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>82</v>
       </c>
@@ -3809,7 +3813,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>82</v>
       </c>
@@ -3829,7 +3833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>82</v>
       </c>
@@ -3849,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>82</v>
       </c>
@@ -3869,7 +3873,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>194</v>
       </c>
@@ -3889,7 +3893,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>194</v>
       </c>
@@ -3909,7 +3913,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>194</v>
       </c>
@@ -3929,7 +3933,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>194</v>
       </c>
@@ -3949,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>194</v>
       </c>
@@ -3969,7 +3973,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>194</v>
       </c>
@@ -3989,7 +3993,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>194</v>
       </c>
@@ -4009,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>194</v>
       </c>
@@ -4029,7 +4033,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>194</v>
       </c>
@@ -4049,7 +4053,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>194</v>
       </c>
@@ -4069,7 +4073,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>194</v>
       </c>
@@ -4089,7 +4093,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>194</v>
       </c>
@@ -4109,7 +4113,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>194</v>
       </c>
@@ -4129,7 +4133,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>194</v>
       </c>
@@ -4149,7 +4153,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>194</v>
       </c>
@@ -4169,7 +4173,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>194</v>
       </c>
@@ -4189,7 +4193,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>194</v>
       </c>
@@ -4209,7 +4213,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>194</v>
       </c>
@@ -4229,7 +4233,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>194</v>
       </c>
@@ -4249,7 +4253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>194</v>
       </c>
@@ -4269,7 +4273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>194</v>
       </c>
@@ -4289,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>194</v>
       </c>
@@ -4309,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>194</v>
       </c>
@@ -4329,7 +4333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>194</v>
       </c>
@@ -4349,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>194</v>
       </c>
@@ -4369,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>194</v>
       </c>
@@ -4389,7 +4393,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>194</v>
       </c>
@@ -4409,7 +4413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>194</v>
       </c>
@@ -4429,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>224</v>
       </c>
@@ -4449,7 +4453,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>224</v>
       </c>
@@ -4469,7 +4473,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>224</v>
       </c>
@@ -4489,7 +4493,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>224</v>
       </c>
@@ -4509,7 +4513,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>224</v>
       </c>
@@ -4529,7 +4533,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>224</v>
       </c>
@@ -4549,7 +4553,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>224</v>
       </c>
@@ -4569,7 +4573,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>224</v>
       </c>
@@ -4589,7 +4593,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>224</v>
       </c>
@@ -4609,7 +4613,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>224</v>
       </c>
@@ -4629,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>224</v>
       </c>
@@ -4659,21 +4663,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F18B4A-CD5C-4B9F-ADEF-B0399A504A71}">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.59765625" customWidth="1"/>
+    <col min="4" max="4" width="14.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4693,7 +4697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4713,7 +4717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -4733,7 +4737,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4753,7 +4757,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -4773,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -4793,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -4813,7 +4817,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4833,7 +4837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -4853,7 +4857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -4873,7 +4877,7 @@
         <v>1.97</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -4893,7 +4897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -4913,7 +4917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -4933,7 +4937,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -4953,7 +4957,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -4973,7 +4977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -4993,7 +4997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -5013,7 +5017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -5033,7 +5037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -5053,7 +5057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5073,7 +5077,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -5093,7 +5097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5113,7 +5117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -5133,7 +5137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -5153,7 +5157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -5173,7 +5177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -5193,7 +5197,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -5213,7 +5217,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -5233,7 +5237,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -5253,7 +5257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -5273,7 +5277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -5293,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>39</v>
       </c>
@@ -5313,7 +5317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -5333,7 +5337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -5353,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -5373,7 +5377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -5393,7 +5397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -5413,7 +5417,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>39</v>
       </c>
@@ -5433,7 +5437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -5453,7 +5457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5473,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -5493,7 +5497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>39</v>
       </c>
@@ -5513,7 +5517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -5533,7 +5537,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -5553,7 +5557,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -5573,7 +5577,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -5593,7 +5597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -5613,7 +5617,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>39</v>
       </c>
@@ -5633,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>39</v>
       </c>
@@ -5653,7 +5657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>39</v>
       </c>
@@ -5673,7 +5677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -5693,7 +5697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -5713,7 +5717,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>61</v>
       </c>
@@ -5733,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -5753,7 +5757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -5773,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -5793,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -5813,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -5833,7 +5837,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -5853,7 +5857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>61</v>
       </c>
@@ -5873,7 +5877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -5893,7 +5897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -5913,7 +5917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -5933,7 +5937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -5953,7 +5957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -5973,7 +5977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -5993,7 +5997,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>61</v>
       </c>
@@ -6013,7 +6017,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -6033,7 +6037,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>61</v>
       </c>
@@ -6053,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>61</v>
       </c>
@@ -6073,7 +6077,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>61</v>
       </c>
@@ -6093,7 +6097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>61</v>
       </c>
@@ -6113,7 +6117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -6133,7 +6137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -6153,7 +6157,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -6173,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -6193,7 +6197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -6213,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -6233,7 +6237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -6253,7 +6257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -6273,7 +6277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -6293,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -6313,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -6333,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -6353,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -6373,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>82</v>
       </c>
@@ -6393,7 +6397,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>82</v>
       </c>
@@ -6413,7 +6417,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>82</v>
       </c>
@@ -6433,7 +6437,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>82</v>
       </c>
@@ -6453,7 +6457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>82</v>
       </c>
@@ -6461,7 +6465,7 @@
         <v>253</v>
       </c>
       <c r="C90" t="s">
-        <v>191</v>
+        <v>276</v>
       </c>
       <c r="D90" t="s">
         <v>145</v>
@@ -6473,7 +6477,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>82</v>
       </c>
@@ -6493,7 +6497,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>82</v>
       </c>
@@ -6513,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>194</v>
       </c>
@@ -6533,7 +6537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>194</v>
       </c>
@@ -6553,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>194</v>
       </c>
@@ -6573,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>194</v>
       </c>
@@ -6593,7 +6597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>194</v>
       </c>
@@ -6613,7 +6617,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>194</v>
       </c>
@@ -6633,7 +6637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>194</v>
       </c>
@@ -6653,7 +6657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>194</v>
       </c>
@@ -6673,7 +6677,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>194</v>
       </c>
@@ -6693,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>194</v>
       </c>
@@ -6713,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>194</v>
       </c>
@@ -6733,7 +6737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>194</v>
       </c>
@@ -6753,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>194</v>
       </c>
@@ -6773,7 +6777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>194</v>
       </c>
@@ -6793,7 +6797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>194</v>
       </c>
@@ -6813,7 +6817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>194</v>
       </c>
@@ -6833,7 +6837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>194</v>
       </c>
@@ -6853,7 +6857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>194</v>
       </c>
@@ -6873,7 +6877,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>194</v>
       </c>
@@ -6893,7 +6897,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>194</v>
       </c>
@@ -6913,7 +6917,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>194</v>
       </c>
@@ -6933,7 +6937,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>194</v>
       </c>
@@ -6953,7 +6957,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>194</v>
       </c>
@@ -6973,7 +6977,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>194</v>
       </c>
@@ -6993,7 +6997,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>194</v>
       </c>
@@ -7013,7 +7017,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>194</v>
       </c>
@@ -7033,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>194</v>
       </c>
@@ -7053,7 +7057,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>194</v>
       </c>
@@ -7073,7 +7077,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>224</v>
       </c>
@@ -7093,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>224</v>
       </c>
@@ -7113,7 +7117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>224</v>
       </c>
@@ -7133,7 +7137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>224</v>
       </c>
@@ -7153,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>224</v>
       </c>
@@ -7173,7 +7177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>224</v>
       </c>
@@ -7193,7 +7197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>224</v>
       </c>
@@ -7213,7 +7217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>224</v>
       </c>
@@ -7233,7 +7237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>224</v>
       </c>
@@ -7253,7 +7257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>224</v>
       </c>
@@ -7273,7 +7277,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>224</v>
       </c>

--- a/dashboard/server/resources/counterparty_targets_2026.xlsx
+++ b/dashboard/server/resources/counterparty_targets_2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\B2B\data_analysis_ai\dashboard\server\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3109D0A8-FDCB-4406-82C2-AC5561ABCFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2E6DDD-F40A-436B-BE66-F1876507775F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF30D8BD-E8FB-4CB0-B3F0-05A8332F606C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="274">
   <si>
     <t>티어</t>
   </si>
@@ -486,9 +486,6 @@
     <t>코오롱</t>
   </si>
   <si>
-    <t>인사혁신실</t>
-  </si>
-  <si>
     <t>농협경제지주</t>
   </si>
   <si>
@@ -525,9 +522,6 @@
     <t>미래에셋생명</t>
   </si>
   <si>
-    <t>하나금융(하나카드)</t>
-  </si>
-  <si>
     <t>제이비금융지주</t>
   </si>
   <si>
@@ -570,9 +564,6 @@
     <t>한국타이어앤테크놀로지</t>
   </si>
   <si>
-    <t>HR개발팀</t>
-  </si>
-  <si>
     <t>두산</t>
   </si>
   <si>
@@ -681,9 +672,6 @@
     <t>디에스단석</t>
   </si>
   <si>
-    <t>지엘엔인터네셔널</t>
-  </si>
-  <si>
     <t>뷰노</t>
   </si>
   <si>
@@ -703,9 +691,6 @@
   </si>
   <si>
     <t>지원본부</t>
-  </si>
-  <si>
-    <t>SK엠앤서비스</t>
   </si>
   <si>
     <t>이스트소프트</t>
@@ -902,6 +887,14 @@
   </si>
   <si>
     <t>인프라운영팀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지엘엔인터내셔널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1297,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF9C648-897F-4933-AE23-AECAF1223738}">
   <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1441,7 +1434,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -1541,7 +1534,7 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D12" t="s">
         <v>32</v>
@@ -1841,7 +1834,7 @@
         <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D27" t="s">
         <v>67</v>
@@ -1861,7 +1854,7 @@
         <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D28" t="s">
         <v>38</v>
@@ -1881,7 +1874,7 @@
         <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D29" t="s">
         <v>38</v>
@@ -2021,7 +2014,7 @@
         <v>95</v>
       </c>
       <c r="C36" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D36" t="s">
         <v>96</v>
@@ -2041,7 +2034,7 @@
         <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D37" t="s">
         <v>98</v>
@@ -2061,7 +2054,7 @@
         <v>26</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>28</v>
@@ -2078,10 +2071,10 @@
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>13</v>
@@ -2098,10 +2091,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>38</v>
@@ -2178,7 +2171,7 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C44" t="s">
         <v>64</v>
@@ -2201,7 +2194,7 @@
         <v>107</v>
       </c>
       <c r="C45" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="D45" t="s">
         <v>109</v>
@@ -2358,7 +2351,7 @@
         <v>19</v>
       </c>
       <c r="B53" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C53" t="s">
         <v>64</v>
@@ -2398,7 +2391,7 @@
         <v>19</v>
       </c>
       <c r="B55" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C55" t="s">
         <v>64</v>
@@ -2458,10 +2451,10 @@
         <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C58" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D58" t="s">
         <v>124</v>
@@ -2621,7 +2614,7 @@
         <v>137</v>
       </c>
       <c r="C66" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D66" t="s">
         <v>102</v>
@@ -2661,7 +2654,7 @@
         <v>142</v>
       </c>
       <c r="C68" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D68" t="s">
         <v>143</v>
@@ -2741,7 +2734,7 @@
         <v>148</v>
       </c>
       <c r="C72" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="D72" t="s">
         <v>145</v>
@@ -2758,7 +2751,7 @@
         <v>39</v>
       </c>
       <c r="B73" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C73" t="s">
         <v>64</v>
@@ -2778,10 +2771,10 @@
         <v>39</v>
       </c>
       <c r="B74" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C74" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D74" t="s">
         <v>124</v>
@@ -2798,13 +2791,13 @@
         <v>39</v>
       </c>
       <c r="B75" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" t="s">
+        <v>256</v>
+      </c>
+      <c r="D75" t="s">
         <v>151</v>
-      </c>
-      <c r="C75" t="s">
-        <v>261</v>
-      </c>
-      <c r="D75" t="s">
-        <v>152</v>
       </c>
       <c r="E75" t="s">
         <v>106</v>
@@ -2818,13 +2811,13 @@
         <v>39</v>
       </c>
       <c r="B76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C76" t="s">
         <v>64</v>
       </c>
       <c r="D76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E76" t="s">
         <v>106</v>
@@ -2838,7 +2831,7 @@
         <v>39</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C77" t="s">
         <v>64</v>
@@ -2858,7 +2851,7 @@
         <v>39</v>
       </c>
       <c r="B78" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C78" t="s">
         <v>64</v>
@@ -2878,7 +2871,7 @@
         <v>39</v>
       </c>
       <c r="B79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C79" t="s">
         <v>64</v>
@@ -2898,7 +2891,7 @@
         <v>39</v>
       </c>
       <c r="B80" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C80" t="s">
         <v>64</v>
@@ -2918,7 +2911,7 @@
         <v>39</v>
       </c>
       <c r="B81" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C81" t="s">
         <v>64</v>
@@ -2938,7 +2931,7 @@
         <v>39</v>
       </c>
       <c r="B82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C82" t="s">
         <v>64</v>
@@ -2958,7 +2951,7 @@
         <v>39</v>
       </c>
       <c r="B83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C83" t="s">
         <v>64</v>
@@ -2978,7 +2971,7 @@
         <v>39</v>
       </c>
       <c r="B84" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C84" t="s">
         <v>64</v>
@@ -3018,13 +3011,13 @@
         <v>39</v>
       </c>
       <c r="B86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C86" t="s">
         <v>64</v>
       </c>
       <c r="D86" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E86" t="s">
         <v>106</v>
@@ -3038,7 +3031,7 @@
         <v>39</v>
       </c>
       <c r="B87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C87" t="s">
         <v>64</v>
@@ -3081,7 +3074,7 @@
         <v>62</v>
       </c>
       <c r="C89" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D89" t="s">
         <v>120</v>
@@ -3121,7 +3114,7 @@
         <v>62</v>
       </c>
       <c r="C91" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D91" t="s">
         <v>145</v>
@@ -3141,7 +3134,7 @@
         <v>62</v>
       </c>
       <c r="C92" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D92" t="s">
         <v>145</v>
@@ -3158,10 +3151,10 @@
         <v>61</v>
       </c>
       <c r="B93" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C93" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D93" t="s">
         <v>131</v>
@@ -3178,10 +3171,10 @@
         <v>61</v>
       </c>
       <c r="B94" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C94" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D94" t="s">
         <v>131</v>
@@ -3201,7 +3194,7 @@
         <v>77</v>
       </c>
       <c r="C95" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D95" t="s">
         <v>119</v>
@@ -3238,13 +3231,13 @@
         <v>61</v>
       </c>
       <c r="B97" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C97" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E97" t="s">
         <v>106</v>
@@ -3258,13 +3251,13 @@
         <v>61</v>
       </c>
       <c r="B98" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C98" t="s">
         <v>64</v>
       </c>
       <c r="D98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E98" t="s">
         <v>106</v>
@@ -3298,7 +3291,7 @@
         <v>61</v>
       </c>
       <c r="B100" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C100" t="s">
         <v>64</v>
@@ -3318,7 +3311,7 @@
         <v>61</v>
       </c>
       <c r="B101" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C101" t="s">
         <v>64</v>
@@ -3338,7 +3331,7 @@
         <v>61</v>
       </c>
       <c r="B102" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C102" t="s">
         <v>64</v>
@@ -3358,7 +3351,7 @@
         <v>61</v>
       </c>
       <c r="B103" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C103" t="s">
         <v>64</v>
@@ -3418,7 +3411,7 @@
         <v>61</v>
       </c>
       <c r="B106" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C106" t="s">
         <v>64</v>
@@ -3438,10 +3431,10 @@
         <v>61</v>
       </c>
       <c r="B107" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C107" t="s">
-        <v>177</v>
+        <v>273</v>
       </c>
       <c r="D107" t="s">
         <v>145</v>
@@ -3458,7 +3451,7 @@
         <v>61</v>
       </c>
       <c r="B108" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C108" t="s">
         <v>64</v>
@@ -3478,13 +3471,13 @@
         <v>82</v>
       </c>
       <c r="B109" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C109" t="s">
         <v>64</v>
       </c>
       <c r="D109" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E109" t="s">
         <v>106</v>
@@ -3538,7 +3531,7 @@
         <v>82</v>
       </c>
       <c r="B112" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C112" t="s">
         <v>110</v>
@@ -3558,10 +3551,10 @@
         <v>82</v>
       </c>
       <c r="B113" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C113" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D113" t="s">
         <v>124</v>
@@ -3578,10 +3571,10 @@
         <v>82</v>
       </c>
       <c r="B114" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C114" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D114" t="s">
         <v>131</v>
@@ -3598,7 +3591,7 @@
         <v>82</v>
       </c>
       <c r="B115" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C115" t="s">
         <v>64</v>
@@ -3618,13 +3611,13 @@
         <v>82</v>
       </c>
       <c r="B116" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C116" t="s">
         <v>64</v>
       </c>
       <c r="D116" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E116" t="s">
         <v>106</v>
@@ -3638,7 +3631,7 @@
         <v>82</v>
       </c>
       <c r="B117" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C117" t="s">
         <v>64</v>
@@ -3658,7 +3651,7 @@
         <v>82</v>
       </c>
       <c r="B118" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C118" t="s">
         <v>64</v>
@@ -3678,10 +3671,10 @@
         <v>82</v>
       </c>
       <c r="B119" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C119" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D119" t="s">
         <v>120</v>
@@ -3698,7 +3691,7 @@
         <v>82</v>
       </c>
       <c r="B120" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C120" t="s">
         <v>64</v>
@@ -3718,7 +3711,7 @@
         <v>82</v>
       </c>
       <c r="B121" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C121" t="s">
         <v>64</v>
@@ -3738,7 +3731,7 @@
         <v>82</v>
       </c>
       <c r="B122" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C122" t="s">
         <v>64</v>
@@ -3758,7 +3751,7 @@
         <v>82</v>
       </c>
       <c r="B123" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C123" t="s">
         <v>64</v>
@@ -3778,7 +3771,7 @@
         <v>82</v>
       </c>
       <c r="B124" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C124" t="s">
         <v>64</v>
@@ -3798,7 +3791,7 @@
         <v>82</v>
       </c>
       <c r="B125" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C125" t="s">
         <v>64</v>
@@ -3818,10 +3811,10 @@
         <v>82</v>
       </c>
       <c r="B126" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C126" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D126" t="s">
         <v>145</v>
@@ -3838,7 +3831,7 @@
         <v>82</v>
       </c>
       <c r="B127" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C127" t="s">
         <v>64</v>
@@ -3858,7 +3851,7 @@
         <v>82</v>
       </c>
       <c r="B128" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C128" t="s">
         <v>64</v>
@@ -3875,10 +3868,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B129" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C129" t="s">
         <v>88</v>
@@ -3895,10 +3888,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B130" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C130" t="s">
         <v>34</v>
@@ -3915,13 +3908,13 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
+        <v>191</v>
+      </c>
+      <c r="B131" t="s">
+        <v>193</v>
+      </c>
+      <c r="C131" t="s">
         <v>194</v>
-      </c>
-      <c r="B131" t="s">
-        <v>196</v>
-      </c>
-      <c r="C131" t="s">
-        <v>197</v>
       </c>
       <c r="D131" t="s">
         <v>79</v>
@@ -3935,13 +3928,13 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B132" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C132" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D132" t="s">
         <v>120</v>
@@ -3955,13 +3948,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B133" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C133" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D133" t="s">
         <v>105</v>
@@ -3975,10 +3968,10 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B134" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C134" t="s">
         <v>64</v>
@@ -3995,13 +3988,13 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B135" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C135" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D135" t="s">
         <v>145</v>
@@ -4015,10 +4008,10 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B136" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C136" t="s">
         <v>64</v>
@@ -4035,16 +4028,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B137" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C137" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D137" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E137" t="s">
         <v>106</v>
@@ -4055,10 +4048,10 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B138" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C138" t="s">
         <v>64</v>
@@ -4075,10 +4068,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B139" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C139" t="s">
         <v>64</v>
@@ -4095,13 +4088,13 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B140" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C140" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D140" t="s">
         <v>122</v>
@@ -4115,10 +4108,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B141" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C141" t="s">
         <v>64</v>
@@ -4135,10 +4128,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B142" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C142" t="s">
         <v>64</v>
@@ -4155,10 +4148,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B143" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C143" t="s">
         <v>64</v>
@@ -4175,10 +4168,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B144" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C144" t="s">
         <v>64</v>
@@ -4195,10 +4188,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B145" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C145" t="s">
         <v>64</v>
@@ -4215,10 +4208,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B146" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C146" t="s">
         <v>64</v>
@@ -4235,10 +4228,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B147" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C147" t="s">
         <v>64</v>
@@ -4255,10 +4248,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B148" t="s">
-        <v>214</v>
+        <v>272</v>
       </c>
       <c r="C148" t="s">
         <v>64</v>
@@ -4275,10 +4268,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B149" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C149" t="s">
         <v>64</v>
@@ -4295,10 +4288,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B150" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C150" t="s">
         <v>64</v>
@@ -4315,10 +4308,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B151" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C151" t="s">
         <v>64</v>
@@ -4335,10 +4328,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B152" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C152" t="s">
         <v>64</v>
@@ -4355,10 +4348,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B153" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C153" t="s">
         <v>64</v>
@@ -4375,13 +4368,13 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B154" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C154" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D154" t="s">
         <v>124</v>
@@ -4395,10 +4388,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B155" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="C155" t="s">
         <v>64</v>
@@ -4415,10 +4408,10 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B156" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C156" t="s">
         <v>64</v>
@@ -4435,10 +4428,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B157" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C157" t="s">
         <v>64</v>
@@ -4455,10 +4448,10 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B158" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C158" t="s">
         <v>52</v>
@@ -4475,16 +4468,16 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B159" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C159" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D159" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E159" t="s">
         <v>106</v>
@@ -4495,13 +4488,13 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
+        <v>219</v>
+      </c>
+      <c r="B160" t="s">
         <v>224</v>
       </c>
-      <c r="B160" t="s">
-        <v>229</v>
-      </c>
       <c r="C160" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D160" t="s">
         <v>119</v>
@@ -4515,13 +4508,13 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B161" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C161" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D161" t="s">
         <v>131</v>
@@ -4535,10 +4528,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B162" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C162" t="s">
         <v>64</v>
@@ -4555,16 +4548,16 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B163" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C163" t="s">
         <v>64</v>
       </c>
       <c r="D163" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E163" t="s">
         <v>106</v>
@@ -4575,10 +4568,10 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B164" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C164" t="s">
         <v>64</v>
@@ -4595,10 +4588,10 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B165" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C165" t="s">
         <v>64</v>
@@ -4615,10 +4608,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B166" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C166" t="s">
         <v>64</v>
@@ -4635,10 +4628,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B167" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C167" t="s">
         <v>64</v>
@@ -4661,10 +4654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F18B4A-CD5C-4B9F-ADEF-B0399A504A71}">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4762,7 +4755,7 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C5" t="s">
         <v>64</v>
@@ -4942,7 +4935,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C14" t="s">
         <v>64</v>
@@ -4982,7 +4975,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C16" t="s">
         <v>64</v>
@@ -5042,10 +5035,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C19" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D19" t="s">
         <v>124</v>
@@ -5205,7 +5198,7 @@
         <v>137</v>
       </c>
       <c r="C27" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="D27" t="s">
         <v>102</v>
@@ -5265,7 +5258,7 @@
         <v>142</v>
       </c>
       <c r="C30" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D30" t="s">
         <v>143</v>
@@ -5345,7 +5338,7 @@
         <v>148</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="D34" t="s">
         <v>145</v>
@@ -5362,7 +5355,7 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
         <v>64</v>
@@ -5382,10 +5375,10 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C36" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D36" t="s">
         <v>124</v>
@@ -5402,13 +5395,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" t="s">
+        <v>256</v>
+      </c>
+      <c r="D37" t="s">
         <v>151</v>
-      </c>
-      <c r="C37" t="s">
-        <v>261</v>
-      </c>
-      <c r="D37" t="s">
-        <v>152</v>
       </c>
       <c r="E37" t="s">
         <v>106</v>
@@ -5422,13 +5415,13 @@
         <v>39</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C38" t="s">
         <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E38" t="s">
         <v>106</v>
@@ -5442,7 +5435,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
         <v>64</v>
@@ -5462,7 +5455,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C40" t="s">
         <v>64</v>
@@ -5482,7 +5475,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C41" t="s">
         <v>64</v>
@@ -5502,7 +5495,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C42" t="s">
         <v>64</v>
@@ -5522,7 +5515,7 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C43" t="s">
         <v>64</v>
@@ -5542,7 +5535,7 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C44" t="s">
         <v>64</v>
@@ -5562,7 +5555,7 @@
         <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C45" t="s">
         <v>64</v>
@@ -5582,7 +5575,7 @@
         <v>39</v>
       </c>
       <c r="B46" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C46" t="s">
         <v>64</v>
@@ -5622,13 +5615,13 @@
         <v>39</v>
       </c>
       <c r="B48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C48" t="s">
         <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E48" t="s">
         <v>106</v>
@@ -5642,39 +5635,39 @@
         <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
         <v>64</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>163</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
@@ -5685,16 +5678,16 @@
         <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="D51" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E51" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
@@ -5705,16 +5698,16 @@
         <v>62</v>
       </c>
       <c r="C52" t="s">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F52">
-        <v>0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
@@ -5725,7 +5718,7 @@
         <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="D53" t="s">
         <v>145</v>
@@ -5745,7 +5738,7 @@
         <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" t="s">
         <v>145</v>
@@ -5762,16 +5755,16 @@
         <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="C55" t="s">
-        <v>166</v>
+        <v>235</v>
       </c>
       <c r="D55" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E55" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -5782,10 +5775,10 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C56" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="D56" t="s">
         <v>131</v>
@@ -5802,19 +5795,19 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" t="s">
         <v>167</v>
       </c>
-      <c r="C57" t="s">
-        <v>168</v>
-      </c>
       <c r="D57" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
@@ -5825,7 +5818,7 @@
         <v>77</v>
       </c>
       <c r="C58" t="s">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="D58" t="s">
         <v>119</v>
@@ -5834,7 +5827,7 @@
         <v>103</v>
       </c>
       <c r="F58">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
@@ -5845,13 +5838,13 @@
         <v>77</v>
       </c>
       <c r="C59" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D59" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E59" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -5862,13 +5855,13 @@
         <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>266</v>
       </c>
       <c r="D60" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="E60" t="s">
         <v>106</v>
@@ -5882,13 +5875,13 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C61" t="s">
-        <v>271</v>
+        <v>64</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E61" t="s">
         <v>106</v>
@@ -5902,13 +5895,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="C62" t="s">
         <v>64</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="E62" t="s">
         <v>106</v>
@@ -5922,13 +5915,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="C63" t="s">
         <v>64</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="E63" t="s">
         <v>106</v>
@@ -5942,16 +5935,16 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>172</v>
+        <v>259</v>
       </c>
       <c r="C64" t="s">
         <v>64</v>
       </c>
       <c r="D64" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="E64" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -5962,19 +5955,19 @@
         <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="C65" t="s">
         <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="E65" t="s">
         <v>103</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
@@ -5982,19 +5975,19 @@
         <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C66" t="s">
         <v>64</v>
       </c>
       <c r="D66" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E66" t="s">
         <v>103</v>
       </c>
       <c r="F66">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
@@ -6002,19 +5995,19 @@
         <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>174</v>
+        <v>83</v>
       </c>
       <c r="C67" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D67" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="E67" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F67">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
@@ -6022,19 +6015,19 @@
         <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C68" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="D68" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E68" t="s">
         <v>135</v>
       </c>
       <c r="F68">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
@@ -6042,19 +6035,19 @@
         <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="D69" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
@@ -6062,19 +6055,19 @@
         <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C70" t="s">
-        <v>64</v>
+        <v>273</v>
       </c>
       <c r="D70" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="E70" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="F70">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
@@ -6082,13 +6075,13 @@
         <v>61</v>
       </c>
       <c r="B71" t="s">
-        <v>176</v>
+        <v>251</v>
       </c>
       <c r="C71" t="s">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="D71" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E71" t="s">
         <v>135</v>
@@ -6099,19 +6092,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>256</v>
+        <v>175</v>
       </c>
       <c r="C72" t="s">
         <v>64</v>
       </c>
       <c r="D72" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -6122,19 +6115,19 @@
         <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="C73" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D73" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E73" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
@@ -6142,19 +6135,19 @@
         <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D74" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E74" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F74">
-        <v>0.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
@@ -6162,16 +6155,16 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>87</v>
+        <v>246</v>
       </c>
       <c r="C75" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="D75" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="E75" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -6182,13 +6175,13 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="C76" t="s">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="E76" t="s">
         <v>106</v>
@@ -6202,13 +6195,13 @@
         <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="C77" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="D77" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E77" t="s">
         <v>106</v>
@@ -6222,10 +6215,10 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>266</v>
+        <v>177</v>
       </c>
       <c r="C78" t="s">
-        <v>273</v>
+        <v>64</v>
       </c>
       <c r="D78" t="s">
         <v>131</v>
@@ -6242,13 +6235,13 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C79" t="s">
         <v>64</v>
       </c>
       <c r="D79" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="E79" t="s">
         <v>106</v>
@@ -6262,13 +6255,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C80" t="s">
         <v>64</v>
       </c>
       <c r="D80" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="E80" t="s">
         <v>106</v>
@@ -6282,16 +6275,16 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C81" t="s">
         <v>64</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E81" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -6302,13 +6295,13 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C82" t="s">
-        <v>64</v>
+        <v>253</v>
       </c>
       <c r="D82" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E82" t="s">
         <v>103</v>
@@ -6322,13 +6315,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C83" t="s">
-        <v>258</v>
+        <v>64</v>
       </c>
       <c r="D83" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E83" t="s">
         <v>103</v>
@@ -6342,13 +6335,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C84" t="s">
         <v>64</v>
       </c>
       <c r="D84" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E84" t="s">
         <v>103</v>
@@ -6362,19 +6355,19 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C85" t="s">
         <v>64</v>
       </c>
       <c r="D85" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E85" t="s">
         <v>103</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
@@ -6382,7 +6375,7 @@
         <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C86" t="s">
         <v>64</v>
@@ -6394,7 +6387,7 @@
         <v>103</v>
       </c>
       <c r="F86">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
@@ -6402,19 +6395,19 @@
         <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C87" t="s">
         <v>64</v>
       </c>
       <c r="D87" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E87" t="s">
         <v>103</v>
       </c>
       <c r="F87">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
@@ -6422,19 +6415,19 @@
         <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C88" t="s">
         <v>64</v>
       </c>
       <c r="D88" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E88" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F88">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
@@ -6442,19 +6435,19 @@
         <v>82</v>
       </c>
       <c r="B89" t="s">
-        <v>190</v>
+        <v>248</v>
       </c>
       <c r="C89" t="s">
-        <v>64</v>
+        <v>271</v>
       </c>
       <c r="D89" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E89" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
@@ -6462,10 +6455,10 @@
         <v>82</v>
       </c>
       <c r="B90" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="C90" t="s">
-        <v>276</v>
+        <v>64</v>
       </c>
       <c r="D90" t="s">
         <v>145</v>
@@ -6474,7 +6467,7 @@
         <v>135</v>
       </c>
       <c r="F90">
-        <v>1.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.4">
@@ -6482,36 +6475,36 @@
         <v>82</v>
       </c>
       <c r="B91" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C91" t="s">
         <v>64</v>
       </c>
       <c r="D91" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E91" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="F91">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>82</v>
+        <v>191</v>
       </c>
       <c r="B92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C92" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D92" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="E92" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -6519,19 +6512,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B93" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C93" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="D93" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="E93" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -6539,13 +6532,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
+        <v>191</v>
+      </c>
+      <c r="B94" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94" t="s">
         <v>194</v>
-      </c>
-      <c r="B94" t="s">
-        <v>196</v>
-      </c>
-      <c r="C94" t="s">
-        <v>34</v>
       </c>
       <c r="D94" t="s">
         <v>79</v>
@@ -6559,19 +6552,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B95" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C95" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
       <c r="D95" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="E95" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -6579,59 +6572,59 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B96" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C96" t="s">
-        <v>64</v>
+        <v>238</v>
       </c>
       <c r="D96" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E96" t="s">
         <v>103</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B97" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C97" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
       <c r="D97" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E97" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F97">
-        <v>0.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B98" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C98" t="s">
-        <v>200</v>
+        <v>64</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E98" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -6639,56 +6632,56 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B99" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C99" t="s">
-        <v>64</v>
+        <v>200</v>
       </c>
       <c r="D99" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="E99" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B100" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C100" t="s">
-        <v>203</v>
+        <v>64</v>
       </c>
       <c r="D100" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E100" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="F100">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B101" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C101" t="s">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="D101" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="E101" t="s">
         <v>106</v>
@@ -6699,19 +6692,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C102" t="s">
-        <v>262</v>
+        <v>64</v>
       </c>
       <c r="D102" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="E102" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -6719,16 +6712,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C103" t="s">
         <v>64</v>
       </c>
       <c r="D103" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E103" t="s">
         <v>103</v>
@@ -6739,13 +6732,13 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C104" t="s">
-        <v>64</v>
+        <v>254</v>
       </c>
       <c r="D104" t="s">
         <v>122</v>
@@ -6759,13 +6752,13 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C105" t="s">
-        <v>259</v>
+        <v>64</v>
       </c>
       <c r="D105" t="s">
         <v>122</v>
@@ -6779,10 +6772,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C106" t="s">
         <v>64</v>
@@ -6799,16 +6792,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C107" t="s">
         <v>64</v>
       </c>
       <c r="D107" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="E107" t="s">
         <v>103</v>
@@ -6819,16 +6812,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C108" t="s">
         <v>64</v>
       </c>
       <c r="D108" t="s">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="E108" t="s">
         <v>103</v>
@@ -6839,30 +6832,30 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B109" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C109" t="s">
         <v>64</v>
       </c>
       <c r="D109" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="E109" t="s">
         <v>103</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B110" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C110" t="s">
         <v>64</v>
@@ -6874,21 +6867,21 @@
         <v>103</v>
       </c>
       <c r="F110">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B111" t="s">
-        <v>213</v>
+        <v>272</v>
       </c>
       <c r="C111" t="s">
         <v>64</v>
       </c>
       <c r="D111" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="E111" t="s">
         <v>103</v>
@@ -6899,16 +6892,16 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B112" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C112" t="s">
         <v>64</v>
       </c>
       <c r="D112" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="E112" t="s">
         <v>103</v>
@@ -6919,56 +6912,56 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B113" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C113" t="s">
         <v>64</v>
       </c>
       <c r="D113" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="E113" t="s">
         <v>103</v>
       </c>
       <c r="F113">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B114" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C114" t="s">
         <v>64</v>
       </c>
       <c r="D114" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="E114" t="s">
         <v>103</v>
       </c>
       <c r="F114">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B115" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C115" t="s">
         <v>64</v>
       </c>
       <c r="D115" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E115" t="s">
         <v>103</v>
@@ -6979,10 +6972,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B116" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C116" t="s">
         <v>64</v>
@@ -6999,50 +6992,50 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B117" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C117" t="s">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="D117" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E117" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F117">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B118" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="C118" t="s">
-        <v>221</v>
+        <v>64</v>
       </c>
       <c r="D118" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="E118" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B119" t="s">
-        <v>265</v>
+        <v>218</v>
       </c>
       <c r="C119" t="s">
         <v>64</v>
@@ -7059,39 +7052,39 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="B120" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C120" t="s">
         <v>64</v>
       </c>
       <c r="D120" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="E120" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="F120">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B121" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C121" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D121" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="E121" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -7099,19 +7092,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B122" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C122" t="s">
-        <v>52</v>
+        <v>223</v>
       </c>
       <c r="D122" t="s">
-        <v>79</v>
+        <v>151</v>
       </c>
       <c r="E122" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -7119,19 +7112,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
+        <v>219</v>
+      </c>
+      <c r="B123" t="s">
         <v>224</v>
       </c>
-      <c r="B123" t="s">
-        <v>227</v>
-      </c>
       <c r="C123" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D123" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="E123" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -7139,19 +7132,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B124" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="C124" t="s">
-        <v>230</v>
+        <v>64</v>
       </c>
       <c r="D124" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="E124" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -7159,16 +7152,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B125" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C125" t="s">
         <v>64</v>
       </c>
       <c r="D125" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E125" t="s">
         <v>106</v>
@@ -7179,16 +7172,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B126" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C126" t="s">
         <v>64</v>
       </c>
       <c r="D126" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="E126" t="s">
         <v>106</v>
@@ -7199,7 +7192,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B127" t="s">
         <v>227</v>
@@ -7208,7 +7201,7 @@
         <v>64</v>
       </c>
       <c r="D127" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="E127" t="s">
         <v>106</v>
@@ -7219,19 +7212,19 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B128" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="C128" t="s">
         <v>64</v>
       </c>
       <c r="D128" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E128" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -7239,61 +7232,41 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B129" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="C129" t="s">
         <v>64</v>
       </c>
       <c r="D129" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E129" t="s">
         <v>103</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B130" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C130" t="s">
         <v>64</v>
       </c>
       <c r="D130" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E130" t="s">
         <v>103</v>
       </c>
       <c r="F130">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
-        <v>224</v>
-      </c>
-      <c r="B131" t="s">
-        <v>234</v>
-      </c>
-      <c r="C131" t="s">
-        <v>64</v>
-      </c>
-      <c r="D131" t="s">
-        <v>119</v>
-      </c>
-      <c r="E131" t="s">
-        <v>103</v>
-      </c>
-      <c r="F131">
         <v>0.02</v>
       </c>
     </row>
